--- a/data/ClueLayoutTests.xlsx
+++ b/data/ClueLayoutTests.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\adit\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23500" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -308,7 +308,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -343,7 +343,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -520,7 +520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -532,24 +532,26 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" customWidth="1"/>
     <col min="3" max="3" width="3" customWidth="1"/>
-    <col min="4" max="4" width="2.42578125" customWidth="1"/>
-    <col min="5" max="5" width="2.140625" customWidth="1"/>
-    <col min="6" max="6" width="2.42578125" customWidth="1"/>
-    <col min="7" max="8" width="2.7109375" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
-    <col min="11" max="19" width="2.42578125" customWidth="1"/>
-    <col min="20" max="20" width="2.7109375" customWidth="1"/>
-    <col min="21" max="22" width="2.42578125" customWidth="1"/>
-    <col min="23" max="26" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="2.5" customWidth="1"/>
+    <col min="5" max="5" width="2.1640625" customWidth="1"/>
+    <col min="6" max="6" width="2.5" customWidth="1"/>
+    <col min="7" max="8" width="2.6640625" customWidth="1"/>
+    <col min="9" max="9" width="2.1640625" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" customWidth="1"/>
+    <col min="11" max="11" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="2.5" customWidth="1"/>
+    <col min="20" max="20" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.5" customWidth="1"/>
+    <col min="23" max="26" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,7 +755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,7 +823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,7 +891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,7 +959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1025,7 +1027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,7 +1095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1161,7 +1163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1229,7 +1231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1297,7 +1299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1365,7 +1367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="14.25" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>1</v>
       </c>
@@ -1433,7 +1435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -1501,7 +1503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="14.25" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -1569,7 +1571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="14.25" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>1</v>
       </c>
@@ -1637,7 +1639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1705,7 +1707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="14.25" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1773,7 +1775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="14.25" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1841,7 +1843,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1909,7 +1911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1977,7 +1979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -2045,7 +2047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -2113,7 +2115,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="14.25" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -2181,7 +2183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="14.25" customHeight="1">
       <c r="A25" s="4">
         <v>0</v>
       </c>
@@ -2247,7 +2249,7 @@
       </c>
       <c r="V25" s="4"/>
     </row>
-    <row r="26" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="14.25" customHeight="1">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -2271,7 +2273,7 @@
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
     </row>
-    <row r="27" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="14.25" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>22</v>
       </c>
@@ -2297,7 +2299,7 @@
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
     </row>
-    <row r="28" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="14.25" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>23</v>
       </c>
@@ -2323,7 +2325,7 @@
       <c r="U28" s="13"/>
       <c r="V28" s="13"/>
     </row>
-    <row r="29" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="14.25" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>24</v>
       </c>
@@ -2349,7 +2351,7 @@
       <c r="U29" s="13"/>
       <c r="V29" s="13"/>
     </row>
-    <row r="30" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="14.25" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>25</v>
       </c>
@@ -2375,7 +2377,7 @@
       <c r="U30" s="13"/>
       <c r="V30" s="13"/>
     </row>
-    <row r="31" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="14.25" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>26</v>
       </c>
@@ -2401,7 +2403,7 @@
       <c r="U31" s="13"/>
       <c r="V31" s="13"/>
     </row>
-    <row r="32" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="14.25" customHeight="1">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -2425,7 +2427,7 @@
       <c r="U32" s="13"/>
       <c r="V32" s="13"/>
     </row>
-    <row r="33" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="14.25" customHeight="1">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -2449,7 +2451,7 @@
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
     </row>
-    <row r="34" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="14.25" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -2473,7 +2475,7 @@
       <c r="U34" s="13"/>
       <c r="V34" s="13"/>
     </row>
-    <row r="35" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="14.25" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -2497,7 +2499,7 @@
       <c r="U35" s="13"/>
       <c r="V35" s="13"/>
     </row>
-    <row r="36" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="14.25" customHeight="1">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -2521,7 +2523,7 @@
       <c r="U36" s="13"/>
       <c r="V36" s="13"/>
     </row>
-    <row r="37" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="14.25" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -2545,7 +2547,7 @@
       <c r="U37" s="13"/>
       <c r="V37" s="13"/>
     </row>
-    <row r="38" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="14.25" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -2569,7 +2571,7 @@
       <c r="U38" s="13"/>
       <c r="V38" s="13"/>
     </row>
-    <row r="39" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="14.25" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -2593,7 +2595,7 @@
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
     </row>
-    <row r="40" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="14.25" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -2617,7 +2619,7 @@
       <c r="U40" s="13"/>
       <c r="V40" s="13"/>
     </row>
-    <row r="41" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="14.25" customHeight="1">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -2641,7 +2643,7 @@
       <c r="U41" s="13"/>
       <c r="V41" s="13"/>
     </row>
-    <row r="42" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="14.25" customHeight="1">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -2665,7 +2667,7 @@
       <c r="U42" s="13"/>
       <c r="V42" s="13"/>
     </row>
-    <row r="43" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="14.25" customHeight="1">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -2689,7 +2691,7 @@
       <c r="U43" s="13"/>
       <c r="V43" s="13"/>
     </row>
-    <row r="44" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="14.25" customHeight="1">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -2713,7 +2715,7 @@
       <c r="U44" s="13"/>
       <c r="V44" s="13"/>
     </row>
-    <row r="45" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="14.25" customHeight="1">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -2737,7 +2739,7 @@
       <c r="U45" s="13"/>
       <c r="V45" s="13"/>
     </row>
-    <row r="46" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="14.25" customHeight="1">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -2761,7 +2763,7 @@
       <c r="U46" s="13"/>
       <c r="V46" s="13"/>
     </row>
-    <row r="47" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="14.25" customHeight="1">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -2785,7 +2787,7 @@
       <c r="U47" s="13"/>
       <c r="V47" s="13"/>
     </row>
-    <row r="48" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="14.25" customHeight="1">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -2809,7 +2811,7 @@
       <c r="U48" s="13"/>
       <c r="V48" s="13"/>
     </row>
-    <row r="49" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="14.25" customHeight="1">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -2833,7 +2835,7 @@
       <c r="U49" s="13"/>
       <c r="V49" s="13"/>
     </row>
-    <row r="50" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="14.25" customHeight="1">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -2857,7 +2859,7 @@
       <c r="U50" s="13"/>
       <c r="V50" s="13"/>
     </row>
-    <row r="51" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="14.25" customHeight="1">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -2881,7 +2883,7 @@
       <c r="U51" s="13"/>
       <c r="V51" s="13"/>
     </row>
-    <row r="52" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" ht="14.25" customHeight="1">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -2905,7 +2907,7 @@
       <c r="U52" s="13"/>
       <c r="V52" s="13"/>
     </row>
-    <row r="53" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" ht="14.25" customHeight="1">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -2929,7 +2931,7 @@
       <c r="U53" s="13"/>
       <c r="V53" s="13"/>
     </row>
-    <row r="54" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" ht="14.25" customHeight="1">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -2953,7 +2955,7 @@
       <c r="U54" s="13"/>
       <c r="V54" s="13"/>
     </row>
-    <row r="55" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" ht="14.25" customHeight="1">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -2977,7 +2979,7 @@
       <c r="U55" s="13"/>
       <c r="V55" s="13"/>
     </row>
-    <row r="56" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" ht="14.25" customHeight="1">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -3001,7 +3003,7 @@
       <c r="U56" s="13"/>
       <c r="V56" s="13"/>
     </row>
-    <row r="57" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" ht="14.25" customHeight="1">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -3025,7 +3027,7 @@
       <c r="U57" s="13"/>
       <c r="V57" s="13"/>
     </row>
-    <row r="58" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" ht="14.25" customHeight="1">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -3049,7 +3051,7 @@
       <c r="U58" s="13"/>
       <c r="V58" s="13"/>
     </row>
-    <row r="59" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" ht="14.25" customHeight="1">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -3073,7 +3075,7 @@
       <c r="U59" s="13"/>
       <c r="V59" s="13"/>
     </row>
-    <row r="60" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" ht="14.25" customHeight="1">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -3097,7 +3099,7 @@
       <c r="U60" s="13"/>
       <c r="V60" s="13"/>
     </row>
-    <row r="61" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" ht="14.25" customHeight="1">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -3121,7 +3123,7 @@
       <c r="U61" s="13"/>
       <c r="V61" s="13"/>
     </row>
-    <row r="62" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" ht="14.25" customHeight="1">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -3145,7 +3147,7 @@
       <c r="U62" s="13"/>
       <c r="V62" s="13"/>
     </row>
-    <row r="63" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" ht="14.25" customHeight="1">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -3169,7 +3171,7 @@
       <c r="U63" s="13"/>
       <c r="V63" s="13"/>
     </row>
-    <row r="64" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" ht="14.25" customHeight="1">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -3193,7 +3195,7 @@
       <c r="U64" s="13"/>
       <c r="V64" s="13"/>
     </row>
-    <row r="65" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" ht="14.25" customHeight="1">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -3217,7 +3219,7 @@
       <c r="U65" s="13"/>
       <c r="V65" s="13"/>
     </row>
-    <row r="66" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" ht="14.25" customHeight="1">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -3241,7 +3243,7 @@
       <c r="U66" s="13"/>
       <c r="V66" s="13"/>
     </row>
-    <row r="67" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" ht="14.25" customHeight="1">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -3265,7 +3267,7 @@
       <c r="U67" s="13"/>
       <c r="V67" s="13"/>
     </row>
-    <row r="68" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" ht="14.25" customHeight="1">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -3289,7 +3291,7 @@
       <c r="U68" s="13"/>
       <c r="V68" s="13"/>
     </row>
-    <row r="69" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" ht="14.25" customHeight="1">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -3313,7 +3315,7 @@
       <c r="U69" s="13"/>
       <c r="V69" s="13"/>
     </row>
-    <row r="70" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" ht="14.25" customHeight="1">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -3337,7 +3339,7 @@
       <c r="U70" s="13"/>
       <c r="V70" s="13"/>
     </row>
-    <row r="71" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" ht="14.25" customHeight="1">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -3361,7 +3363,7 @@
       <c r="U71" s="13"/>
       <c r="V71" s="13"/>
     </row>
-    <row r="72" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" ht="14.25" customHeight="1">
       <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -3385,7 +3387,7 @@
       <c r="U72" s="13"/>
       <c r="V72" s="13"/>
     </row>
-    <row r="73" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" ht="14.25" customHeight="1">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -3409,7 +3411,7 @@
       <c r="U73" s="13"/>
       <c r="V73" s="13"/>
     </row>
-    <row r="74" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" ht="14.25" customHeight="1">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
@@ -3433,7 +3435,7 @@
       <c r="U74" s="13"/>
       <c r="V74" s="13"/>
     </row>
-    <row r="75" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" ht="14.25" customHeight="1">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -3457,7 +3459,7 @@
       <c r="U75" s="13"/>
       <c r="V75" s="13"/>
     </row>
-    <row r="76" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" ht="14.25" customHeight="1">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -3481,7 +3483,7 @@
       <c r="U76" s="13"/>
       <c r="V76" s="13"/>
     </row>
-    <row r="77" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" ht="14.25" customHeight="1">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -3505,7 +3507,7 @@
       <c r="U77" s="13"/>
       <c r="V77" s="13"/>
     </row>
-    <row r="78" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" ht="14.25" customHeight="1">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -3529,7 +3531,7 @@
       <c r="U78" s="13"/>
       <c r="V78" s="13"/>
     </row>
-    <row r="79" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" ht="14.25" customHeight="1">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -3553,7 +3555,7 @@
       <c r="U79" s="13"/>
       <c r="V79" s="13"/>
     </row>
-    <row r="80" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" ht="14.25" customHeight="1">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -3577,7 +3579,7 @@
       <c r="U80" s="13"/>
       <c r="V80" s="13"/>
     </row>
-    <row r="81" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" ht="14.25" customHeight="1">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -3601,7 +3603,7 @@
       <c r="U81" s="13"/>
       <c r="V81" s="13"/>
     </row>
-    <row r="82" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" ht="14.25" customHeight="1">
       <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
@@ -3625,7 +3627,7 @@
       <c r="U82" s="13"/>
       <c r="V82" s="13"/>
     </row>
-    <row r="83" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" ht="14.25" customHeight="1">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
@@ -3649,7 +3651,7 @@
       <c r="U83" s="13"/>
       <c r="V83" s="13"/>
     </row>
-    <row r="84" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" ht="14.25" customHeight="1">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
@@ -3673,7 +3675,7 @@
       <c r="U84" s="13"/>
       <c r="V84" s="13"/>
     </row>
-    <row r="85" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" ht="14.25" customHeight="1">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -3697,7 +3699,7 @@
       <c r="U85" s="13"/>
       <c r="V85" s="13"/>
     </row>
-    <row r="86" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" ht="14.25" customHeight="1">
       <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -3721,7 +3723,7 @@
       <c r="U86" s="13"/>
       <c r="V86" s="13"/>
     </row>
-    <row r="87" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" ht="14.25" customHeight="1">
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -3745,7 +3747,7 @@
       <c r="U87" s="13"/>
       <c r="V87" s="13"/>
     </row>
-    <row r="88" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" ht="14.25" customHeight="1">
       <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -3769,7 +3771,7 @@
       <c r="U88" s="13"/>
       <c r="V88" s="13"/>
     </row>
-    <row r="89" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" ht="14.25" customHeight="1">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -3793,7 +3795,7 @@
       <c r="U89" s="13"/>
       <c r="V89" s="13"/>
     </row>
-    <row r="90" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" ht="14.25" customHeight="1">
       <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
@@ -3817,7 +3819,7 @@
       <c r="U90" s="13"/>
       <c r="V90" s="13"/>
     </row>
-    <row r="91" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" ht="14.25" customHeight="1">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
@@ -3841,7 +3843,7 @@
       <c r="U91" s="13"/>
       <c r="V91" s="13"/>
     </row>
-    <row r="92" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" ht="14.25" customHeight="1">
       <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
@@ -3865,7 +3867,7 @@
       <c r="U92" s="13"/>
       <c r="V92" s="13"/>
     </row>
-    <row r="93" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" ht="14.25" customHeight="1">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
@@ -3889,7 +3891,7 @@
       <c r="U93" s="13"/>
       <c r="V93" s="13"/>
     </row>
-    <row r="94" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" ht="14.25" customHeight="1">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
@@ -3913,7 +3915,7 @@
       <c r="U94" s="13"/>
       <c r="V94" s="13"/>
     </row>
-    <row r="95" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" ht="14.25" customHeight="1">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -3937,7 +3939,7 @@
       <c r="U95" s="13"/>
       <c r="V95" s="13"/>
     </row>
-    <row r="96" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" ht="14.25" customHeight="1">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -3961,7 +3963,7 @@
       <c r="U96" s="13"/>
       <c r="V96" s="13"/>
     </row>
-    <row r="97" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" ht="14.25" customHeight="1">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -3985,7 +3987,7 @@
       <c r="U97" s="13"/>
       <c r="V97" s="13"/>
     </row>
-    <row r="98" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" ht="14.25" customHeight="1">
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -4009,7 +4011,7 @@
       <c r="U98" s="13"/>
       <c r="V98" s="13"/>
     </row>
-    <row r="99" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" ht="14.25" customHeight="1">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -4033,7 +4035,7 @@
       <c r="U99" s="13"/>
       <c r="V99" s="13"/>
     </row>
-    <row r="100" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" ht="14.25" customHeight="1">
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -4057,7 +4059,7 @@
       <c r="U100" s="13"/>
       <c r="V100" s="13"/>
     </row>
-    <row r="101" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" ht="14.25" customHeight="1">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -4081,7 +4083,7 @@
       <c r="U101" s="13"/>
       <c r="V101" s="13"/>
     </row>
-    <row r="102" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" ht="14.25" customHeight="1">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -4105,7 +4107,7 @@
       <c r="U102" s="13"/>
       <c r="V102" s="13"/>
     </row>
-    <row r="103" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" ht="14.25" customHeight="1">
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -4129,7 +4131,7 @@
       <c r="U103" s="13"/>
       <c r="V103" s="13"/>
     </row>
-    <row r="104" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" ht="14.25" customHeight="1">
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -4153,7 +4155,7 @@
       <c r="U104" s="13"/>
       <c r="V104" s="13"/>
     </row>
-    <row r="105" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" ht="14.25" customHeight="1">
       <c r="A105" s="13"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
@@ -4177,7 +4179,7 @@
       <c r="U105" s="13"/>
       <c r="V105" s="13"/>
     </row>
-    <row r="106" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" ht="14.25" customHeight="1">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -4201,7 +4203,7 @@
       <c r="U106" s="13"/>
       <c r="V106" s="13"/>
     </row>
-    <row r="107" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" ht="14.25" customHeight="1">
       <c r="A107" s="13"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -4225,7 +4227,7 @@
       <c r="U107" s="13"/>
       <c r="V107" s="13"/>
     </row>
-    <row r="108" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" ht="14.25" customHeight="1">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -4249,7 +4251,7 @@
       <c r="U108" s="13"/>
       <c r="V108" s="13"/>
     </row>
-    <row r="109" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" ht="14.25" customHeight="1">
       <c r="A109" s="13"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -4273,7 +4275,7 @@
       <c r="U109" s="13"/>
       <c r="V109" s="13"/>
     </row>
-    <row r="110" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" ht="14.25" customHeight="1">
       <c r="A110" s="13"/>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
@@ -4297,7 +4299,7 @@
       <c r="U110" s="13"/>
       <c r="V110" s="13"/>
     </row>
-    <row r="111" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" ht="14.25" customHeight="1">
       <c r="A111" s="13"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -4321,7 +4323,7 @@
       <c r="U111" s="13"/>
       <c r="V111" s="13"/>
     </row>
-    <row r="112" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" ht="14.25" customHeight="1">
       <c r="A112" s="13"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
@@ -4345,7 +4347,7 @@
       <c r="U112" s="13"/>
       <c r="V112" s="13"/>
     </row>
-    <row r="113" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" ht="14.25" customHeight="1">
       <c r="A113" s="13"/>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
@@ -4369,7 +4371,7 @@
       <c r="U113" s="13"/>
       <c r="V113" s="13"/>
     </row>
-    <row r="114" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" ht="14.25" customHeight="1">
       <c r="A114" s="13"/>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
@@ -4393,7 +4395,7 @@
       <c r="U114" s="13"/>
       <c r="V114" s="13"/>
     </row>
-    <row r="115" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" ht="14.25" customHeight="1">
       <c r="A115" s="13"/>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
@@ -4417,7 +4419,7 @@
       <c r="U115" s="13"/>
       <c r="V115" s="13"/>
     </row>
-    <row r="116" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" ht="14.25" customHeight="1">
       <c r="A116" s="13"/>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
@@ -4441,7 +4443,7 @@
       <c r="U116" s="13"/>
       <c r="V116" s="13"/>
     </row>
-    <row r="117" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" ht="14.25" customHeight="1">
       <c r="A117" s="13"/>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
@@ -4465,7 +4467,7 @@
       <c r="U117" s="13"/>
       <c r="V117" s="13"/>
     </row>
-    <row r="118" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" ht="14.25" customHeight="1">
       <c r="A118" s="13"/>
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
@@ -4489,7 +4491,7 @@
       <c r="U118" s="13"/>
       <c r="V118" s="13"/>
     </row>
-    <row r="119" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" ht="14.25" customHeight="1">
       <c r="A119" s="13"/>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
@@ -4513,7 +4515,7 @@
       <c r="U119" s="13"/>
       <c r="V119" s="13"/>
     </row>
-    <row r="120" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" ht="14.25" customHeight="1">
       <c r="A120" s="13"/>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
@@ -4537,7 +4539,7 @@
       <c r="U120" s="13"/>
       <c r="V120" s="13"/>
     </row>
-    <row r="121" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" ht="14.25" customHeight="1">
       <c r="A121" s="13"/>
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
@@ -4561,7 +4563,7 @@
       <c r="U121" s="13"/>
       <c r="V121" s="13"/>
     </row>
-    <row r="122" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" ht="14.25" customHeight="1">
       <c r="A122" s="13"/>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
@@ -4585,7 +4587,7 @@
       <c r="U122" s="13"/>
       <c r="V122" s="13"/>
     </row>
-    <row r="123" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" ht="14.25" customHeight="1">
       <c r="A123" s="13"/>
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
@@ -4609,7 +4611,7 @@
       <c r="U123" s="13"/>
       <c r="V123" s="13"/>
     </row>
-    <row r="124" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" ht="14.25" customHeight="1">
       <c r="A124" s="13"/>
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
@@ -4633,7 +4635,7 @@
       <c r="U124" s="13"/>
       <c r="V124" s="13"/>
     </row>
-    <row r="125" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" ht="14.25" customHeight="1">
       <c r="A125" s="13"/>
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
@@ -4657,7 +4659,7 @@
       <c r="U125" s="13"/>
       <c r="V125" s="13"/>
     </row>
-    <row r="126" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:22" ht="14.25" customHeight="1">
       <c r="A126" s="13"/>
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
@@ -4681,7 +4683,7 @@
       <c r="U126" s="13"/>
       <c r="V126" s="13"/>
     </row>
-    <row r="127" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" ht="14.25" customHeight="1">
       <c r="A127" s="13"/>
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
@@ -4705,7 +4707,7 @@
       <c r="U127" s="13"/>
       <c r="V127" s="13"/>
     </row>
-    <row r="128" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" ht="14.25" customHeight="1">
       <c r="A128" s="13"/>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
@@ -4729,7 +4731,7 @@
       <c r="U128" s="13"/>
       <c r="V128" s="13"/>
     </row>
-    <row r="129" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:22" ht="14.25" customHeight="1">
       <c r="A129" s="13"/>
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
@@ -4753,7 +4755,7 @@
       <c r="U129" s="13"/>
       <c r="V129" s="13"/>
     </row>
-    <row r="130" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:22" ht="14.25" customHeight="1">
       <c r="A130" s="13"/>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
@@ -4777,7 +4779,7 @@
       <c r="U130" s="13"/>
       <c r="V130" s="13"/>
     </row>
-    <row r="131" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:22" ht="14.25" customHeight="1">
       <c r="A131" s="13"/>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
@@ -4801,7 +4803,7 @@
       <c r="U131" s="13"/>
       <c r="V131" s="13"/>
     </row>
-    <row r="132" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:22" ht="14.25" customHeight="1">
       <c r="A132" s="13"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
@@ -4825,7 +4827,7 @@
       <c r="U132" s="13"/>
       <c r="V132" s="13"/>
     </row>
-    <row r="133" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:22" ht="14.25" customHeight="1">
       <c r="A133" s="13"/>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
@@ -4849,7 +4851,7 @@
       <c r="U133" s="13"/>
       <c r="V133" s="13"/>
     </row>
-    <row r="134" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:22" ht="14.25" customHeight="1">
       <c r="A134" s="13"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -4873,7 +4875,7 @@
       <c r="U134" s="13"/>
       <c r="V134" s="13"/>
     </row>
-    <row r="135" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:22" ht="14.25" customHeight="1">
       <c r="A135" s="13"/>
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
@@ -4897,7 +4899,7 @@
       <c r="U135" s="13"/>
       <c r="V135" s="13"/>
     </row>
-    <row r="136" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:22" ht="14.25" customHeight="1">
       <c r="A136" s="13"/>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
@@ -4921,7 +4923,7 @@
       <c r="U136" s="13"/>
       <c r="V136" s="13"/>
     </row>
-    <row r="137" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:22" ht="14.25" customHeight="1">
       <c r="A137" s="13"/>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
@@ -4945,7 +4947,7 @@
       <c r="U137" s="13"/>
       <c r="V137" s="13"/>
     </row>
-    <row r="138" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:22" ht="14.25" customHeight="1">
       <c r="A138" s="13"/>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
@@ -4969,7 +4971,7 @@
       <c r="U138" s="13"/>
       <c r="V138" s="13"/>
     </row>
-    <row r="139" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:22" ht="14.25" customHeight="1">
       <c r="A139" s="13"/>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
@@ -4993,7 +4995,7 @@
       <c r="U139" s="13"/>
       <c r="V139" s="13"/>
     </row>
-    <row r="140" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:22" ht="14.25" customHeight="1">
       <c r="A140" s="13"/>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
@@ -5017,7 +5019,7 @@
       <c r="U140" s="13"/>
       <c r="V140" s="13"/>
     </row>
-    <row r="141" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:22" ht="14.25" customHeight="1">
       <c r="A141" s="13"/>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
@@ -5041,7 +5043,7 @@
       <c r="U141" s="13"/>
       <c r="V141" s="13"/>
     </row>
-    <row r="142" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:22" ht="14.25" customHeight="1">
       <c r="A142" s="13"/>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
@@ -5065,7 +5067,7 @@
       <c r="U142" s="13"/>
       <c r="V142" s="13"/>
     </row>
-    <row r="143" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:22" ht="14.25" customHeight="1">
       <c r="A143" s="13"/>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
@@ -5089,7 +5091,7 @@
       <c r="U143" s="13"/>
       <c r="V143" s="13"/>
     </row>
-    <row r="144" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:22" ht="14.25" customHeight="1">
       <c r="A144" s="13"/>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
@@ -5113,7 +5115,7 @@
       <c r="U144" s="13"/>
       <c r="V144" s="13"/>
     </row>
-    <row r="145" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:22" ht="14.25" customHeight="1">
       <c r="A145" s="13"/>
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
@@ -5137,7 +5139,7 @@
       <c r="U145" s="13"/>
       <c r="V145" s="13"/>
     </row>
-    <row r="146" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:22" ht="14.25" customHeight="1">
       <c r="A146" s="13"/>
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
@@ -5161,7 +5163,7 @@
       <c r="U146" s="13"/>
       <c r="V146" s="13"/>
     </row>
-    <row r="147" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:22" ht="14.25" customHeight="1">
       <c r="A147" s="13"/>
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
@@ -5185,7 +5187,7 @@
       <c r="U147" s="13"/>
       <c r="V147" s="13"/>
     </row>
-    <row r="148" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:22" ht="14.25" customHeight="1">
       <c r="A148" s="13"/>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
@@ -5209,7 +5211,7 @@
       <c r="U148" s="13"/>
       <c r="V148" s="13"/>
     </row>
-    <row r="149" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:22" ht="14.25" customHeight="1">
       <c r="A149" s="13"/>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
@@ -5233,7 +5235,7 @@
       <c r="U149" s="13"/>
       <c r="V149" s="13"/>
     </row>
-    <row r="150" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:22" ht="14.25" customHeight="1">
       <c r="A150" s="13"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -5257,7 +5259,7 @@
       <c r="U150" s="13"/>
       <c r="V150" s="13"/>
     </row>
-    <row r="151" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:22" ht="14.25" customHeight="1">
       <c r="A151" s="13"/>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -5281,7 +5283,7 @@
       <c r="U151" s="13"/>
       <c r="V151" s="13"/>
     </row>
-    <row r="152" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:22" ht="14.25" customHeight="1">
       <c r="A152" s="13"/>
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
@@ -5305,7 +5307,7 @@
       <c r="U152" s="13"/>
       <c r="V152" s="13"/>
     </row>
-    <row r="153" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:22" ht="14.25" customHeight="1">
       <c r="A153" s="13"/>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
@@ -5329,7 +5331,7 @@
       <c r="U153" s="13"/>
       <c r="V153" s="13"/>
     </row>
-    <row r="154" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:22" ht="14.25" customHeight="1">
       <c r="A154" s="13"/>
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
@@ -5353,7 +5355,7 @@
       <c r="U154" s="13"/>
       <c r="V154" s="13"/>
     </row>
-    <row r="155" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:22" ht="14.25" customHeight="1">
       <c r="A155" s="13"/>
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
@@ -5377,7 +5379,7 @@
       <c r="U155" s="13"/>
       <c r="V155" s="13"/>
     </row>
-    <row r="156" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:22" ht="14.25" customHeight="1">
       <c r="A156" s="13"/>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
@@ -5401,7 +5403,7 @@
       <c r="U156" s="13"/>
       <c r="V156" s="13"/>
     </row>
-    <row r="157" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:22" ht="14.25" customHeight="1">
       <c r="A157" s="13"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -5425,7 +5427,7 @@
       <c r="U157" s="13"/>
       <c r="V157" s="13"/>
     </row>
-    <row r="158" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:22" ht="14.25" customHeight="1">
       <c r="A158" s="13"/>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
@@ -5449,7 +5451,7 @@
       <c r="U158" s="13"/>
       <c r="V158" s="13"/>
     </row>
-    <row r="159" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:22" ht="14.25" customHeight="1">
       <c r="A159" s="13"/>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
@@ -5473,7 +5475,7 @@
       <c r="U159" s="13"/>
       <c r="V159" s="13"/>
     </row>
-    <row r="160" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:22" ht="14.25" customHeight="1">
       <c r="A160" s="13"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -5497,7 +5499,7 @@
       <c r="U160" s="13"/>
       <c r="V160" s="13"/>
     </row>
-    <row r="161" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:22" ht="14.25" customHeight="1">
       <c r="A161" s="13"/>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
@@ -5521,7 +5523,7 @@
       <c r="U161" s="13"/>
       <c r="V161" s="13"/>
     </row>
-    <row r="162" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:22" ht="14.25" customHeight="1">
       <c r="A162" s="13"/>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
@@ -5545,7 +5547,7 @@
       <c r="U162" s="13"/>
       <c r="V162" s="13"/>
     </row>
-    <row r="163" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:22" ht="14.25" customHeight="1">
       <c r="A163" s="13"/>
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
@@ -5569,7 +5571,7 @@
       <c r="U163" s="13"/>
       <c r="V163" s="13"/>
     </row>
-    <row r="164" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:22" ht="14.25" customHeight="1">
       <c r="A164" s="13"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
@@ -5593,7 +5595,7 @@
       <c r="U164" s="13"/>
       <c r="V164" s="13"/>
     </row>
-    <row r="165" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:22" ht="14.25" customHeight="1">
       <c r="A165" s="13"/>
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
@@ -5617,7 +5619,7 @@
       <c r="U165" s="13"/>
       <c r="V165" s="13"/>
     </row>
-    <row r="166" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:22" ht="14.25" customHeight="1">
       <c r="A166" s="13"/>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
@@ -5641,7 +5643,7 @@
       <c r="U166" s="13"/>
       <c r="V166" s="13"/>
     </row>
-    <row r="167" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:22" ht="14.25" customHeight="1">
       <c r="A167" s="13"/>
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
@@ -5665,7 +5667,7 @@
       <c r="U167" s="13"/>
       <c r="V167" s="13"/>
     </row>
-    <row r="168" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:22" ht="14.25" customHeight="1">
       <c r="A168" s="13"/>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
@@ -5689,7 +5691,7 @@
       <c r="U168" s="13"/>
       <c r="V168" s="13"/>
     </row>
-    <row r="169" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:22" ht="14.25" customHeight="1">
       <c r="A169" s="13"/>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
@@ -5713,7 +5715,7 @@
       <c r="U169" s="13"/>
       <c r="V169" s="13"/>
     </row>
-    <row r="170" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:22" ht="14.25" customHeight="1">
       <c r="A170" s="13"/>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
@@ -5737,7 +5739,7 @@
       <c r="U170" s="13"/>
       <c r="V170" s="13"/>
     </row>
-    <row r="171" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:22" ht="14.25" customHeight="1">
       <c r="A171" s="13"/>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
@@ -5761,7 +5763,7 @@
       <c r="U171" s="13"/>
       <c r="V171" s="13"/>
     </row>
-    <row r="172" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:22" ht="14.25" customHeight="1">
       <c r="A172" s="13"/>
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
@@ -5785,7 +5787,7 @@
       <c r="U172" s="13"/>
       <c r="V172" s="13"/>
     </row>
-    <row r="173" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:22" ht="14.25" customHeight="1">
       <c r="A173" s="13"/>
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
@@ -5809,7 +5811,7 @@
       <c r="U173" s="13"/>
       <c r="V173" s="13"/>
     </row>
-    <row r="174" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:22" ht="14.25" customHeight="1">
       <c r="A174" s="13"/>
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
@@ -5833,7 +5835,7 @@
       <c r="U174" s="13"/>
       <c r="V174" s="13"/>
     </row>
-    <row r="175" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:22" ht="14.25" customHeight="1">
       <c r="A175" s="13"/>
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
@@ -5857,7 +5859,7 @@
       <c r="U175" s="13"/>
       <c r="V175" s="13"/>
     </row>
-    <row r="176" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:22" ht="14.25" customHeight="1">
       <c r="A176" s="13"/>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
@@ -5881,7 +5883,7 @@
       <c r="U176" s="13"/>
       <c r="V176" s="13"/>
     </row>
-    <row r="177" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:22" ht="14.25" customHeight="1">
       <c r="A177" s="13"/>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
@@ -5905,7 +5907,7 @@
       <c r="U177" s="13"/>
       <c r="V177" s="13"/>
     </row>
-    <row r="178" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:22" ht="14.25" customHeight="1">
       <c r="A178" s="13"/>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
@@ -5929,7 +5931,7 @@
       <c r="U178" s="13"/>
       <c r="V178" s="13"/>
     </row>
-    <row r="179" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:22" ht="14.25" customHeight="1">
       <c r="A179" s="13"/>
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
@@ -5953,7 +5955,7 @@
       <c r="U179" s="13"/>
       <c r="V179" s="13"/>
     </row>
-    <row r="180" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:22" ht="14.25" customHeight="1">
       <c r="A180" s="13"/>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
@@ -5977,7 +5979,7 @@
       <c r="U180" s="13"/>
       <c r="V180" s="13"/>
     </row>
-    <row r="181" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:22" ht="14.25" customHeight="1">
       <c r="A181" s="13"/>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
@@ -6001,7 +6003,7 @@
       <c r="U181" s="13"/>
       <c r="V181" s="13"/>
     </row>
-    <row r="182" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:22" ht="14.25" customHeight="1">
       <c r="A182" s="13"/>
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
@@ -6025,7 +6027,7 @@
       <c r="U182" s="13"/>
       <c r="V182" s="13"/>
     </row>
-    <row r="183" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:22" ht="14.25" customHeight="1">
       <c r="A183" s="13"/>
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
@@ -6049,7 +6051,7 @@
       <c r="U183" s="13"/>
       <c r="V183" s="13"/>
     </row>
-    <row r="184" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:22" ht="14.25" customHeight="1">
       <c r="A184" s="13"/>
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
@@ -6073,7 +6075,7 @@
       <c r="U184" s="13"/>
       <c r="V184" s="13"/>
     </row>
-    <row r="185" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:22" ht="14.25" customHeight="1">
       <c r="A185" s="13"/>
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
@@ -6097,7 +6099,7 @@
       <c r="U185" s="13"/>
       <c r="V185" s="13"/>
     </row>
-    <row r="186" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:22" ht="14.25" customHeight="1">
       <c r="A186" s="13"/>
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
@@ -6121,7 +6123,7 @@
       <c r="U186" s="13"/>
       <c r="V186" s="13"/>
     </row>
-    <row r="187" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:22" ht="14.25" customHeight="1">
       <c r="A187" s="13"/>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
@@ -6145,7 +6147,7 @@
       <c r="U187" s="13"/>
       <c r="V187" s="13"/>
     </row>
-    <row r="188" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:22" ht="14.25" customHeight="1">
       <c r="A188" s="13"/>
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
@@ -6169,7 +6171,7 @@
       <c r="U188" s="13"/>
       <c r="V188" s="13"/>
     </row>
-    <row r="189" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:22" ht="14.25" customHeight="1">
       <c r="A189" s="13"/>
       <c r="B189" s="13"/>
       <c r="C189" s="13"/>
@@ -6193,7 +6195,7 @@
       <c r="U189" s="13"/>
       <c r="V189" s="13"/>
     </row>
-    <row r="190" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:22" ht="14.25" customHeight="1">
       <c r="A190" s="13"/>
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
@@ -6217,7 +6219,7 @@
       <c r="U190" s="13"/>
       <c r="V190" s="13"/>
     </row>
-    <row r="191" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:22" ht="14.25" customHeight="1">
       <c r="A191" s="13"/>
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
@@ -6241,7 +6243,7 @@
       <c r="U191" s="13"/>
       <c r="V191" s="13"/>
     </row>
-    <row r="192" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:22" ht="14.25" customHeight="1">
       <c r="A192" s="13"/>
       <c r="B192" s="13"/>
       <c r="C192" s="13"/>
@@ -6265,7 +6267,7 @@
       <c r="U192" s="13"/>
       <c r="V192" s="13"/>
     </row>
-    <row r="193" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:22" ht="14.25" customHeight="1">
       <c r="A193" s="13"/>
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
@@ -6289,7 +6291,7 @@
       <c r="U193" s="13"/>
       <c r="V193" s="13"/>
     </row>
-    <row r="194" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:22" ht="14.25" customHeight="1">
       <c r="A194" s="13"/>
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
@@ -6313,7 +6315,7 @@
       <c r="U194" s="13"/>
       <c r="V194" s="13"/>
     </row>
-    <row r="195" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:22" ht="14.25" customHeight="1">
       <c r="A195" s="13"/>
       <c r="B195" s="13"/>
       <c r="C195" s="13"/>
@@ -6337,7 +6339,7 @@
       <c r="U195" s="13"/>
       <c r="V195" s="13"/>
     </row>
-    <row r="196" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:22" ht="14.25" customHeight="1">
       <c r="A196" s="13"/>
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
@@ -6361,7 +6363,7 @@
       <c r="U196" s="13"/>
       <c r="V196" s="13"/>
     </row>
-    <row r="197" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:22" ht="14.25" customHeight="1">
       <c r="A197" s="13"/>
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
@@ -6385,7 +6387,7 @@
       <c r="U197" s="13"/>
       <c r="V197" s="13"/>
     </row>
-    <row r="198" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:22" ht="14.25" customHeight="1">
       <c r="A198" s="13"/>
       <c r="B198" s="13"/>
       <c r="C198" s="13"/>
@@ -6409,7 +6411,7 @@
       <c r="U198" s="13"/>
       <c r="V198" s="13"/>
     </row>
-    <row r="199" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:22" ht="14.25" customHeight="1">
       <c r="A199" s="13"/>
       <c r="B199" s="13"/>
       <c r="C199" s="13"/>
@@ -6433,7 +6435,7 @@
       <c r="U199" s="13"/>
       <c r="V199" s="13"/>
     </row>
-    <row r="200" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:22" ht="14.25" customHeight="1">
       <c r="A200" s="13"/>
       <c r="B200" s="13"/>
       <c r="C200" s="13"/>
@@ -6457,7 +6459,7 @@
       <c r="U200" s="13"/>
       <c r="V200" s="13"/>
     </row>
-    <row r="201" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:22" ht="14.25" customHeight="1">
       <c r="A201" s="13"/>
       <c r="B201" s="13"/>
       <c r="C201" s="13"/>
@@ -6481,7 +6483,7 @@
       <c r="U201" s="13"/>
       <c r="V201" s="13"/>
     </row>
-    <row r="202" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:22" ht="14.25" customHeight="1">
       <c r="A202" s="13"/>
       <c r="B202" s="13"/>
       <c r="C202" s="13"/>
@@ -6505,7 +6507,7 @@
       <c r="U202" s="13"/>
       <c r="V202" s="13"/>
     </row>
-    <row r="203" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:22" ht="14.25" customHeight="1">
       <c r="A203" s="13"/>
       <c r="B203" s="13"/>
       <c r="C203" s="13"/>
@@ -6529,7 +6531,7 @@
       <c r="U203" s="13"/>
       <c r="V203" s="13"/>
     </row>
-    <row r="204" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:22" ht="14.25" customHeight="1">
       <c r="A204" s="13"/>
       <c r="B204" s="13"/>
       <c r="C204" s="13"/>
@@ -6553,7 +6555,7 @@
       <c r="U204" s="13"/>
       <c r="V204" s="13"/>
     </row>
-    <row r="205" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:22" ht="14.25" customHeight="1">
       <c r="A205" s="13"/>
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
@@ -6577,7 +6579,7 @@
       <c r="U205" s="13"/>
       <c r="V205" s="13"/>
     </row>
-    <row r="206" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:22" ht="14.25" customHeight="1">
       <c r="A206" s="13"/>
       <c r="B206" s="13"/>
       <c r="C206" s="13"/>
@@ -6601,7 +6603,7 @@
       <c r="U206" s="13"/>
       <c r="V206" s="13"/>
     </row>
-    <row r="207" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:22" ht="14.25" customHeight="1">
       <c r="A207" s="13"/>
       <c r="B207" s="13"/>
       <c r="C207" s="13"/>
@@ -6625,7 +6627,7 @@
       <c r="U207" s="13"/>
       <c r="V207" s="13"/>
     </row>
-    <row r="208" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:22" ht="14.25" customHeight="1">
       <c r="A208" s="13"/>
       <c r="B208" s="13"/>
       <c r="C208" s="13"/>
@@ -6649,7 +6651,7 @@
       <c r="U208" s="13"/>
       <c r="V208" s="13"/>
     </row>
-    <row r="209" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:22" ht="14.25" customHeight="1">
       <c r="A209" s="13"/>
       <c r="B209" s="13"/>
       <c r="C209" s="13"/>
@@ -6673,7 +6675,7 @@
       <c r="U209" s="13"/>
       <c r="V209" s="13"/>
     </row>
-    <row r="210" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:22" ht="14.25" customHeight="1">
       <c r="A210" s="13"/>
       <c r="B210" s="13"/>
       <c r="C210" s="13"/>
@@ -6697,7 +6699,7 @@
       <c r="U210" s="13"/>
       <c r="V210" s="13"/>
     </row>
-    <row r="211" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:22" ht="14.25" customHeight="1">
       <c r="A211" s="13"/>
       <c r="B211" s="13"/>
       <c r="C211" s="13"/>
@@ -6721,7 +6723,7 @@
       <c r="U211" s="13"/>
       <c r="V211" s="13"/>
     </row>
-    <row r="212" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:22" ht="14.25" customHeight="1">
       <c r="A212" s="13"/>
       <c r="B212" s="13"/>
       <c r="C212" s="13"/>
@@ -6745,7 +6747,7 @@
       <c r="U212" s="13"/>
       <c r="V212" s="13"/>
     </row>
-    <row r="213" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:22" ht="14.25" customHeight="1">
       <c r="A213" s="13"/>
       <c r="B213" s="13"/>
       <c r="C213" s="13"/>
@@ -6769,7 +6771,7 @@
       <c r="U213" s="13"/>
       <c r="V213" s="13"/>
     </row>
-    <row r="214" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:22" ht="14.25" customHeight="1">
       <c r="A214" s="13"/>
       <c r="B214" s="13"/>
       <c r="C214" s="13"/>
@@ -6793,7 +6795,7 @@
       <c r="U214" s="13"/>
       <c r="V214" s="13"/>
     </row>
-    <row r="215" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:22" ht="14.25" customHeight="1">
       <c r="A215" s="13"/>
       <c r="B215" s="13"/>
       <c r="C215" s="13"/>
@@ -6817,7 +6819,7 @@
       <c r="U215" s="13"/>
       <c r="V215" s="13"/>
     </row>
-    <row r="216" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:22" ht="14.25" customHeight="1">
       <c r="A216" s="13"/>
       <c r="B216" s="13"/>
       <c r="C216" s="13"/>
@@ -6841,7 +6843,7 @@
       <c r="U216" s="13"/>
       <c r="V216" s="13"/>
     </row>
-    <row r="217" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:22" ht="14.25" customHeight="1">
       <c r="A217" s="13"/>
       <c r="B217" s="13"/>
       <c r="C217" s="13"/>
@@ -6865,7 +6867,7 @@
       <c r="U217" s="13"/>
       <c r="V217" s="13"/>
     </row>
-    <row r="218" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:22" ht="14.25" customHeight="1">
       <c r="A218" s="13"/>
       <c r="B218" s="13"/>
       <c r="C218" s="13"/>
@@ -6889,7 +6891,7 @@
       <c r="U218" s="13"/>
       <c r="V218" s="13"/>
     </row>
-    <row r="219" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:22" ht="14.25" customHeight="1">
       <c r="A219" s="13"/>
       <c r="B219" s="13"/>
       <c r="C219" s="13"/>
@@ -6913,7 +6915,7 @@
       <c r="U219" s="13"/>
       <c r="V219" s="13"/>
     </row>
-    <row r="220" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:22" ht="14.25" customHeight="1">
       <c r="A220" s="13"/>
       <c r="B220" s="13"/>
       <c r="C220" s="13"/>
@@ -6937,7 +6939,7 @@
       <c r="U220" s="13"/>
       <c r="V220" s="13"/>
     </row>
-    <row r="221" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:22" ht="14.25" customHeight="1">
       <c r="A221" s="13"/>
       <c r="B221" s="13"/>
       <c r="C221" s="13"/>
@@ -6961,7 +6963,7 @@
       <c r="U221" s="13"/>
       <c r="V221" s="13"/>
     </row>
-    <row r="222" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:22" ht="14.25" customHeight="1">
       <c r="A222" s="13"/>
       <c r="B222" s="13"/>
       <c r="C222" s="13"/>
@@ -6985,7 +6987,7 @@
       <c r="U222" s="13"/>
       <c r="V222" s="13"/>
     </row>
-    <row r="223" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:22" ht="14.25" customHeight="1">
       <c r="A223" s="13"/>
       <c r="B223" s="13"/>
       <c r="C223" s="13"/>
@@ -7009,7 +7011,7 @@
       <c r="U223" s="13"/>
       <c r="V223" s="13"/>
     </row>
-    <row r="224" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:22" ht="14.25" customHeight="1">
       <c r="A224" s="13"/>
       <c r="B224" s="13"/>
       <c r="C224" s="13"/>
@@ -7033,7 +7035,7 @@
       <c r="U224" s="13"/>
       <c r="V224" s="13"/>
     </row>
-    <row r="225" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:22" ht="14.25" customHeight="1">
       <c r="A225" s="13"/>
       <c r="B225" s="13"/>
       <c r="C225" s="13"/>
@@ -7057,7 +7059,7 @@
       <c r="U225" s="13"/>
       <c r="V225" s="13"/>
     </row>
-    <row r="226" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:22" ht="14.25" customHeight="1">
       <c r="A226" s="13"/>
       <c r="B226" s="13"/>
       <c r="C226" s="13"/>
@@ -7081,7 +7083,7 @@
       <c r="U226" s="13"/>
       <c r="V226" s="13"/>
     </row>
-    <row r="227" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:22" ht="14.25" customHeight="1">
       <c r="A227" s="13"/>
       <c r="B227" s="13"/>
       <c r="C227" s="13"/>
@@ -7105,7 +7107,7 @@
       <c r="U227" s="13"/>
       <c r="V227" s="13"/>
     </row>
-    <row r="228" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:22" ht="14.25" customHeight="1">
       <c r="A228" s="13"/>
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
@@ -7129,7 +7131,7 @@
       <c r="U228" s="13"/>
       <c r="V228" s="13"/>
     </row>
-    <row r="229" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:22" ht="14.25" customHeight="1">
       <c r="A229" s="13"/>
       <c r="B229" s="13"/>
       <c r="C229" s="13"/>
@@ -7153,7 +7155,7 @@
       <c r="U229" s="13"/>
       <c r="V229" s="13"/>
     </row>
-    <row r="230" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:22" ht="14.25" customHeight="1">
       <c r="A230" s="13"/>
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
@@ -7177,7 +7179,7 @@
       <c r="U230" s="13"/>
       <c r="V230" s="13"/>
     </row>
-    <row r="231" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:22" ht="14.25" customHeight="1">
       <c r="A231" s="13"/>
       <c r="B231" s="13"/>
       <c r="C231" s="13"/>
@@ -7201,7 +7203,7 @@
       <c r="U231" s="13"/>
       <c r="V231" s="13"/>
     </row>
-    <row r="232" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:22" ht="14.25" customHeight="1">
       <c r="A232" s="13"/>
       <c r="B232" s="13"/>
       <c r="C232" s="13"/>
@@ -7225,7 +7227,7 @@
       <c r="U232" s="13"/>
       <c r="V232" s="13"/>
     </row>
-    <row r="233" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:22" ht="14.25" customHeight="1">
       <c r="A233" s="13"/>
       <c r="B233" s="13"/>
       <c r="C233" s="13"/>
@@ -7249,7 +7251,7 @@
       <c r="U233" s="13"/>
       <c r="V233" s="13"/>
     </row>
-    <row r="234" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:22" ht="14.25" customHeight="1">
       <c r="A234" s="13"/>
       <c r="B234" s="13"/>
       <c r="C234" s="13"/>
@@ -7273,7 +7275,7 @@
       <c r="U234" s="13"/>
       <c r="V234" s="13"/>
     </row>
-    <row r="235" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:22" ht="14.25" customHeight="1">
       <c r="A235" s="13"/>
       <c r="B235" s="13"/>
       <c r="C235" s="13"/>
@@ -7297,7 +7299,7 @@
       <c r="U235" s="13"/>
       <c r="V235" s="13"/>
     </row>
-    <row r="236" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:22" ht="14.25" customHeight="1">
       <c r="A236" s="13"/>
       <c r="B236" s="13"/>
       <c r="C236" s="13"/>
@@ -7321,7 +7323,7 @@
       <c r="U236" s="13"/>
       <c r="V236" s="13"/>
     </row>
-    <row r="237" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:22" ht="14.25" customHeight="1">
       <c r="A237" s="13"/>
       <c r="B237" s="13"/>
       <c r="C237" s="13"/>
@@ -7345,7 +7347,7 @@
       <c r="U237" s="13"/>
       <c r="V237" s="13"/>
     </row>
-    <row r="238" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:22" ht="14.25" customHeight="1">
       <c r="A238" s="13"/>
       <c r="B238" s="13"/>
       <c r="C238" s="13"/>
@@ -7369,7 +7371,7 @@
       <c r="U238" s="13"/>
       <c r="V238" s="13"/>
     </row>
-    <row r="239" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:22" ht="14.25" customHeight="1">
       <c r="A239" s="13"/>
       <c r="B239" s="13"/>
       <c r="C239" s="13"/>
@@ -7393,7 +7395,7 @@
       <c r="U239" s="13"/>
       <c r="V239" s="13"/>
     </row>
-    <row r="240" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:22" ht="14.25" customHeight="1">
       <c r="A240" s="13"/>
       <c r="B240" s="13"/>
       <c r="C240" s="13"/>
@@ -7417,7 +7419,7 @@
       <c r="U240" s="13"/>
       <c r="V240" s="13"/>
     </row>
-    <row r="241" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:22" ht="14.25" customHeight="1">
       <c r="A241" s="13"/>
       <c r="B241" s="13"/>
       <c r="C241" s="13"/>
@@ -7441,7 +7443,7 @@
       <c r="U241" s="13"/>
       <c r="V241" s="13"/>
     </row>
-    <row r="242" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:22" ht="14.25" customHeight="1">
       <c r="A242" s="13"/>
       <c r="B242" s="13"/>
       <c r="C242" s="13"/>
@@ -7465,7 +7467,7 @@
       <c r="U242" s="13"/>
       <c r="V242" s="13"/>
     </row>
-    <row r="243" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:22" ht="14.25" customHeight="1">
       <c r="A243" s="13"/>
       <c r="B243" s="13"/>
       <c r="C243" s="13"/>
@@ -7489,7 +7491,7 @@
       <c r="U243" s="13"/>
       <c r="V243" s="13"/>
     </row>
-    <row r="244" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:22" ht="14.25" customHeight="1">
       <c r="A244" s="13"/>
       <c r="B244" s="13"/>
       <c r="C244" s="13"/>
@@ -7513,7 +7515,7 @@
       <c r="U244" s="13"/>
       <c r="V244" s="13"/>
     </row>
-    <row r="245" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:22" ht="14.25" customHeight="1">
       <c r="A245" s="13"/>
       <c r="B245" s="13"/>
       <c r="C245" s="13"/>
@@ -7537,7 +7539,7 @@
       <c r="U245" s="13"/>
       <c r="V245" s="13"/>
     </row>
-    <row r="246" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:22" ht="14.25" customHeight="1">
       <c r="A246" s="13"/>
       <c r="B246" s="13"/>
       <c r="C246" s="13"/>
@@ -7561,7 +7563,7 @@
       <c r="U246" s="13"/>
       <c r="V246" s="13"/>
     </row>
-    <row r="247" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:22" ht="14.25" customHeight="1">
       <c r="A247" s="13"/>
       <c r="B247" s="13"/>
       <c r="C247" s="13"/>
@@ -7585,7 +7587,7 @@
       <c r="U247" s="13"/>
       <c r="V247" s="13"/>
     </row>
-    <row r="248" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:22" ht="14.25" customHeight="1">
       <c r="A248" s="13"/>
       <c r="B248" s="13"/>
       <c r="C248" s="13"/>
@@ -7609,7 +7611,7 @@
       <c r="U248" s="13"/>
       <c r="V248" s="13"/>
     </row>
-    <row r="249" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:22" ht="14.25" customHeight="1">
       <c r="A249" s="13"/>
       <c r="B249" s="13"/>
       <c r="C249" s="13"/>
@@ -7633,7 +7635,7 @@
       <c r="U249" s="13"/>
       <c r="V249" s="13"/>
     </row>
-    <row r="250" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:22" ht="14.25" customHeight="1">
       <c r="A250" s="13"/>
       <c r="B250" s="13"/>
       <c r="C250" s="13"/>
@@ -7657,7 +7659,7 @@
       <c r="U250" s="13"/>
       <c r="V250" s="13"/>
     </row>
-    <row r="251" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:22" ht="14.25" customHeight="1">
       <c r="A251" s="13"/>
       <c r="B251" s="13"/>
       <c r="C251" s="13"/>
@@ -7681,7 +7683,7 @@
       <c r="U251" s="13"/>
       <c r="V251" s="13"/>
     </row>
-    <row r="252" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:22" ht="14.25" customHeight="1">
       <c r="A252" s="13"/>
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
@@ -7705,7 +7707,7 @@
       <c r="U252" s="13"/>
       <c r="V252" s="13"/>
     </row>
-    <row r="253" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:22" ht="14.25" customHeight="1">
       <c r="A253" s="13"/>
       <c r="B253" s="13"/>
       <c r="C253" s="13"/>
@@ -7729,7 +7731,7 @@
       <c r="U253" s="13"/>
       <c r="V253" s="13"/>
     </row>
-    <row r="254" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:22" ht="14.25" customHeight="1">
       <c r="A254" s="13"/>
       <c r="B254" s="13"/>
       <c r="C254" s="13"/>
@@ -7753,7 +7755,7 @@
       <c r="U254" s="13"/>
       <c r="V254" s="13"/>
     </row>
-    <row r="255" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:22" ht="14.25" customHeight="1">
       <c r="A255" s="13"/>
       <c r="B255" s="13"/>
       <c r="C255" s="13"/>
@@ -7777,7 +7779,7 @@
       <c r="U255" s="13"/>
       <c r="V255" s="13"/>
     </row>
-    <row r="256" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:22" ht="14.25" customHeight="1">
       <c r="A256" s="13"/>
       <c r="B256" s="13"/>
       <c r="C256" s="13"/>
@@ -7801,7 +7803,7 @@
       <c r="U256" s="13"/>
       <c r="V256" s="13"/>
     </row>
-    <row r="257" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:22" ht="14.25" customHeight="1">
       <c r="A257" s="13"/>
       <c r="B257" s="13"/>
       <c r="C257" s="13"/>
@@ -7825,7 +7827,7 @@
       <c r="U257" s="13"/>
       <c r="V257" s="13"/>
     </row>
-    <row r="258" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:22" ht="14.25" customHeight="1">
       <c r="A258" s="13"/>
       <c r="B258" s="13"/>
       <c r="C258" s="13"/>
@@ -7849,7 +7851,7 @@
       <c r="U258" s="13"/>
       <c r="V258" s="13"/>
     </row>
-    <row r="259" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:22" ht="14.25" customHeight="1">
       <c r="A259" s="13"/>
       <c r="B259" s="13"/>
       <c r="C259" s="13"/>
@@ -7873,7 +7875,7 @@
       <c r="U259" s="13"/>
       <c r="V259" s="13"/>
     </row>
-    <row r="260" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:22" ht="14.25" customHeight="1">
       <c r="A260" s="13"/>
       <c r="B260" s="13"/>
       <c r="C260" s="13"/>
@@ -7897,7 +7899,7 @@
       <c r="U260" s="13"/>
       <c r="V260" s="13"/>
     </row>
-    <row r="261" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:22" ht="14.25" customHeight="1">
       <c r="A261" s="13"/>
       <c r="B261" s="13"/>
       <c r="C261" s="13"/>
@@ -7921,7 +7923,7 @@
       <c r="U261" s="13"/>
       <c r="V261" s="13"/>
     </row>
-    <row r="262" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:22" ht="14.25" customHeight="1">
       <c r="A262" s="13"/>
       <c r="B262" s="13"/>
       <c r="C262" s="13"/>
@@ -7945,7 +7947,7 @@
       <c r="U262" s="13"/>
       <c r="V262" s="13"/>
     </row>
-    <row r="263" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:22" ht="14.25" customHeight="1">
       <c r="A263" s="13"/>
       <c r="B263" s="13"/>
       <c r="C263" s="13"/>
@@ -7969,7 +7971,7 @@
       <c r="U263" s="13"/>
       <c r="V263" s="13"/>
     </row>
-    <row r="264" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:22" ht="14.25" customHeight="1">
       <c r="A264" s="13"/>
       <c r="B264" s="13"/>
       <c r="C264" s="13"/>
@@ -7993,7 +7995,7 @@
       <c r="U264" s="13"/>
       <c r="V264" s="13"/>
     </row>
-    <row r="265" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:22" ht="14.25" customHeight="1">
       <c r="A265" s="13"/>
       <c r="B265" s="13"/>
       <c r="C265" s="13"/>
@@ -8017,7 +8019,7 @@
       <c r="U265" s="13"/>
       <c r="V265" s="13"/>
     </row>
-    <row r="266" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:22" ht="14.25" customHeight="1">
       <c r="A266" s="13"/>
       <c r="B266" s="13"/>
       <c r="C266" s="13"/>
@@ -8041,7 +8043,7 @@
       <c r="U266" s="13"/>
       <c r="V266" s="13"/>
     </row>
-    <row r="267" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:22" ht="14.25" customHeight="1">
       <c r="A267" s="13"/>
       <c r="B267" s="13"/>
       <c r="C267" s="13"/>
@@ -8065,7 +8067,7 @@
       <c r="U267" s="13"/>
       <c r="V267" s="13"/>
     </row>
-    <row r="268" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:22" ht="14.25" customHeight="1">
       <c r="A268" s="13"/>
       <c r="B268" s="13"/>
       <c r="C268" s="13"/>
@@ -8089,7 +8091,7 @@
       <c r="U268" s="13"/>
       <c r="V268" s="13"/>
     </row>
-    <row r="269" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:22" ht="14.25" customHeight="1">
       <c r="A269" s="13"/>
       <c r="B269" s="13"/>
       <c r="C269" s="13"/>
@@ -8113,7 +8115,7 @@
       <c r="U269" s="13"/>
       <c r="V269" s="13"/>
     </row>
-    <row r="270" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:22" ht="14.25" customHeight="1">
       <c r="A270" s="13"/>
       <c r="B270" s="13"/>
       <c r="C270" s="13"/>
@@ -8137,7 +8139,7 @@
       <c r="U270" s="13"/>
       <c r="V270" s="13"/>
     </row>
-    <row r="271" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:22" ht="14.25" customHeight="1">
       <c r="A271" s="13"/>
       <c r="B271" s="13"/>
       <c r="C271" s="13"/>
@@ -8161,7 +8163,7 @@
       <c r="U271" s="13"/>
       <c r="V271" s="13"/>
     </row>
-    <row r="272" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:22" ht="14.25" customHeight="1">
       <c r="A272" s="13"/>
       <c r="B272" s="13"/>
       <c r="C272" s="13"/>
@@ -8185,7 +8187,7 @@
       <c r="U272" s="13"/>
       <c r="V272" s="13"/>
     </row>
-    <row r="273" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:22" ht="14.25" customHeight="1">
       <c r="A273" s="13"/>
       <c r="B273" s="13"/>
       <c r="C273" s="13"/>
@@ -8209,7 +8211,7 @@
       <c r="U273" s="13"/>
       <c r="V273" s="13"/>
     </row>
-    <row r="274" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:22" ht="14.25" customHeight="1">
       <c r="A274" s="13"/>
       <c r="B274" s="13"/>
       <c r="C274" s="13"/>
@@ -8233,7 +8235,7 @@
       <c r="U274" s="13"/>
       <c r="V274" s="13"/>
     </row>
-    <row r="275" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:22" ht="14.25" customHeight="1">
       <c r="A275" s="13"/>
       <c r="B275" s="13"/>
       <c r="C275" s="13"/>
@@ -8257,7 +8259,7 @@
       <c r="U275" s="13"/>
       <c r="V275" s="13"/>
     </row>
-    <row r="276" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:22" ht="14.25" customHeight="1">
       <c r="A276" s="13"/>
       <c r="B276" s="13"/>
       <c r="C276" s="13"/>
@@ -8281,7 +8283,7 @@
       <c r="U276" s="13"/>
       <c r="V276" s="13"/>
     </row>
-    <row r="277" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:22" ht="14.25" customHeight="1">
       <c r="A277" s="13"/>
       <c r="B277" s="13"/>
       <c r="C277" s="13"/>
@@ -8305,7 +8307,7 @@
       <c r="U277" s="13"/>
       <c r="V277" s="13"/>
     </row>
-    <row r="278" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:22" ht="14.25" customHeight="1">
       <c r="A278" s="13"/>
       <c r="B278" s="13"/>
       <c r="C278" s="13"/>
@@ -8329,7 +8331,7 @@
       <c r="U278" s="13"/>
       <c r="V278" s="13"/>
     </row>
-    <row r="279" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:22" ht="14.25" customHeight="1">
       <c r="A279" s="13"/>
       <c r="B279" s="13"/>
       <c r="C279" s="13"/>
@@ -8353,7 +8355,7 @@
       <c r="U279" s="13"/>
       <c r="V279" s="13"/>
     </row>
-    <row r="280" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:22" ht="14.25" customHeight="1">
       <c r="A280" s="13"/>
       <c r="B280" s="13"/>
       <c r="C280" s="13"/>
@@ -8377,7 +8379,7 @@
       <c r="U280" s="13"/>
       <c r="V280" s="13"/>
     </row>
-    <row r="281" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:22" ht="14.25" customHeight="1">
       <c r="A281" s="13"/>
       <c r="B281" s="13"/>
       <c r="C281" s="13"/>
@@ -8401,7 +8403,7 @@
       <c r="U281" s="13"/>
       <c r="V281" s="13"/>
     </row>
-    <row r="282" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:22" ht="14.25" customHeight="1">
       <c r="A282" s="13"/>
       <c r="B282" s="13"/>
       <c r="C282" s="13"/>
@@ -8425,7 +8427,7 @@
       <c r="U282" s="13"/>
       <c r="V282" s="13"/>
     </row>
-    <row r="283" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:22" ht="14.25" customHeight="1">
       <c r="A283" s="13"/>
       <c r="B283" s="13"/>
       <c r="C283" s="13"/>
@@ -8449,7 +8451,7 @@
       <c r="U283" s="13"/>
       <c r="V283" s="13"/>
     </row>
-    <row r="284" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:22" ht="14.25" customHeight="1">
       <c r="A284" s="13"/>
       <c r="B284" s="13"/>
       <c r="C284" s="13"/>
@@ -8473,7 +8475,7 @@
       <c r="U284" s="13"/>
       <c r="V284" s="13"/>
     </row>
-    <row r="285" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:22" ht="14.25" customHeight="1">
       <c r="A285" s="13"/>
       <c r="B285" s="13"/>
       <c r="C285" s="13"/>
@@ -8497,7 +8499,7 @@
       <c r="U285" s="13"/>
       <c r="V285" s="13"/>
     </row>
-    <row r="286" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:22" ht="14.25" customHeight="1">
       <c r="A286" s="13"/>
       <c r="B286" s="13"/>
       <c r="C286" s="13"/>
@@ -8521,7 +8523,7 @@
       <c r="U286" s="13"/>
       <c r="V286" s="13"/>
     </row>
-    <row r="287" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:22" ht="14.25" customHeight="1">
       <c r="A287" s="13"/>
       <c r="B287" s="13"/>
       <c r="C287" s="13"/>
@@ -8545,7 +8547,7 @@
       <c r="U287" s="13"/>
       <c r="V287" s="13"/>
     </row>
-    <row r="288" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:22" ht="14.25" customHeight="1">
       <c r="A288" s="13"/>
       <c r="B288" s="13"/>
       <c r="C288" s="13"/>
@@ -8569,7 +8571,7 @@
       <c r="U288" s="13"/>
       <c r="V288" s="13"/>
     </row>
-    <row r="289" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:22" ht="14.25" customHeight="1">
       <c r="A289" s="13"/>
       <c r="B289" s="13"/>
       <c r="C289" s="13"/>
@@ -8593,7 +8595,7 @@
       <c r="U289" s="13"/>
       <c r="V289" s="13"/>
     </row>
-    <row r="290" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:22" ht="14.25" customHeight="1">
       <c r="A290" s="13"/>
       <c r="B290" s="13"/>
       <c r="C290" s="13"/>
@@ -8617,7 +8619,7 @@
       <c r="U290" s="13"/>
       <c r="V290" s="13"/>
     </row>
-    <row r="291" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:22" ht="14.25" customHeight="1">
       <c r="A291" s="13"/>
       <c r="B291" s="13"/>
       <c r="C291" s="13"/>
@@ -8641,7 +8643,7 @@
       <c r="U291" s="13"/>
       <c r="V291" s="13"/>
     </row>
-    <row r="292" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:22" ht="14.25" customHeight="1">
       <c r="A292" s="13"/>
       <c r="B292" s="13"/>
       <c r="C292" s="13"/>
@@ -8665,7 +8667,7 @@
       <c r="U292" s="13"/>
       <c r="V292" s="13"/>
     </row>
-    <row r="293" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:22" ht="14.25" customHeight="1">
       <c r="A293" s="13"/>
       <c r="B293" s="13"/>
       <c r="C293" s="13"/>
@@ -8689,7 +8691,7 @@
       <c r="U293" s="13"/>
       <c r="V293" s="13"/>
     </row>
-    <row r="294" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:22" ht="14.25" customHeight="1">
       <c r="A294" s="13"/>
       <c r="B294" s="13"/>
       <c r="C294" s="13"/>
@@ -8713,7 +8715,7 @@
       <c r="U294" s="13"/>
       <c r="V294" s="13"/>
     </row>
-    <row r="295" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:22" ht="14.25" customHeight="1">
       <c r="A295" s="13"/>
       <c r="B295" s="13"/>
       <c r="C295" s="13"/>
@@ -8737,7 +8739,7 @@
       <c r="U295" s="13"/>
       <c r="V295" s="13"/>
     </row>
-    <row r="296" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:22" ht="14.25" customHeight="1">
       <c r="A296" s="13"/>
       <c r="B296" s="13"/>
       <c r="C296" s="13"/>
@@ -8761,7 +8763,7 @@
       <c r="U296" s="13"/>
       <c r="V296" s="13"/>
     </row>
-    <row r="297" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:22" ht="14.25" customHeight="1">
       <c r="A297" s="13"/>
       <c r="B297" s="13"/>
       <c r="C297" s="13"/>
@@ -8785,7 +8787,7 @@
       <c r="U297" s="13"/>
       <c r="V297" s="13"/>
     </row>
-    <row r="298" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:22" ht="14.25" customHeight="1">
       <c r="A298" s="13"/>
       <c r="B298" s="13"/>
       <c r="C298" s="13"/>
@@ -8809,7 +8811,7 @@
       <c r="U298" s="13"/>
       <c r="V298" s="13"/>
     </row>
-    <row r="299" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:22" ht="14.25" customHeight="1">
       <c r="A299" s="13"/>
       <c r="B299" s="13"/>
       <c r="C299" s="13"/>
@@ -8833,7 +8835,7 @@
       <c r="U299" s="13"/>
       <c r="V299" s="13"/>
     </row>
-    <row r="300" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:22" ht="14.25" customHeight="1">
       <c r="A300" s="13"/>
       <c r="B300" s="13"/>
       <c r="C300" s="13"/>
@@ -8857,7 +8859,7 @@
       <c r="U300" s="13"/>
       <c r="V300" s="13"/>
     </row>
-    <row r="301" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:22" ht="14.25" customHeight="1">
       <c r="A301" s="13"/>
       <c r="B301" s="13"/>
       <c r="C301" s="13"/>
@@ -8881,7 +8883,7 @@
       <c r="U301" s="13"/>
       <c r="V301" s="13"/>
     </row>
-    <row r="302" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:22" ht="14.25" customHeight="1">
       <c r="A302" s="13"/>
       <c r="B302" s="13"/>
       <c r="C302" s="13"/>
@@ -8905,7 +8907,7 @@
       <c r="U302" s="13"/>
       <c r="V302" s="13"/>
     </row>
-    <row r="303" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:22" ht="14.25" customHeight="1">
       <c r="A303" s="13"/>
       <c r="B303" s="13"/>
       <c r="C303" s="13"/>
@@ -8929,7 +8931,7 @@
       <c r="U303" s="13"/>
       <c r="V303" s="13"/>
     </row>
-    <row r="304" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:22" ht="14.25" customHeight="1">
       <c r="A304" s="13"/>
       <c r="B304" s="13"/>
       <c r="C304" s="13"/>
@@ -8953,7 +8955,7 @@
       <c r="U304" s="13"/>
       <c r="V304" s="13"/>
     </row>
-    <row r="305" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:22" ht="14.25" customHeight="1">
       <c r="A305" s="13"/>
       <c r="B305" s="13"/>
       <c r="C305" s="13"/>
@@ -8977,7 +8979,7 @@
       <c r="U305" s="13"/>
       <c r="V305" s="13"/>
     </row>
-    <row r="306" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:22" ht="14.25" customHeight="1">
       <c r="A306" s="13"/>
       <c r="B306" s="13"/>
       <c r="C306" s="13"/>
@@ -9001,7 +9003,7 @@
       <c r="U306" s="13"/>
       <c r="V306" s="13"/>
     </row>
-    <row r="307" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:22" ht="14.25" customHeight="1">
       <c r="A307" s="13"/>
       <c r="B307" s="13"/>
       <c r="C307" s="13"/>
@@ -9025,7 +9027,7 @@
       <c r="U307" s="13"/>
       <c r="V307" s="13"/>
     </row>
-    <row r="308" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:22" ht="14.25" customHeight="1">
       <c r="A308" s="13"/>
       <c r="B308" s="13"/>
       <c r="C308" s="13"/>
@@ -9049,7 +9051,7 @@
       <c r="U308" s="13"/>
       <c r="V308" s="13"/>
     </row>
-    <row r="309" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:22" ht="14.25" customHeight="1">
       <c r="A309" s="13"/>
       <c r="B309" s="13"/>
       <c r="C309" s="13"/>
@@ -9073,7 +9075,7 @@
       <c r="U309" s="13"/>
       <c r="V309" s="13"/>
     </row>
-    <row r="310" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:22" ht="14.25" customHeight="1">
       <c r="A310" s="13"/>
       <c r="B310" s="13"/>
       <c r="C310" s="13"/>
@@ -9097,7 +9099,7 @@
       <c r="U310" s="13"/>
       <c r="V310" s="13"/>
     </row>
-    <row r="311" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:22" ht="14.25" customHeight="1">
       <c r="A311" s="13"/>
       <c r="B311" s="13"/>
       <c r="C311" s="13"/>
@@ -9121,7 +9123,7 @@
       <c r="U311" s="13"/>
       <c r="V311" s="13"/>
     </row>
-    <row r="312" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:22" ht="14.25" customHeight="1">
       <c r="A312" s="13"/>
       <c r="B312" s="13"/>
       <c r="C312" s="13"/>
@@ -9145,7 +9147,7 @@
       <c r="U312" s="13"/>
       <c r="V312" s="13"/>
     </row>
-    <row r="313" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:22" ht="14.25" customHeight="1">
       <c r="A313" s="13"/>
       <c r="B313" s="13"/>
       <c r="C313" s="13"/>
@@ -9169,7 +9171,7 @@
       <c r="U313" s="13"/>
       <c r="V313" s="13"/>
     </row>
-    <row r="314" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:22" ht="14.25" customHeight="1">
       <c r="A314" s="13"/>
       <c r="B314" s="13"/>
       <c r="C314" s="13"/>
@@ -9193,7 +9195,7 @@
       <c r="U314" s="13"/>
       <c r="V314" s="13"/>
     </row>
-    <row r="315" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:22" ht="14.25" customHeight="1">
       <c r="A315" s="13"/>
       <c r="B315" s="13"/>
       <c r="C315" s="13"/>
@@ -9217,7 +9219,7 @@
       <c r="U315" s="13"/>
       <c r="V315" s="13"/>
     </row>
-    <row r="316" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:22" ht="14.25" customHeight="1">
       <c r="A316" s="13"/>
       <c r="B316" s="13"/>
       <c r="C316" s="13"/>
@@ -9241,7 +9243,7 @@
       <c r="U316" s="13"/>
       <c r="V316" s="13"/>
     </row>
-    <row r="317" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:22" ht="14.25" customHeight="1">
       <c r="A317" s="13"/>
       <c r="B317" s="13"/>
       <c r="C317" s="13"/>
@@ -9265,7 +9267,7 @@
       <c r="U317" s="13"/>
       <c r="V317" s="13"/>
     </row>
-    <row r="318" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:22" ht="14.25" customHeight="1">
       <c r="A318" s="13"/>
       <c r="B318" s="13"/>
       <c r="C318" s="13"/>
@@ -9289,7 +9291,7 @@
       <c r="U318" s="13"/>
       <c r="V318" s="13"/>
     </row>
-    <row r="319" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:22" ht="14.25" customHeight="1">
       <c r="A319" s="13"/>
       <c r="B319" s="13"/>
       <c r="C319" s="13"/>
@@ -9313,7 +9315,7 @@
       <c r="U319" s="13"/>
       <c r="V319" s="13"/>
     </row>
-    <row r="320" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:22" ht="14.25" customHeight="1">
       <c r="A320" s="13"/>
       <c r="B320" s="13"/>
       <c r="C320" s="13"/>
@@ -9337,7 +9339,7 @@
       <c r="U320" s="13"/>
       <c r="V320" s="13"/>
     </row>
-    <row r="321" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:22" ht="14.25" customHeight="1">
       <c r="A321" s="13"/>
       <c r="B321" s="13"/>
       <c r="C321" s="13"/>
@@ -9361,7 +9363,7 @@
       <c r="U321" s="13"/>
       <c r="V321" s="13"/>
     </row>
-    <row r="322" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:22" ht="14.25" customHeight="1">
       <c r="A322" s="13"/>
       <c r="B322" s="13"/>
       <c r="C322" s="13"/>
@@ -9385,7 +9387,7 @@
       <c r="U322" s="13"/>
       <c r="V322" s="13"/>
     </row>
-    <row r="323" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:22" ht="14.25" customHeight="1">
       <c r="A323" s="13"/>
       <c r="B323" s="13"/>
       <c r="C323" s="13"/>
@@ -9409,7 +9411,7 @@
       <c r="U323" s="13"/>
       <c r="V323" s="13"/>
     </row>
-    <row r="324" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:22" ht="14.25" customHeight="1">
       <c r="A324" s="13"/>
       <c r="B324" s="13"/>
       <c r="C324" s="13"/>
@@ -9433,7 +9435,7 @@
       <c r="U324" s="13"/>
       <c r="V324" s="13"/>
     </row>
-    <row r="325" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:22" ht="14.25" customHeight="1">
       <c r="A325" s="13"/>
       <c r="B325" s="13"/>
       <c r="C325" s="13"/>
@@ -9457,7 +9459,7 @@
       <c r="U325" s="13"/>
       <c r="V325" s="13"/>
     </row>
-    <row r="326" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:22" ht="14.25" customHeight="1">
       <c r="A326" s="13"/>
       <c r="B326" s="13"/>
       <c r="C326" s="13"/>
@@ -9481,7 +9483,7 @@
       <c r="U326" s="13"/>
       <c r="V326" s="13"/>
     </row>
-    <row r="327" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:22" ht="14.25" customHeight="1">
       <c r="A327" s="13"/>
       <c r="B327" s="13"/>
       <c r="C327" s="13"/>
@@ -9505,7 +9507,7 @@
       <c r="U327" s="13"/>
       <c r="V327" s="13"/>
     </row>
-    <row r="328" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:22" ht="14.25" customHeight="1">
       <c r="A328" s="13"/>
       <c r="B328" s="13"/>
       <c r="C328" s="13"/>
@@ -9529,7 +9531,7 @@
       <c r="U328" s="13"/>
       <c r="V328" s="13"/>
     </row>
-    <row r="329" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:22" ht="14.25" customHeight="1">
       <c r="A329" s="13"/>
       <c r="B329" s="13"/>
       <c r="C329" s="13"/>
@@ -9553,7 +9555,7 @@
       <c r="U329" s="13"/>
       <c r="V329" s="13"/>
     </row>
-    <row r="330" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:22" ht="14.25" customHeight="1">
       <c r="A330" s="13"/>
       <c r="B330" s="13"/>
       <c r="C330" s="13"/>
@@ -9577,7 +9579,7 @@
       <c r="U330" s="13"/>
       <c r="V330" s="13"/>
     </row>
-    <row r="331" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:22" ht="14.25" customHeight="1">
       <c r="A331" s="13"/>
       <c r="B331" s="13"/>
       <c r="C331" s="13"/>
@@ -9601,7 +9603,7 @@
       <c r="U331" s="13"/>
       <c r="V331" s="13"/>
     </row>
-    <row r="332" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:22" ht="14.25" customHeight="1">
       <c r="A332" s="13"/>
       <c r="B332" s="13"/>
       <c r="C332" s="13"/>
@@ -9625,7 +9627,7 @@
       <c r="U332" s="13"/>
       <c r="V332" s="13"/>
     </row>
-    <row r="333" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:22" ht="14.25" customHeight="1">
       <c r="A333" s="13"/>
       <c r="B333" s="13"/>
       <c r="C333" s="13"/>
@@ -9649,7 +9651,7 @@
       <c r="U333" s="13"/>
       <c r="V333" s="13"/>
     </row>
-    <row r="334" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:22" ht="14.25" customHeight="1">
       <c r="A334" s="13"/>
       <c r="B334" s="13"/>
       <c r="C334" s="13"/>
@@ -9673,7 +9675,7 @@
       <c r="U334" s="13"/>
       <c r="V334" s="13"/>
     </row>
-    <row r="335" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:22" ht="14.25" customHeight="1">
       <c r="A335" s="13"/>
       <c r="B335" s="13"/>
       <c r="C335" s="13"/>
@@ -9697,7 +9699,7 @@
       <c r="U335" s="13"/>
       <c r="V335" s="13"/>
     </row>
-    <row r="336" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:22" ht="14.25" customHeight="1">
       <c r="A336" s="13"/>
       <c r="B336" s="13"/>
       <c r="C336" s="13"/>
@@ -9721,7 +9723,7 @@
       <c r="U336" s="13"/>
       <c r="V336" s="13"/>
     </row>
-    <row r="337" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:22" ht="14.25" customHeight="1">
       <c r="A337" s="13"/>
       <c r="B337" s="13"/>
       <c r="C337" s="13"/>
@@ -9745,7 +9747,7 @@
       <c r="U337" s="13"/>
       <c r="V337" s="13"/>
     </row>
-    <row r="338" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:22" ht="14.25" customHeight="1">
       <c r="A338" s="13"/>
       <c r="B338" s="13"/>
       <c r="C338" s="13"/>
@@ -9769,7 +9771,7 @@
       <c r="U338" s="13"/>
       <c r="V338" s="13"/>
     </row>
-    <row r="339" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:22" ht="14.25" customHeight="1">
       <c r="A339" s="13"/>
       <c r="B339" s="13"/>
       <c r="C339" s="13"/>
@@ -9793,7 +9795,7 @@
       <c r="U339" s="13"/>
       <c r="V339" s="13"/>
     </row>
-    <row r="340" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:22" ht="14.25" customHeight="1">
       <c r="A340" s="13"/>
       <c r="B340" s="13"/>
       <c r="C340" s="13"/>
@@ -9817,7 +9819,7 @@
       <c r="U340" s="13"/>
       <c r="V340" s="13"/>
     </row>
-    <row r="341" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:22" ht="14.25" customHeight="1">
       <c r="A341" s="13"/>
       <c r="B341" s="13"/>
       <c r="C341" s="13"/>
@@ -9841,7 +9843,7 @@
       <c r="U341" s="13"/>
       <c r="V341" s="13"/>
     </row>
-    <row r="342" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:22" ht="14.25" customHeight="1">
       <c r="A342" s="13"/>
       <c r="B342" s="13"/>
       <c r="C342" s="13"/>
@@ -9865,7 +9867,7 @@
       <c r="U342" s="13"/>
       <c r="V342" s="13"/>
     </row>
-    <row r="343" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:22" ht="14.25" customHeight="1">
       <c r="A343" s="13"/>
       <c r="B343" s="13"/>
       <c r="C343" s="13"/>
@@ -9889,7 +9891,7 @@
       <c r="U343" s="13"/>
       <c r="V343" s="13"/>
     </row>
-    <row r="344" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:22" ht="14.25" customHeight="1">
       <c r="A344" s="13"/>
       <c r="B344" s="13"/>
       <c r="C344" s="13"/>
@@ -9913,7 +9915,7 @@
       <c r="U344" s="13"/>
       <c r="V344" s="13"/>
     </row>
-    <row r="345" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:22" ht="14.25" customHeight="1">
       <c r="A345" s="13"/>
       <c r="B345" s="13"/>
       <c r="C345" s="13"/>
@@ -9937,7 +9939,7 @@
       <c r="U345" s="13"/>
       <c r="V345" s="13"/>
     </row>
-    <row r="346" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:22" ht="14.25" customHeight="1">
       <c r="A346" s="13"/>
       <c r="B346" s="13"/>
       <c r="C346" s="13"/>
@@ -9961,7 +9963,7 @@
       <c r="U346" s="13"/>
       <c r="V346" s="13"/>
     </row>
-    <row r="347" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:22" ht="14.25" customHeight="1">
       <c r="A347" s="13"/>
       <c r="B347" s="13"/>
       <c r="C347" s="13"/>
@@ -9985,7 +9987,7 @@
       <c r="U347" s="13"/>
       <c r="V347" s="13"/>
     </row>
-    <row r="348" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:22" ht="14.25" customHeight="1">
       <c r="A348" s="13"/>
       <c r="B348" s="13"/>
       <c r="C348" s="13"/>
@@ -10009,7 +10011,7 @@
       <c r="U348" s="13"/>
       <c r="V348" s="13"/>
     </row>
-    <row r="349" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:22" ht="14.25" customHeight="1">
       <c r="A349" s="13"/>
       <c r="B349" s="13"/>
       <c r="C349" s="13"/>
@@ -10033,7 +10035,7 @@
       <c r="U349" s="13"/>
       <c r="V349" s="13"/>
     </row>
-    <row r="350" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:22" ht="14.25" customHeight="1">
       <c r="A350" s="13"/>
       <c r="B350" s="13"/>
       <c r="C350" s="13"/>
@@ -10057,7 +10059,7 @@
       <c r="U350" s="13"/>
       <c r="V350" s="13"/>
     </row>
-    <row r="351" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:22" ht="14.25" customHeight="1">
       <c r="A351" s="13"/>
       <c r="B351" s="13"/>
       <c r="C351" s="13"/>
@@ -10081,7 +10083,7 @@
       <c r="U351" s="13"/>
       <c r="V351" s="13"/>
     </row>
-    <row r="352" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:22" ht="14.25" customHeight="1">
       <c r="A352" s="13"/>
       <c r="B352" s="13"/>
       <c r="C352" s="13"/>
@@ -10105,7 +10107,7 @@
       <c r="U352" s="13"/>
       <c r="V352" s="13"/>
     </row>
-    <row r="353" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:22" ht="14.25" customHeight="1">
       <c r="A353" s="13"/>
       <c r="B353" s="13"/>
       <c r="C353" s="13"/>
@@ -10129,7 +10131,7 @@
       <c r="U353" s="13"/>
       <c r="V353" s="13"/>
     </row>
-    <row r="354" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:22" ht="14.25" customHeight="1">
       <c r="A354" s="13"/>
       <c r="B354" s="13"/>
       <c r="C354" s="13"/>
@@ -10153,7 +10155,7 @@
       <c r="U354" s="13"/>
       <c r="V354" s="13"/>
     </row>
-    <row r="355" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:22" ht="14.25" customHeight="1">
       <c r="A355" s="13"/>
       <c r="B355" s="13"/>
       <c r="C355" s="13"/>
@@ -10177,7 +10179,7 @@
       <c r="U355" s="13"/>
       <c r="V355" s="13"/>
     </row>
-    <row r="356" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:22" ht="14.25" customHeight="1">
       <c r="A356" s="13"/>
       <c r="B356" s="13"/>
       <c r="C356" s="13"/>
@@ -10201,7 +10203,7 @@
       <c r="U356" s="13"/>
       <c r="V356" s="13"/>
     </row>
-    <row r="357" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:22" ht="14.25" customHeight="1">
       <c r="A357" s="13"/>
       <c r="B357" s="13"/>
       <c r="C357" s="13"/>
@@ -10225,7 +10227,7 @@
       <c r="U357" s="13"/>
       <c r="V357" s="13"/>
     </row>
-    <row r="358" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:22" ht="14.25" customHeight="1">
       <c r="A358" s="13"/>
       <c r="B358" s="13"/>
       <c r="C358" s="13"/>
@@ -10249,7 +10251,7 @@
       <c r="U358" s="13"/>
       <c r="V358" s="13"/>
     </row>
-    <row r="359" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:22" ht="14.25" customHeight="1">
       <c r="A359" s="13"/>
       <c r="B359" s="13"/>
       <c r="C359" s="13"/>
@@ -10273,7 +10275,7 @@
       <c r="U359" s="13"/>
       <c r="V359" s="13"/>
     </row>
-    <row r="360" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:22" ht="14.25" customHeight="1">
       <c r="A360" s="13"/>
       <c r="B360" s="13"/>
       <c r="C360" s="13"/>
@@ -10297,7 +10299,7 @@
       <c r="U360" s="13"/>
       <c r="V360" s="13"/>
     </row>
-    <row r="361" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:22" ht="14.25" customHeight="1">
       <c r="A361" s="13"/>
       <c r="B361" s="13"/>
       <c r="C361" s="13"/>
@@ -10321,7 +10323,7 @@
       <c r="U361" s="13"/>
       <c r="V361" s="13"/>
     </row>
-    <row r="362" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:22" ht="14.25" customHeight="1">
       <c r="A362" s="13"/>
       <c r="B362" s="13"/>
       <c r="C362" s="13"/>
@@ -10345,7 +10347,7 @@
       <c r="U362" s="13"/>
       <c r="V362" s="13"/>
     </row>
-    <row r="363" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:22" ht="14.25" customHeight="1">
       <c r="A363" s="13"/>
       <c r="B363" s="13"/>
       <c r="C363" s="13"/>
@@ -10369,7 +10371,7 @@
       <c r="U363" s="13"/>
       <c r="V363" s="13"/>
     </row>
-    <row r="364" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:22" ht="14.25" customHeight="1">
       <c r="A364" s="13"/>
       <c r="B364" s="13"/>
       <c r="C364" s="13"/>
@@ -10393,7 +10395,7 @@
       <c r="U364" s="13"/>
       <c r="V364" s="13"/>
     </row>
-    <row r="365" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:22" ht="14.25" customHeight="1">
       <c r="A365" s="13"/>
       <c r="B365" s="13"/>
       <c r="C365" s="13"/>
@@ -10417,7 +10419,7 @@
       <c r="U365" s="13"/>
       <c r="V365" s="13"/>
     </row>
-    <row r="366" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:22" ht="14.25" customHeight="1">
       <c r="A366" s="13"/>
       <c r="B366" s="13"/>
       <c r="C366" s="13"/>
@@ -10441,7 +10443,7 @@
       <c r="U366" s="13"/>
       <c r="V366" s="13"/>
     </row>
-    <row r="367" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:22" ht="14.25" customHeight="1">
       <c r="A367" s="13"/>
       <c r="B367" s="13"/>
       <c r="C367" s="13"/>
@@ -10465,7 +10467,7 @@
       <c r="U367" s="13"/>
       <c r="V367" s="13"/>
     </row>
-    <row r="368" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:22" ht="14.25" customHeight="1">
       <c r="A368" s="13"/>
       <c r="B368" s="13"/>
       <c r="C368" s="13"/>
@@ -10489,7 +10491,7 @@
       <c r="U368" s="13"/>
       <c r="V368" s="13"/>
     </row>
-    <row r="369" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:22" ht="14.25" customHeight="1">
       <c r="A369" s="13"/>
       <c r="B369" s="13"/>
       <c r="C369" s="13"/>
@@ -10513,7 +10515,7 @@
       <c r="U369" s="13"/>
       <c r="V369" s="13"/>
     </row>
-    <row r="370" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:22" ht="14.25" customHeight="1">
       <c r="A370" s="13"/>
       <c r="B370" s="13"/>
       <c r="C370" s="13"/>
@@ -10537,7 +10539,7 @@
       <c r="U370" s="13"/>
       <c r="V370" s="13"/>
     </row>
-    <row r="371" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:22" ht="14.25" customHeight="1">
       <c r="A371" s="13"/>
       <c r="B371" s="13"/>
       <c r="C371" s="13"/>
@@ -10561,7 +10563,7 @@
       <c r="U371" s="13"/>
       <c r="V371" s="13"/>
     </row>
-    <row r="372" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:22" ht="14.25" customHeight="1">
       <c r="A372" s="13"/>
       <c r="B372" s="13"/>
       <c r="C372" s="13"/>
@@ -10585,7 +10587,7 @@
       <c r="U372" s="13"/>
       <c r="V372" s="13"/>
     </row>
-    <row r="373" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:22" ht="14.25" customHeight="1">
       <c r="A373" s="13"/>
       <c r="B373" s="13"/>
       <c r="C373" s="13"/>
@@ -10609,7 +10611,7 @@
       <c r="U373" s="13"/>
       <c r="V373" s="13"/>
     </row>
-    <row r="374" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:22" ht="14.25" customHeight="1">
       <c r="A374" s="13"/>
       <c r="B374" s="13"/>
       <c r="C374" s="13"/>
@@ -10633,7 +10635,7 @@
       <c r="U374" s="13"/>
       <c r="V374" s="13"/>
     </row>
-    <row r="375" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:22" ht="14.25" customHeight="1">
       <c r="A375" s="13"/>
       <c r="B375" s="13"/>
       <c r="C375" s="13"/>
@@ -10657,7 +10659,7 @@
       <c r="U375" s="13"/>
       <c r="V375" s="13"/>
     </row>
-    <row r="376" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:22" ht="14.25" customHeight="1">
       <c r="A376" s="13"/>
       <c r="B376" s="13"/>
       <c r="C376" s="13"/>
@@ -10681,7 +10683,7 @@
       <c r="U376" s="13"/>
       <c r="V376" s="13"/>
     </row>
-    <row r="377" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:22" ht="14.25" customHeight="1">
       <c r="A377" s="13"/>
       <c r="B377" s="13"/>
       <c r="C377" s="13"/>
@@ -10705,7 +10707,7 @@
       <c r="U377" s="13"/>
       <c r="V377" s="13"/>
     </row>
-    <row r="378" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:22" ht="14.25" customHeight="1">
       <c r="A378" s="13"/>
       <c r="B378" s="13"/>
       <c r="C378" s="13"/>
@@ -10729,7 +10731,7 @@
       <c r="U378" s="13"/>
       <c r="V378" s="13"/>
     </row>
-    <row r="379" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:22" ht="14.25" customHeight="1">
       <c r="A379" s="13"/>
       <c r="B379" s="13"/>
       <c r="C379" s="13"/>
@@ -10753,7 +10755,7 @@
       <c r="U379" s="13"/>
       <c r="V379" s="13"/>
     </row>
-    <row r="380" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:22" ht="14.25" customHeight="1">
       <c r="A380" s="13"/>
       <c r="B380" s="13"/>
       <c r="C380" s="13"/>
@@ -10777,7 +10779,7 @@
       <c r="U380" s="13"/>
       <c r="V380" s="13"/>
     </row>
-    <row r="381" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:22" ht="14.25" customHeight="1">
       <c r="A381" s="13"/>
       <c r="B381" s="13"/>
       <c r="C381" s="13"/>
@@ -10801,7 +10803,7 @@
       <c r="U381" s="13"/>
       <c r="V381" s="13"/>
     </row>
-    <row r="382" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:22" ht="14.25" customHeight="1">
       <c r="A382" s="13"/>
       <c r="B382" s="13"/>
       <c r="C382" s="13"/>
@@ -10825,7 +10827,7 @@
       <c r="U382" s="13"/>
       <c r="V382" s="13"/>
     </row>
-    <row r="383" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:22" ht="14.25" customHeight="1">
       <c r="A383" s="13"/>
       <c r="B383" s="13"/>
       <c r="C383" s="13"/>
@@ -10849,7 +10851,7 @@
       <c r="U383" s="13"/>
       <c r="V383" s="13"/>
     </row>
-    <row r="384" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:22" ht="14.25" customHeight="1">
       <c r="A384" s="13"/>
       <c r="B384" s="13"/>
       <c r="C384" s="13"/>
@@ -10873,7 +10875,7 @@
       <c r="U384" s="13"/>
       <c r="V384" s="13"/>
     </row>
-    <row r="385" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:22" ht="14.25" customHeight="1">
       <c r="A385" s="13"/>
       <c r="B385" s="13"/>
       <c r="C385" s="13"/>
@@ -10897,7 +10899,7 @@
       <c r="U385" s="13"/>
       <c r="V385" s="13"/>
     </row>
-    <row r="386" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:22" ht="14.25" customHeight="1">
       <c r="A386" s="13"/>
       <c r="B386" s="13"/>
       <c r="C386" s="13"/>
@@ -10921,7 +10923,7 @@
       <c r="U386" s="13"/>
       <c r="V386" s="13"/>
     </row>
-    <row r="387" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:22" ht="14.25" customHeight="1">
       <c r="A387" s="13"/>
       <c r="B387" s="13"/>
       <c r="C387" s="13"/>
@@ -10945,7 +10947,7 @@
       <c r="U387" s="13"/>
       <c r="V387" s="13"/>
     </row>
-    <row r="388" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:22" ht="14.25" customHeight="1">
       <c r="A388" s="13"/>
       <c r="B388" s="13"/>
       <c r="C388" s="13"/>
@@ -10969,7 +10971,7 @@
       <c r="U388" s="13"/>
       <c r="V388" s="13"/>
     </row>
-    <row r="389" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:22" ht="14.25" customHeight="1">
       <c r="A389" s="13"/>
       <c r="B389" s="13"/>
       <c r="C389" s="13"/>
@@ -10993,7 +10995,7 @@
       <c r="U389" s="13"/>
       <c r="V389" s="13"/>
     </row>
-    <row r="390" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:22" ht="14.25" customHeight="1">
       <c r="A390" s="13"/>
       <c r="B390" s="13"/>
       <c r="C390" s="13"/>
@@ -11017,7 +11019,7 @@
       <c r="U390" s="13"/>
       <c r="V390" s="13"/>
     </row>
-    <row r="391" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:22" ht="14.25" customHeight="1">
       <c r="A391" s="13"/>
       <c r="B391" s="13"/>
       <c r="C391" s="13"/>
@@ -11041,7 +11043,7 @@
       <c r="U391" s="13"/>
       <c r="V391" s="13"/>
     </row>
-    <row r="392" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:22" ht="14.25" customHeight="1">
       <c r="A392" s="13"/>
       <c r="B392" s="13"/>
       <c r="C392" s="13"/>
@@ -11065,7 +11067,7 @@
       <c r="U392" s="13"/>
       <c r="V392" s="13"/>
     </row>
-    <row r="393" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:22" ht="14.25" customHeight="1">
       <c r="A393" s="13"/>
       <c r="B393" s="13"/>
       <c r="C393" s="13"/>
@@ -11089,7 +11091,7 @@
       <c r="U393" s="13"/>
       <c r="V393" s="13"/>
     </row>
-    <row r="394" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:22" ht="14.25" customHeight="1">
       <c r="A394" s="13"/>
       <c r="B394" s="13"/>
       <c r="C394" s="13"/>
@@ -11113,7 +11115,7 @@
       <c r="U394" s="13"/>
       <c r="V394" s="13"/>
     </row>
-    <row r="395" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:22" ht="14.25" customHeight="1">
       <c r="A395" s="13"/>
       <c r="B395" s="13"/>
       <c r="C395" s="13"/>
@@ -11137,7 +11139,7 @@
       <c r="U395" s="13"/>
       <c r="V395" s="13"/>
     </row>
-    <row r="396" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:22" ht="14.25" customHeight="1">
       <c r="A396" s="13"/>
       <c r="B396" s="13"/>
       <c r="C396" s="13"/>
@@ -11161,7 +11163,7 @@
       <c r="U396" s="13"/>
       <c r="V396" s="13"/>
     </row>
-    <row r="397" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:22" ht="14.25" customHeight="1">
       <c r="A397" s="13"/>
       <c r="B397" s="13"/>
       <c r="C397" s="13"/>
@@ -11185,7 +11187,7 @@
       <c r="U397" s="13"/>
       <c r="V397" s="13"/>
     </row>
-    <row r="398" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:22" ht="14.25" customHeight="1">
       <c r="A398" s="13"/>
       <c r="B398" s="13"/>
       <c r="C398" s="13"/>
@@ -11209,7 +11211,7 @@
       <c r="U398" s="13"/>
       <c r="V398" s="13"/>
     </row>
-    <row r="399" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:22" ht="14.25" customHeight="1">
       <c r="A399" s="13"/>
       <c r="B399" s="13"/>
       <c r="C399" s="13"/>
@@ -11233,7 +11235,7 @@
       <c r="U399" s="13"/>
       <c r="V399" s="13"/>
     </row>
-    <row r="400" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:22" ht="14.25" customHeight="1">
       <c r="A400" s="13"/>
       <c r="B400" s="13"/>
       <c r="C400" s="13"/>
@@ -11257,7 +11259,7 @@
       <c r="U400" s="13"/>
       <c r="V400" s="13"/>
     </row>
-    <row r="401" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:22" ht="14.25" customHeight="1">
       <c r="A401" s="13"/>
       <c r="B401" s="13"/>
       <c r="C401" s="13"/>
@@ -11281,7 +11283,7 @@
       <c r="U401" s="13"/>
       <c r="V401" s="13"/>
     </row>
-    <row r="402" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:22" ht="14.25" customHeight="1">
       <c r="A402" s="13"/>
       <c r="B402" s="13"/>
       <c r="C402" s="13"/>
@@ -11305,7 +11307,7 @@
       <c r="U402" s="13"/>
       <c r="V402" s="13"/>
     </row>
-    <row r="403" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:22" ht="14.25" customHeight="1">
       <c r="A403" s="13"/>
       <c r="B403" s="13"/>
       <c r="C403" s="13"/>
@@ -11329,7 +11331,7 @@
       <c r="U403" s="13"/>
       <c r="V403" s="13"/>
     </row>
-    <row r="404" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:22" ht="14.25" customHeight="1">
       <c r="A404" s="13"/>
       <c r="B404" s="13"/>
       <c r="C404" s="13"/>
@@ -11353,7 +11355,7 @@
       <c r="U404" s="13"/>
       <c r="V404" s="13"/>
     </row>
-    <row r="405" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:22" ht="14.25" customHeight="1">
       <c r="A405" s="13"/>
       <c r="B405" s="13"/>
       <c r="C405" s="13"/>
@@ -11377,7 +11379,7 @@
       <c r="U405" s="13"/>
       <c r="V405" s="13"/>
     </row>
-    <row r="406" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:22" ht="14.25" customHeight="1">
       <c r="A406" s="13"/>
       <c r="B406" s="13"/>
       <c r="C406" s="13"/>
@@ -11401,7 +11403,7 @@
       <c r="U406" s="13"/>
       <c r="V406" s="13"/>
     </row>
-    <row r="407" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:22" ht="14.25" customHeight="1">
       <c r="A407" s="13"/>
       <c r="B407" s="13"/>
       <c r="C407" s="13"/>
@@ -11425,7 +11427,7 @@
       <c r="U407" s="13"/>
       <c r="V407" s="13"/>
     </row>
-    <row r="408" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:22" ht="14.25" customHeight="1">
       <c r="A408" s="13"/>
       <c r="B408" s="13"/>
       <c r="C408" s="13"/>
@@ -11449,7 +11451,7 @@
       <c r="U408" s="13"/>
       <c r="V408" s="13"/>
     </row>
-    <row r="409" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:22" ht="14.25" customHeight="1">
       <c r="A409" s="13"/>
       <c r="B409" s="13"/>
       <c r="C409" s="13"/>
@@ -11473,7 +11475,7 @@
       <c r="U409" s="13"/>
       <c r="V409" s="13"/>
     </row>
-    <row r="410" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:22" ht="14.25" customHeight="1">
       <c r="A410" s="13"/>
       <c r="B410" s="13"/>
       <c r="C410" s="13"/>
@@ -11497,7 +11499,7 @@
       <c r="U410" s="13"/>
       <c r="V410" s="13"/>
     </row>
-    <row r="411" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:22" ht="14.25" customHeight="1">
       <c r="A411" s="13"/>
       <c r="B411" s="13"/>
       <c r="C411" s="13"/>
@@ -11521,7 +11523,7 @@
       <c r="U411" s="13"/>
       <c r="V411" s="13"/>
     </row>
-    <row r="412" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:22" ht="14.25" customHeight="1">
       <c r="A412" s="13"/>
       <c r="B412" s="13"/>
       <c r="C412" s="13"/>
@@ -11545,7 +11547,7 @@
       <c r="U412" s="13"/>
       <c r="V412" s="13"/>
     </row>
-    <row r="413" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:22" ht="14.25" customHeight="1">
       <c r="A413" s="13"/>
       <c r="B413" s="13"/>
       <c r="C413" s="13"/>
@@ -11569,7 +11571,7 @@
       <c r="U413" s="13"/>
       <c r="V413" s="13"/>
     </row>
-    <row r="414" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:22" ht="14.25" customHeight="1">
       <c r="A414" s="13"/>
       <c r="B414" s="13"/>
       <c r="C414" s="13"/>
@@ -11593,7 +11595,7 @@
       <c r="U414" s="13"/>
       <c r="V414" s="13"/>
     </row>
-    <row r="415" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:22" ht="14.25" customHeight="1">
       <c r="A415" s="13"/>
       <c r="B415" s="13"/>
       <c r="C415" s="13"/>
@@ -11617,7 +11619,7 @@
       <c r="U415" s="13"/>
       <c r="V415" s="13"/>
     </row>
-    <row r="416" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:22" ht="14.25" customHeight="1">
       <c r="A416" s="13"/>
       <c r="B416" s="13"/>
       <c r="C416" s="13"/>
@@ -11641,7 +11643,7 @@
       <c r="U416" s="13"/>
       <c r="V416" s="13"/>
     </row>
-    <row r="417" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:22" ht="14.25" customHeight="1">
       <c r="A417" s="13"/>
       <c r="B417" s="13"/>
       <c r="C417" s="13"/>
@@ -11665,7 +11667,7 @@
       <c r="U417" s="13"/>
       <c r="V417" s="13"/>
     </row>
-    <row r="418" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:22" ht="14.25" customHeight="1">
       <c r="A418" s="13"/>
       <c r="B418" s="13"/>
       <c r="C418" s="13"/>
@@ -11689,7 +11691,7 @@
       <c r="U418" s="13"/>
       <c r="V418" s="13"/>
     </row>
-    <row r="419" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:22" ht="14.25" customHeight="1">
       <c r="A419" s="13"/>
       <c r="B419" s="13"/>
       <c r="C419" s="13"/>
@@ -11713,7 +11715,7 @@
       <c r="U419" s="13"/>
       <c r="V419" s="13"/>
     </row>
-    <row r="420" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:22" ht="14.25" customHeight="1">
       <c r="A420" s="13"/>
       <c r="B420" s="13"/>
       <c r="C420" s="13"/>
@@ -11737,7 +11739,7 @@
       <c r="U420" s="13"/>
       <c r="V420" s="13"/>
     </row>
-    <row r="421" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:22" ht="14.25" customHeight="1">
       <c r="A421" s="13"/>
       <c r="B421" s="13"/>
       <c r="C421" s="13"/>
@@ -11761,7 +11763,7 @@
       <c r="U421" s="13"/>
       <c r="V421" s="13"/>
     </row>
-    <row r="422" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:22" ht="14.25" customHeight="1">
       <c r="A422" s="13"/>
       <c r="B422" s="13"/>
       <c r="C422" s="13"/>
@@ -11785,7 +11787,7 @@
       <c r="U422" s="13"/>
       <c r="V422" s="13"/>
     </row>
-    <row r="423" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:22" ht="14.25" customHeight="1">
       <c r="A423" s="13"/>
       <c r="B423" s="13"/>
       <c r="C423" s="13"/>
@@ -11809,7 +11811,7 @@
       <c r="U423" s="13"/>
       <c r="V423" s="13"/>
     </row>
-    <row r="424" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:22" ht="14.25" customHeight="1">
       <c r="A424" s="13"/>
       <c r="B424" s="13"/>
       <c r="C424" s="13"/>
@@ -11833,7 +11835,7 @@
       <c r="U424" s="13"/>
       <c r="V424" s="13"/>
     </row>
-    <row r="425" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:22" ht="14.25" customHeight="1">
       <c r="A425" s="13"/>
       <c r="B425" s="13"/>
       <c r="C425" s="13"/>
@@ -11857,7 +11859,7 @@
       <c r="U425" s="13"/>
       <c r="V425" s="13"/>
     </row>
-    <row r="426" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:22" ht="14.25" customHeight="1">
       <c r="A426" s="13"/>
       <c r="B426" s="13"/>
       <c r="C426" s="13"/>
@@ -11881,7 +11883,7 @@
       <c r="U426" s="13"/>
       <c r="V426" s="13"/>
     </row>
-    <row r="427" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:22" ht="14.25" customHeight="1">
       <c r="A427" s="13"/>
       <c r="B427" s="13"/>
       <c r="C427" s="13"/>
@@ -11905,7 +11907,7 @@
       <c r="U427" s="13"/>
       <c r="V427" s="13"/>
     </row>
-    <row r="428" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:22" ht="14.25" customHeight="1">
       <c r="A428" s="13"/>
       <c r="B428" s="13"/>
       <c r="C428" s="13"/>
@@ -11929,7 +11931,7 @@
       <c r="U428" s="13"/>
       <c r="V428" s="13"/>
     </row>
-    <row r="429" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:22" ht="14.25" customHeight="1">
       <c r="A429" s="13"/>
       <c r="B429" s="13"/>
       <c r="C429" s="13"/>
@@ -11953,7 +11955,7 @@
       <c r="U429" s="13"/>
       <c r="V429" s="13"/>
     </row>
-    <row r="430" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:22" ht="14.25" customHeight="1">
       <c r="A430" s="13"/>
       <c r="B430" s="13"/>
       <c r="C430" s="13"/>
@@ -11977,7 +11979,7 @@
       <c r="U430" s="13"/>
       <c r="V430" s="13"/>
     </row>
-    <row r="431" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:22" ht="14.25" customHeight="1">
       <c r="A431" s="13"/>
       <c r="B431" s="13"/>
       <c r="C431" s="13"/>
@@ -12001,7 +12003,7 @@
       <c r="U431" s="13"/>
       <c r="V431" s="13"/>
     </row>
-    <row r="432" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:22" ht="14.25" customHeight="1">
       <c r="A432" s="13"/>
       <c r="B432" s="13"/>
       <c r="C432" s="13"/>
@@ -12025,7 +12027,7 @@
       <c r="U432" s="13"/>
       <c r="V432" s="13"/>
     </row>
-    <row r="433" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:22" ht="14.25" customHeight="1">
       <c r="A433" s="13"/>
       <c r="B433" s="13"/>
       <c r="C433" s="13"/>
@@ -12049,7 +12051,7 @@
       <c r="U433" s="13"/>
       <c r="V433" s="13"/>
     </row>
-    <row r="434" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:22" ht="14.25" customHeight="1">
       <c r="A434" s="13"/>
       <c r="B434" s="13"/>
       <c r="C434" s="13"/>
@@ -12073,7 +12075,7 @@
       <c r="U434" s="13"/>
       <c r="V434" s="13"/>
     </row>
-    <row r="435" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:22" ht="14.25" customHeight="1">
       <c r="A435" s="13"/>
       <c r="B435" s="13"/>
       <c r="C435" s="13"/>
@@ -12097,7 +12099,7 @@
       <c r="U435" s="13"/>
       <c r="V435" s="13"/>
     </row>
-    <row r="436" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:22" ht="14.25" customHeight="1">
       <c r="A436" s="13"/>
       <c r="B436" s="13"/>
       <c r="C436" s="13"/>
@@ -12121,7 +12123,7 @@
       <c r="U436" s="13"/>
       <c r="V436" s="13"/>
     </row>
-    <row r="437" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:22" ht="14.25" customHeight="1">
       <c r="A437" s="13"/>
       <c r="B437" s="13"/>
       <c r="C437" s="13"/>
@@ -12145,7 +12147,7 @@
       <c r="U437" s="13"/>
       <c r="V437" s="13"/>
     </row>
-    <row r="438" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:22" ht="14.25" customHeight="1">
       <c r="A438" s="13"/>
       <c r="B438" s="13"/>
       <c r="C438" s="13"/>
@@ -12169,7 +12171,7 @@
       <c r="U438" s="13"/>
       <c r="V438" s="13"/>
     </row>
-    <row r="439" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:22" ht="14.25" customHeight="1">
       <c r="A439" s="13"/>
       <c r="B439" s="13"/>
       <c r="C439" s="13"/>
@@ -12193,7 +12195,7 @@
       <c r="U439" s="13"/>
       <c r="V439" s="13"/>
     </row>
-    <row r="440" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:22" ht="14.25" customHeight="1">
       <c r="A440" s="13"/>
       <c r="B440" s="13"/>
       <c r="C440" s="13"/>
@@ -12217,7 +12219,7 @@
       <c r="U440" s="13"/>
       <c r="V440" s="13"/>
     </row>
-    <row r="441" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:22" ht="14.25" customHeight="1">
       <c r="A441" s="13"/>
       <c r="B441" s="13"/>
       <c r="C441" s="13"/>
@@ -12241,7 +12243,7 @@
       <c r="U441" s="13"/>
       <c r="V441" s="13"/>
     </row>
-    <row r="442" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:22" ht="14.25" customHeight="1">
       <c r="A442" s="13"/>
       <c r="B442" s="13"/>
       <c r="C442" s="13"/>
@@ -12265,7 +12267,7 @@
       <c r="U442" s="13"/>
       <c r="V442" s="13"/>
     </row>
-    <row r="443" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:22" ht="14.25" customHeight="1">
       <c r="A443" s="13"/>
       <c r="B443" s="13"/>
       <c r="C443" s="13"/>
@@ -12289,7 +12291,7 @@
       <c r="U443" s="13"/>
       <c r="V443" s="13"/>
     </row>
-    <row r="444" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:22" ht="14.25" customHeight="1">
       <c r="A444" s="13"/>
       <c r="B444" s="13"/>
       <c r="C444" s="13"/>
@@ -12313,7 +12315,7 @@
       <c r="U444" s="13"/>
       <c r="V444" s="13"/>
     </row>
-    <row r="445" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:22" ht="14.25" customHeight="1">
       <c r="A445" s="13"/>
       <c r="B445" s="13"/>
       <c r="C445" s="13"/>
@@ -12337,7 +12339,7 @@
       <c r="U445" s="13"/>
       <c r="V445" s="13"/>
     </row>
-    <row r="446" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:22" ht="14.25" customHeight="1">
       <c r="A446" s="13"/>
       <c r="B446" s="13"/>
       <c r="C446" s="13"/>
@@ -12361,7 +12363,7 @@
       <c r="U446" s="13"/>
       <c r="V446" s="13"/>
     </row>
-    <row r="447" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:22" ht="14.25" customHeight="1">
       <c r="A447" s="13"/>
       <c r="B447" s="13"/>
       <c r="C447" s="13"/>
@@ -12385,7 +12387,7 @@
       <c r="U447" s="13"/>
       <c r="V447" s="13"/>
     </row>
-    <row r="448" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:22" ht="14.25" customHeight="1">
       <c r="A448" s="13"/>
       <c r="B448" s="13"/>
       <c r="C448" s="13"/>
@@ -12409,7 +12411,7 @@
       <c r="U448" s="13"/>
       <c r="V448" s="13"/>
     </row>
-    <row r="449" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:22" ht="14.25" customHeight="1">
       <c r="A449" s="13"/>
       <c r="B449" s="13"/>
       <c r="C449" s="13"/>
@@ -12433,7 +12435,7 @@
       <c r="U449" s="13"/>
       <c r="V449" s="13"/>
     </row>
-    <row r="450" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:22" ht="14.25" customHeight="1">
       <c r="A450" s="13"/>
       <c r="B450" s="13"/>
       <c r="C450" s="13"/>
@@ -12457,7 +12459,7 @@
       <c r="U450" s="13"/>
       <c r="V450" s="13"/>
     </row>
-    <row r="451" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:22" ht="14.25" customHeight="1">
       <c r="A451" s="13"/>
       <c r="B451" s="13"/>
       <c r="C451" s="13"/>
@@ -12481,7 +12483,7 @@
       <c r="U451" s="13"/>
       <c r="V451" s="13"/>
     </row>
-    <row r="452" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:22" ht="14.25" customHeight="1">
       <c r="A452" s="13"/>
       <c r="B452" s="13"/>
       <c r="C452" s="13"/>
@@ -12505,7 +12507,7 @@
       <c r="U452" s="13"/>
       <c r="V452" s="13"/>
     </row>
-    <row r="453" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:22" ht="14.25" customHeight="1">
       <c r="A453" s="13"/>
       <c r="B453" s="13"/>
       <c r="C453" s="13"/>
@@ -12529,7 +12531,7 @@
       <c r="U453" s="13"/>
       <c r="V453" s="13"/>
     </row>
-    <row r="454" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:22" ht="14.25" customHeight="1">
       <c r="A454" s="13"/>
       <c r="B454" s="13"/>
       <c r="C454" s="13"/>
@@ -12553,7 +12555,7 @@
       <c r="U454" s="13"/>
       <c r="V454" s="13"/>
     </row>
-    <row r="455" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:22" ht="14.25" customHeight="1">
       <c r="A455" s="13"/>
       <c r="B455" s="13"/>
       <c r="C455" s="13"/>
@@ -12577,7 +12579,7 @@
       <c r="U455" s="13"/>
       <c r="V455" s="13"/>
     </row>
-    <row r="456" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:22" ht="14.25" customHeight="1">
       <c r="A456" s="13"/>
       <c r="B456" s="13"/>
       <c r="C456" s="13"/>
@@ -12601,7 +12603,7 @@
       <c r="U456" s="13"/>
       <c r="V456" s="13"/>
     </row>
-    <row r="457" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:22" ht="14.25" customHeight="1">
       <c r="A457" s="13"/>
       <c r="B457" s="13"/>
       <c r="C457" s="13"/>
@@ -12625,7 +12627,7 @@
       <c r="U457" s="13"/>
       <c r="V457" s="13"/>
     </row>
-    <row r="458" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:22" ht="14.25" customHeight="1">
       <c r="A458" s="13"/>
       <c r="B458" s="13"/>
       <c r="C458" s="13"/>
@@ -12649,7 +12651,7 @@
       <c r="U458" s="13"/>
       <c r="V458" s="13"/>
     </row>
-    <row r="459" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:22" ht="14.25" customHeight="1">
       <c r="A459" s="13"/>
       <c r="B459" s="13"/>
       <c r="C459" s="13"/>
@@ -12673,7 +12675,7 @@
       <c r="U459" s="13"/>
       <c r="V459" s="13"/>
     </row>
-    <row r="460" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:22" ht="14.25" customHeight="1">
       <c r="A460" s="13"/>
       <c r="B460" s="13"/>
       <c r="C460" s="13"/>
@@ -12697,7 +12699,7 @@
       <c r="U460" s="13"/>
       <c r="V460" s="13"/>
     </row>
-    <row r="461" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:22" ht="14.25" customHeight="1">
       <c r="A461" s="13"/>
       <c r="B461" s="13"/>
       <c r="C461" s="13"/>
@@ -12721,7 +12723,7 @@
       <c r="U461" s="13"/>
       <c r="V461" s="13"/>
     </row>
-    <row r="462" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:22" ht="14.25" customHeight="1">
       <c r="A462" s="13"/>
       <c r="B462" s="13"/>
       <c r="C462" s="13"/>
@@ -12745,7 +12747,7 @@
       <c r="U462" s="13"/>
       <c r="V462" s="13"/>
     </row>
-    <row r="463" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:22" ht="14.25" customHeight="1">
       <c r="A463" s="13"/>
       <c r="B463" s="13"/>
       <c r="C463" s="13"/>
@@ -12769,7 +12771,7 @@
       <c r="U463" s="13"/>
       <c r="V463" s="13"/>
     </row>
-    <row r="464" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:22" ht="14.25" customHeight="1">
       <c r="A464" s="13"/>
       <c r="B464" s="13"/>
       <c r="C464" s="13"/>
@@ -12793,7 +12795,7 @@
       <c r="U464" s="13"/>
       <c r="V464" s="13"/>
     </row>
-    <row r="465" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:22" ht="14.25" customHeight="1">
       <c r="A465" s="13"/>
       <c r="B465" s="13"/>
       <c r="C465" s="13"/>
@@ -12817,7 +12819,7 @@
       <c r="U465" s="13"/>
       <c r="V465" s="13"/>
     </row>
-    <row r="466" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:22" ht="14.25" customHeight="1">
       <c r="A466" s="13"/>
       <c r="B466" s="13"/>
       <c r="C466" s="13"/>
@@ -12841,7 +12843,7 @@
       <c r="U466" s="13"/>
       <c r="V466" s="13"/>
     </row>
-    <row r="467" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:22" ht="14.25" customHeight="1">
       <c r="A467" s="13"/>
       <c r="B467" s="13"/>
       <c r="C467" s="13"/>
@@ -12865,7 +12867,7 @@
       <c r="U467" s="13"/>
       <c r="V467" s="13"/>
     </row>
-    <row r="468" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:22" ht="14.25" customHeight="1">
       <c r="A468" s="13"/>
       <c r="B468" s="13"/>
       <c r="C468" s="13"/>
@@ -12889,7 +12891,7 @@
       <c r="U468" s="13"/>
       <c r="V468" s="13"/>
     </row>
-    <row r="469" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:22" ht="14.25" customHeight="1">
       <c r="A469" s="13"/>
       <c r="B469" s="13"/>
       <c r="C469" s="13"/>
@@ -12913,7 +12915,7 @@
       <c r="U469" s="13"/>
       <c r="V469" s="13"/>
     </row>
-    <row r="470" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:22" ht="14.25" customHeight="1">
       <c r="A470" s="13"/>
       <c r="B470" s="13"/>
       <c r="C470" s="13"/>
@@ -12937,7 +12939,7 @@
       <c r="U470" s="13"/>
       <c r="V470" s="13"/>
     </row>
-    <row r="471" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:22" ht="14.25" customHeight="1">
       <c r="A471" s="13"/>
       <c r="B471" s="13"/>
       <c r="C471" s="13"/>
@@ -12961,7 +12963,7 @@
       <c r="U471" s="13"/>
       <c r="V471" s="13"/>
     </row>
-    <row r="472" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:22" ht="14.25" customHeight="1">
       <c r="A472" s="13"/>
       <c r="B472" s="13"/>
       <c r="C472" s="13"/>
@@ -12985,7 +12987,7 @@
       <c r="U472" s="13"/>
       <c r="V472" s="13"/>
     </row>
-    <row r="473" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:22" ht="14.25" customHeight="1">
       <c r="A473" s="13"/>
       <c r="B473" s="13"/>
       <c r="C473" s="13"/>
@@ -13009,7 +13011,7 @@
       <c r="U473" s="13"/>
       <c r="V473" s="13"/>
     </row>
-    <row r="474" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:22" ht="14.25" customHeight="1">
       <c r="A474" s="13"/>
       <c r="B474" s="13"/>
       <c r="C474" s="13"/>
@@ -13033,7 +13035,7 @@
       <c r="U474" s="13"/>
       <c r="V474" s="13"/>
     </row>
-    <row r="475" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:22" ht="14.25" customHeight="1">
       <c r="A475" s="13"/>
       <c r="B475" s="13"/>
       <c r="C475" s="13"/>
@@ -13057,7 +13059,7 @@
       <c r="U475" s="13"/>
       <c r="V475" s="13"/>
     </row>
-    <row r="476" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:22" ht="14.25" customHeight="1">
       <c r="A476" s="13"/>
       <c r="B476" s="13"/>
       <c r="C476" s="13"/>
@@ -13081,7 +13083,7 @@
       <c r="U476" s="13"/>
       <c r="V476" s="13"/>
     </row>
-    <row r="477" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:22" ht="14.25" customHeight="1">
       <c r="A477" s="13"/>
       <c r="B477" s="13"/>
       <c r="C477" s="13"/>
@@ -13105,7 +13107,7 @@
       <c r="U477" s="13"/>
       <c r="V477" s="13"/>
     </row>
-    <row r="478" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:22" ht="14.25" customHeight="1">
       <c r="A478" s="13"/>
       <c r="B478" s="13"/>
       <c r="C478" s="13"/>
@@ -13129,7 +13131,7 @@
       <c r="U478" s="13"/>
       <c r="V478" s="13"/>
     </row>
-    <row r="479" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:22" ht="14.25" customHeight="1">
       <c r="A479" s="13"/>
       <c r="B479" s="13"/>
       <c r="C479" s="13"/>
@@ -13153,7 +13155,7 @@
       <c r="U479" s="13"/>
       <c r="V479" s="13"/>
     </row>
-    <row r="480" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:22" ht="14.25" customHeight="1">
       <c r="A480" s="13"/>
       <c r="B480" s="13"/>
       <c r="C480" s="13"/>
@@ -13177,7 +13179,7 @@
       <c r="U480" s="13"/>
       <c r="V480" s="13"/>
     </row>
-    <row r="481" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:22" ht="14.25" customHeight="1">
       <c r="A481" s="13"/>
       <c r="B481" s="13"/>
       <c r="C481" s="13"/>
@@ -13201,7 +13203,7 @@
       <c r="U481" s="13"/>
       <c r="V481" s="13"/>
     </row>
-    <row r="482" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:22" ht="14.25" customHeight="1">
       <c r="A482" s="13"/>
       <c r="B482" s="13"/>
       <c r="C482" s="13"/>
@@ -13225,7 +13227,7 @@
       <c r="U482" s="13"/>
       <c r="V482" s="13"/>
     </row>
-    <row r="483" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:22" ht="14.25" customHeight="1">
       <c r="A483" s="13"/>
       <c r="B483" s="13"/>
       <c r="C483" s="13"/>
@@ -13249,7 +13251,7 @@
       <c r="U483" s="13"/>
       <c r="V483" s="13"/>
     </row>
-    <row r="484" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:22" ht="14.25" customHeight="1">
       <c r="A484" s="13"/>
       <c r="B484" s="13"/>
       <c r="C484" s="13"/>
@@ -13273,7 +13275,7 @@
       <c r="U484" s="13"/>
       <c r="V484" s="13"/>
     </row>
-    <row r="485" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:22" ht="14.25" customHeight="1">
       <c r="A485" s="13"/>
       <c r="B485" s="13"/>
       <c r="C485" s="13"/>
@@ -13297,7 +13299,7 @@
       <c r="U485" s="13"/>
       <c r="V485" s="13"/>
     </row>
-    <row r="486" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:22" ht="14.25" customHeight="1">
       <c r="A486" s="13"/>
       <c r="B486" s="13"/>
       <c r="C486" s="13"/>
@@ -13321,7 +13323,7 @@
       <c r="U486" s="13"/>
       <c r="V486" s="13"/>
     </row>
-    <row r="487" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:22" ht="14.25" customHeight="1">
       <c r="A487" s="13"/>
       <c r="B487" s="13"/>
       <c r="C487" s="13"/>
@@ -13345,7 +13347,7 @@
       <c r="U487" s="13"/>
       <c r="V487" s="13"/>
     </row>
-    <row r="488" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:22" ht="14.25" customHeight="1">
       <c r="A488" s="13"/>
       <c r="B488" s="13"/>
       <c r="C488" s="13"/>
@@ -13369,7 +13371,7 @@
       <c r="U488" s="13"/>
       <c r="V488" s="13"/>
     </row>
-    <row r="489" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:22" ht="14.25" customHeight="1">
       <c r="A489" s="13"/>
       <c r="B489" s="13"/>
       <c r="C489" s="13"/>
@@ -13393,7 +13395,7 @@
       <c r="U489" s="13"/>
       <c r="V489" s="13"/>
     </row>
-    <row r="490" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:22" ht="14.25" customHeight="1">
       <c r="A490" s="13"/>
       <c r="B490" s="13"/>
       <c r="C490" s="13"/>
@@ -13417,7 +13419,7 @@
       <c r="U490" s="13"/>
       <c r="V490" s="13"/>
     </row>
-    <row r="491" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:22" ht="14.25" customHeight="1">
       <c r="A491" s="13"/>
       <c r="B491" s="13"/>
       <c r="C491" s="13"/>
@@ -13441,7 +13443,7 @@
       <c r="U491" s="13"/>
       <c r="V491" s="13"/>
     </row>
-    <row r="492" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:22" ht="14.25" customHeight="1">
       <c r="A492" s="13"/>
       <c r="B492" s="13"/>
       <c r="C492" s="13"/>
@@ -13465,7 +13467,7 @@
       <c r="U492" s="13"/>
       <c r="V492" s="13"/>
     </row>
-    <row r="493" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:22" ht="14.25" customHeight="1">
       <c r="A493" s="13"/>
       <c r="B493" s="13"/>
       <c r="C493" s="13"/>
@@ -13489,7 +13491,7 @@
       <c r="U493" s="13"/>
       <c r="V493" s="13"/>
     </row>
-    <row r="494" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:22" ht="14.25" customHeight="1">
       <c r="A494" s="13"/>
       <c r="B494" s="13"/>
       <c r="C494" s="13"/>
@@ -13513,7 +13515,7 @@
       <c r="U494" s="13"/>
       <c r="V494" s="13"/>
     </row>
-    <row r="495" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:22" ht="14.25" customHeight="1">
       <c r="A495" s="13"/>
       <c r="B495" s="13"/>
       <c r="C495" s="13"/>
@@ -13537,7 +13539,7 @@
       <c r="U495" s="13"/>
       <c r="V495" s="13"/>
     </row>
-    <row r="496" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:22" ht="14.25" customHeight="1">
       <c r="A496" s="13"/>
       <c r="B496" s="13"/>
       <c r="C496" s="13"/>
@@ -13561,7 +13563,7 @@
       <c r="U496" s="13"/>
       <c r="V496" s="13"/>
     </row>
-    <row r="497" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:22" ht="14.25" customHeight="1">
       <c r="A497" s="13"/>
       <c r="B497" s="13"/>
       <c r="C497" s="13"/>
@@ -13585,7 +13587,7 @@
       <c r="U497" s="13"/>
       <c r="V497" s="13"/>
     </row>
-    <row r="498" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:22" ht="14.25" customHeight="1">
       <c r="A498" s="13"/>
       <c r="B498" s="13"/>
       <c r="C498" s="13"/>
@@ -13609,7 +13611,7 @@
       <c r="U498" s="13"/>
       <c r="V498" s="13"/>
     </row>
-    <row r="499" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:22" ht="14.25" customHeight="1">
       <c r="A499" s="13"/>
       <c r="B499" s="13"/>
       <c r="C499" s="13"/>
@@ -13633,7 +13635,7 @@
       <c r="U499" s="13"/>
       <c r="V499" s="13"/>
     </row>
-    <row r="500" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:22" ht="14.25" customHeight="1">
       <c r="A500" s="13"/>
       <c r="B500" s="13"/>
       <c r="C500" s="13"/>
@@ -13657,7 +13659,7 @@
       <c r="U500" s="13"/>
       <c r="V500" s="13"/>
     </row>
-    <row r="501" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:22" ht="14.25" customHeight="1">
       <c r="A501" s="13"/>
       <c r="B501" s="13"/>
       <c r="C501" s="13"/>
@@ -13681,7 +13683,7 @@
       <c r="U501" s="13"/>
       <c r="V501" s="13"/>
     </row>
-    <row r="502" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:22" ht="14.25" customHeight="1">
       <c r="A502" s="13"/>
       <c r="B502" s="13"/>
       <c r="C502" s="13"/>
@@ -13705,7 +13707,7 @@
       <c r="U502" s="13"/>
       <c r="V502" s="13"/>
     </row>
-    <row r="503" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:22" ht="14.25" customHeight="1">
       <c r="A503" s="13"/>
       <c r="B503" s="13"/>
       <c r="C503" s="13"/>
@@ -13729,7 +13731,7 @@
       <c r="U503" s="13"/>
       <c r="V503" s="13"/>
     </row>
-    <row r="504" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:22" ht="14.25" customHeight="1">
       <c r="A504" s="13"/>
       <c r="B504" s="13"/>
       <c r="C504" s="13"/>
@@ -13753,7 +13755,7 @@
       <c r="U504" s="13"/>
       <c r="V504" s="13"/>
     </row>
-    <row r="505" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:22" ht="14.25" customHeight="1">
       <c r="A505" s="13"/>
       <c r="B505" s="13"/>
       <c r="C505" s="13"/>
@@ -13777,7 +13779,7 @@
       <c r="U505" s="13"/>
       <c r="V505" s="13"/>
     </row>
-    <row r="506" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:22" ht="14.25" customHeight="1">
       <c r="A506" s="13"/>
       <c r="B506" s="13"/>
       <c r="C506" s="13"/>
@@ -13801,7 +13803,7 @@
       <c r="U506" s="13"/>
       <c r="V506" s="13"/>
     </row>
-    <row r="507" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:22" ht="14.25" customHeight="1">
       <c r="A507" s="13"/>
       <c r="B507" s="13"/>
       <c r="C507" s="13"/>
@@ -13825,7 +13827,7 @@
       <c r="U507" s="13"/>
       <c r="V507" s="13"/>
     </row>
-    <row r="508" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:22" ht="14.25" customHeight="1">
       <c r="A508" s="13"/>
       <c r="B508" s="13"/>
       <c r="C508" s="13"/>
@@ -13849,7 +13851,7 @@
       <c r="U508" s="13"/>
       <c r="V508" s="13"/>
     </row>
-    <row r="509" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:22" ht="14.25" customHeight="1">
       <c r="A509" s="13"/>
       <c r="B509" s="13"/>
       <c r="C509" s="13"/>
@@ -13873,7 +13875,7 @@
       <c r="U509" s="13"/>
       <c r="V509" s="13"/>
     </row>
-    <row r="510" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:22" ht="14.25" customHeight="1">
       <c r="A510" s="13"/>
       <c r="B510" s="13"/>
       <c r="C510" s="13"/>
@@ -13897,7 +13899,7 @@
       <c r="U510" s="13"/>
       <c r="V510" s="13"/>
     </row>
-    <row r="511" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:22" ht="14.25" customHeight="1">
       <c r="A511" s="13"/>
       <c r="B511" s="13"/>
       <c r="C511" s="13"/>
@@ -13921,7 +13923,7 @@
       <c r="U511" s="13"/>
       <c r="V511" s="13"/>
     </row>
-    <row r="512" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:22" ht="14.25" customHeight="1">
       <c r="A512" s="13"/>
       <c r="B512" s="13"/>
       <c r="C512" s="13"/>
@@ -13945,7 +13947,7 @@
       <c r="U512" s="13"/>
       <c r="V512" s="13"/>
     </row>
-    <row r="513" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:22" ht="14.25" customHeight="1">
       <c r="A513" s="13"/>
       <c r="B513" s="13"/>
       <c r="C513" s="13"/>
@@ -13969,7 +13971,7 @@
       <c r="U513" s="13"/>
       <c r="V513" s="13"/>
     </row>
-    <row r="514" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:22" ht="14.25" customHeight="1">
       <c r="A514" s="13"/>
       <c r="B514" s="13"/>
       <c r="C514" s="13"/>
@@ -13993,7 +13995,7 @@
       <c r="U514" s="13"/>
       <c r="V514" s="13"/>
     </row>
-    <row r="515" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:22" ht="14.25" customHeight="1">
       <c r="A515" s="13"/>
       <c r="B515" s="13"/>
       <c r="C515" s="13"/>
@@ -14017,7 +14019,7 @@
       <c r="U515" s="13"/>
       <c r="V515" s="13"/>
     </row>
-    <row r="516" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:22" ht="14.25" customHeight="1">
       <c r="A516" s="13"/>
       <c r="B516" s="13"/>
       <c r="C516" s="13"/>
@@ -14041,7 +14043,7 @@
       <c r="U516" s="13"/>
       <c r="V516" s="13"/>
     </row>
-    <row r="517" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:22" ht="14.25" customHeight="1">
       <c r="A517" s="13"/>
       <c r="B517" s="13"/>
       <c r="C517" s="13"/>
@@ -14065,7 +14067,7 @@
       <c r="U517" s="13"/>
       <c r="V517" s="13"/>
     </row>
-    <row r="518" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:22" ht="14.25" customHeight="1">
       <c r="A518" s="13"/>
       <c r="B518" s="13"/>
       <c r="C518" s="13"/>
@@ -14089,7 +14091,7 @@
       <c r="U518" s="13"/>
       <c r="V518" s="13"/>
     </row>
-    <row r="519" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:22" ht="14.25" customHeight="1">
       <c r="A519" s="13"/>
       <c r="B519" s="13"/>
       <c r="C519" s="13"/>
@@ -14113,7 +14115,7 @@
       <c r="U519" s="13"/>
       <c r="V519" s="13"/>
     </row>
-    <row r="520" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:22" ht="14.25" customHeight="1">
       <c r="A520" s="13"/>
       <c r="B520" s="13"/>
       <c r="C520" s="13"/>
@@ -14137,7 +14139,7 @@
       <c r="U520" s="13"/>
       <c r="V520" s="13"/>
     </row>
-    <row r="521" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:22" ht="14.25" customHeight="1">
       <c r="A521" s="13"/>
       <c r="B521" s="13"/>
       <c r="C521" s="13"/>
@@ -14161,7 +14163,7 @@
       <c r="U521" s="13"/>
       <c r="V521" s="13"/>
     </row>
-    <row r="522" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:22" ht="14.25" customHeight="1">
       <c r="A522" s="13"/>
       <c r="B522" s="13"/>
       <c r="C522" s="13"/>
@@ -14185,7 +14187,7 @@
       <c r="U522" s="13"/>
       <c r="V522" s="13"/>
     </row>
-    <row r="523" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:22" ht="14.25" customHeight="1">
       <c r="A523" s="13"/>
       <c r="B523" s="13"/>
       <c r="C523" s="13"/>
@@ -14209,7 +14211,7 @@
       <c r="U523" s="13"/>
       <c r="V523" s="13"/>
     </row>
-    <row r="524" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:22" ht="14.25" customHeight="1">
       <c r="A524" s="13"/>
       <c r="B524" s="13"/>
       <c r="C524" s="13"/>
@@ -14233,7 +14235,7 @@
       <c r="U524" s="13"/>
       <c r="V524" s="13"/>
     </row>
-    <row r="525" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:22" ht="14.25" customHeight="1">
       <c r="A525" s="13"/>
       <c r="B525" s="13"/>
       <c r="C525" s="13"/>
@@ -14257,7 +14259,7 @@
       <c r="U525" s="13"/>
       <c r="V525" s="13"/>
     </row>
-    <row r="526" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:22" ht="14.25" customHeight="1">
       <c r="A526" s="13"/>
       <c r="B526" s="13"/>
       <c r="C526" s="13"/>
@@ -14281,7 +14283,7 @@
       <c r="U526" s="13"/>
       <c r="V526" s="13"/>
     </row>
-    <row r="527" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:22" ht="14.25" customHeight="1">
       <c r="A527" s="13"/>
       <c r="B527" s="13"/>
       <c r="C527" s="13"/>
@@ -14305,7 +14307,7 @@
       <c r="U527" s="13"/>
       <c r="V527" s="13"/>
     </row>
-    <row r="528" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:22" ht="14.25" customHeight="1">
       <c r="A528" s="13"/>
       <c r="B528" s="13"/>
       <c r="C528" s="13"/>
@@ -14329,7 +14331,7 @@
       <c r="U528" s="13"/>
       <c r="V528" s="13"/>
     </row>
-    <row r="529" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:22" ht="14.25" customHeight="1">
       <c r="A529" s="13"/>
       <c r="B529" s="13"/>
       <c r="C529" s="13"/>
@@ -14353,7 +14355,7 @@
       <c r="U529" s="13"/>
       <c r="V529" s="13"/>
     </row>
-    <row r="530" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:22" ht="14.25" customHeight="1">
       <c r="A530" s="13"/>
       <c r="B530" s="13"/>
       <c r="C530" s="13"/>
@@ -14377,7 +14379,7 @@
       <c r="U530" s="13"/>
       <c r="V530" s="13"/>
     </row>
-    <row r="531" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:22" ht="14.25" customHeight="1">
       <c r="A531" s="13"/>
       <c r="B531" s="13"/>
       <c r="C531" s="13"/>
@@ -14401,7 +14403,7 @@
       <c r="U531" s="13"/>
       <c r="V531" s="13"/>
     </row>
-    <row r="532" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:22" ht="14.25" customHeight="1">
       <c r="A532" s="13"/>
       <c r="B532" s="13"/>
       <c r="C532" s="13"/>
@@ -14425,7 +14427,7 @@
       <c r="U532" s="13"/>
       <c r="V532" s="13"/>
     </row>
-    <row r="533" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:22" ht="14.25" customHeight="1">
       <c r="A533" s="13"/>
       <c r="B533" s="13"/>
       <c r="C533" s="13"/>
@@ -14449,7 +14451,7 @@
       <c r="U533" s="13"/>
       <c r="V533" s="13"/>
     </row>
-    <row r="534" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:22" ht="14.25" customHeight="1">
       <c r="A534" s="13"/>
       <c r="B534" s="13"/>
       <c r="C534" s="13"/>
@@ -14473,7 +14475,7 @@
       <c r="U534" s="13"/>
       <c r="V534" s="13"/>
     </row>
-    <row r="535" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:22" ht="14.25" customHeight="1">
       <c r="A535" s="13"/>
       <c r="B535" s="13"/>
       <c r="C535" s="13"/>
@@ -14497,7 +14499,7 @@
       <c r="U535" s="13"/>
       <c r="V535" s="13"/>
     </row>
-    <row r="536" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:22" ht="14.25" customHeight="1">
       <c r="A536" s="13"/>
       <c r="B536" s="13"/>
       <c r="C536" s="13"/>
@@ -14521,7 +14523,7 @@
       <c r="U536" s="13"/>
       <c r="V536" s="13"/>
     </row>
-    <row r="537" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:22" ht="14.25" customHeight="1">
       <c r="A537" s="13"/>
       <c r="B537" s="13"/>
       <c r="C537" s="13"/>
@@ -14545,7 +14547,7 @@
       <c r="U537" s="13"/>
       <c r="V537" s="13"/>
     </row>
-    <row r="538" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:22" ht="14.25" customHeight="1">
       <c r="A538" s="13"/>
       <c r="B538" s="13"/>
       <c r="C538" s="13"/>
@@ -14569,7 +14571,7 @@
       <c r="U538" s="13"/>
       <c r="V538" s="13"/>
     </row>
-    <row r="539" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:22" ht="14.25" customHeight="1">
       <c r="A539" s="13"/>
       <c r="B539" s="13"/>
       <c r="C539" s="13"/>
@@ -14593,7 +14595,7 @@
       <c r="U539" s="13"/>
       <c r="V539" s="13"/>
     </row>
-    <row r="540" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:22" ht="14.25" customHeight="1">
       <c r="A540" s="13"/>
       <c r="B540" s="13"/>
       <c r="C540" s="13"/>
@@ -14617,7 +14619,7 @@
       <c r="U540" s="13"/>
       <c r="V540" s="13"/>
     </row>
-    <row r="541" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:22" ht="14.25" customHeight="1">
       <c r="A541" s="13"/>
       <c r="B541" s="13"/>
       <c r="C541" s="13"/>
@@ -14641,7 +14643,7 @@
       <c r="U541" s="13"/>
       <c r="V541" s="13"/>
     </row>
-    <row r="542" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:22" ht="14.25" customHeight="1">
       <c r="A542" s="13"/>
       <c r="B542" s="13"/>
       <c r="C542" s="13"/>
@@ -14665,7 +14667,7 @@
       <c r="U542" s="13"/>
       <c r="V542" s="13"/>
     </row>
-    <row r="543" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:22" ht="14.25" customHeight="1">
       <c r="A543" s="13"/>
       <c r="B543" s="13"/>
       <c r="C543" s="13"/>
@@ -14689,7 +14691,7 @@
       <c r="U543" s="13"/>
       <c r="V543" s="13"/>
     </row>
-    <row r="544" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:22" ht="14.25" customHeight="1">
       <c r="A544" s="13"/>
       <c r="B544" s="13"/>
       <c r="C544" s="13"/>
@@ -14713,7 +14715,7 @@
       <c r="U544" s="13"/>
       <c r="V544" s="13"/>
     </row>
-    <row r="545" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:22" ht="14.25" customHeight="1">
       <c r="A545" s="13"/>
       <c r="B545" s="13"/>
       <c r="C545" s="13"/>
@@ -14737,7 +14739,7 @@
       <c r="U545" s="13"/>
       <c r="V545" s="13"/>
     </row>
-    <row r="546" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:22" ht="14.25" customHeight="1">
       <c r="A546" s="13"/>
       <c r="B546" s="13"/>
       <c r="C546" s="13"/>
@@ -14761,7 +14763,7 @@
       <c r="U546" s="13"/>
       <c r="V546" s="13"/>
     </row>
-    <row r="547" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:22" ht="14.25" customHeight="1">
       <c r="A547" s="13"/>
       <c r="B547" s="13"/>
       <c r="C547" s="13"/>
@@ -14785,7 +14787,7 @@
       <c r="U547" s="13"/>
       <c r="V547" s="13"/>
     </row>
-    <row r="548" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:22" ht="14.25" customHeight="1">
       <c r="A548" s="13"/>
       <c r="B548" s="13"/>
       <c r="C548" s="13"/>
@@ -14809,7 +14811,7 @@
       <c r="U548" s="13"/>
       <c r="V548" s="13"/>
     </row>
-    <row r="549" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:22" ht="14.25" customHeight="1">
       <c r="A549" s="13"/>
       <c r="B549" s="13"/>
       <c r="C549" s="13"/>
@@ -14833,7 +14835,7 @@
       <c r="U549" s="13"/>
       <c r="V549" s="13"/>
     </row>
-    <row r="550" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:22" ht="14.25" customHeight="1">
       <c r="A550" s="13"/>
       <c r="B550" s="13"/>
       <c r="C550" s="13"/>
@@ -14857,7 +14859,7 @@
       <c r="U550" s="13"/>
       <c r="V550" s="13"/>
     </row>
-    <row r="551" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:22" ht="14.25" customHeight="1">
       <c r="A551" s="13"/>
       <c r="B551" s="13"/>
       <c r="C551" s="13"/>
@@ -14881,7 +14883,7 @@
       <c r="U551" s="13"/>
       <c r="V551" s="13"/>
     </row>
-    <row r="552" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:22" ht="14.25" customHeight="1">
       <c r="A552" s="13"/>
       <c r="B552" s="13"/>
       <c r="C552" s="13"/>
@@ -14905,7 +14907,7 @@
       <c r="U552" s="13"/>
       <c r="V552" s="13"/>
     </row>
-    <row r="553" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:22" ht="14.25" customHeight="1">
       <c r="A553" s="13"/>
       <c r="B553" s="13"/>
       <c r="C553" s="13"/>
@@ -14929,7 +14931,7 @@
       <c r="U553" s="13"/>
       <c r="V553" s="13"/>
     </row>
-    <row r="554" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:22" ht="14.25" customHeight="1">
       <c r="A554" s="13"/>
       <c r="B554" s="13"/>
       <c r="C554" s="13"/>
@@ -14953,7 +14955,7 @@
       <c r="U554" s="13"/>
       <c r="V554" s="13"/>
     </row>
-    <row r="555" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:22" ht="14.25" customHeight="1">
       <c r="A555" s="13"/>
       <c r="B555" s="13"/>
       <c r="C555" s="13"/>
@@ -14977,7 +14979,7 @@
       <c r="U555" s="13"/>
       <c r="V555" s="13"/>
     </row>
-    <row r="556" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:22" ht="14.25" customHeight="1">
       <c r="A556" s="13"/>
       <c r="B556" s="13"/>
       <c r="C556" s="13"/>
@@ -15001,7 +15003,7 @@
       <c r="U556" s="13"/>
       <c r="V556" s="13"/>
     </row>
-    <row r="557" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:22" ht="14.25" customHeight="1">
       <c r="A557" s="13"/>
       <c r="B557" s="13"/>
       <c r="C557" s="13"/>
@@ -15025,7 +15027,7 @@
       <c r="U557" s="13"/>
       <c r="V557" s="13"/>
     </row>
-    <row r="558" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:22" ht="14.25" customHeight="1">
       <c r="A558" s="13"/>
       <c r="B558" s="13"/>
       <c r="C558" s="13"/>
@@ -15049,7 +15051,7 @@
       <c r="U558" s="13"/>
       <c r="V558" s="13"/>
     </row>
-    <row r="559" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:22" ht="14.25" customHeight="1">
       <c r="A559" s="13"/>
       <c r="B559" s="13"/>
       <c r="C559" s="13"/>
@@ -15073,7 +15075,7 @@
       <c r="U559" s="13"/>
       <c r="V559" s="13"/>
     </row>
-    <row r="560" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:22" ht="14.25" customHeight="1">
       <c r="A560" s="13"/>
       <c r="B560" s="13"/>
       <c r="C560" s="13"/>
@@ -15097,7 +15099,7 @@
       <c r="U560" s="13"/>
       <c r="V560" s="13"/>
     </row>
-    <row r="561" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:22" ht="14.25" customHeight="1">
       <c r="A561" s="13"/>
       <c r="B561" s="13"/>
       <c r="C561" s="13"/>
@@ -15121,7 +15123,7 @@
       <c r="U561" s="13"/>
       <c r="V561" s="13"/>
     </row>
-    <row r="562" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:22" ht="14.25" customHeight="1">
       <c r="A562" s="13"/>
       <c r="B562" s="13"/>
       <c r="C562" s="13"/>
@@ -15145,7 +15147,7 @@
       <c r="U562" s="13"/>
       <c r="V562" s="13"/>
     </row>
-    <row r="563" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:22" ht="14.25" customHeight="1">
       <c r="A563" s="13"/>
       <c r="B563" s="13"/>
       <c r="C563" s="13"/>
@@ -15169,7 +15171,7 @@
       <c r="U563" s="13"/>
       <c r="V563" s="13"/>
     </row>
-    <row r="564" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:22" ht="14.25" customHeight="1">
       <c r="A564" s="13"/>
       <c r="B564" s="13"/>
       <c r="C564" s="13"/>
@@ -15193,7 +15195,7 @@
       <c r="U564" s="13"/>
       <c r="V564" s="13"/>
     </row>
-    <row r="565" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:22" ht="14.25" customHeight="1">
       <c r="A565" s="13"/>
       <c r="B565" s="13"/>
       <c r="C565" s="13"/>
@@ -15217,7 +15219,7 @@
       <c r="U565" s="13"/>
       <c r="V565" s="13"/>
     </row>
-    <row r="566" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:22" ht="14.25" customHeight="1">
       <c r="A566" s="13"/>
       <c r="B566" s="13"/>
       <c r="C566" s="13"/>
@@ -15241,7 +15243,7 @@
       <c r="U566" s="13"/>
       <c r="V566" s="13"/>
     </row>
-    <row r="567" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:22" ht="14.25" customHeight="1">
       <c r="A567" s="13"/>
       <c r="B567" s="13"/>
       <c r="C567" s="13"/>
@@ -15265,7 +15267,7 @@
       <c r="U567" s="13"/>
       <c r="V567" s="13"/>
     </row>
-    <row r="568" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:22" ht="14.25" customHeight="1">
       <c r="A568" s="13"/>
       <c r="B568" s="13"/>
       <c r="C568" s="13"/>
@@ -15289,7 +15291,7 @@
       <c r="U568" s="13"/>
       <c r="V568" s="13"/>
     </row>
-    <row r="569" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:22" ht="14.25" customHeight="1">
       <c r="A569" s="13"/>
       <c r="B569" s="13"/>
       <c r="C569" s="13"/>
@@ -15313,7 +15315,7 @@
       <c r="U569" s="13"/>
       <c r="V569" s="13"/>
     </row>
-    <row r="570" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:22" ht="14.25" customHeight="1">
       <c r="A570" s="13"/>
       <c r="B570" s="13"/>
       <c r="C570" s="13"/>
@@ -15337,7 +15339,7 @@
       <c r="U570" s="13"/>
       <c r="V570" s="13"/>
     </row>
-    <row r="571" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:22" ht="14.25" customHeight="1">
       <c r="A571" s="13"/>
       <c r="B571" s="13"/>
       <c r="C571" s="13"/>
@@ -15361,7 +15363,7 @@
       <c r="U571" s="13"/>
       <c r="V571" s="13"/>
     </row>
-    <row r="572" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:22" ht="14.25" customHeight="1">
       <c r="A572" s="13"/>
       <c r="B572" s="13"/>
       <c r="C572" s="13"/>
@@ -15385,7 +15387,7 @@
       <c r="U572" s="13"/>
       <c r="V572" s="13"/>
     </row>
-    <row r="573" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:22" ht="14.25" customHeight="1">
       <c r="A573" s="13"/>
       <c r="B573" s="13"/>
       <c r="C573" s="13"/>
@@ -15409,7 +15411,7 @@
       <c r="U573" s="13"/>
       <c r="V573" s="13"/>
     </row>
-    <row r="574" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:22" ht="14.25" customHeight="1">
       <c r="A574" s="13"/>
       <c r="B574" s="13"/>
       <c r="C574" s="13"/>
@@ -15433,7 +15435,7 @@
       <c r="U574" s="13"/>
       <c r="V574" s="13"/>
     </row>
-    <row r="575" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:22" ht="14.25" customHeight="1">
       <c r="A575" s="13"/>
       <c r="B575" s="13"/>
       <c r="C575" s="13"/>
@@ -15457,7 +15459,7 @@
       <c r="U575" s="13"/>
       <c r="V575" s="13"/>
     </row>
-    <row r="576" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:22" ht="14.25" customHeight="1">
       <c r="A576" s="13"/>
       <c r="B576" s="13"/>
       <c r="C576" s="13"/>
@@ -15481,7 +15483,7 @@
       <c r="U576" s="13"/>
       <c r="V576" s="13"/>
     </row>
-    <row r="577" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:22" ht="14.25" customHeight="1">
       <c r="A577" s="13"/>
       <c r="B577" s="13"/>
       <c r="C577" s="13"/>
@@ -15505,7 +15507,7 @@
       <c r="U577" s="13"/>
       <c r="V577" s="13"/>
     </row>
-    <row r="578" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:22" ht="14.25" customHeight="1">
       <c r="A578" s="13"/>
       <c r="B578" s="13"/>
       <c r="C578" s="13"/>
@@ -15529,7 +15531,7 @@
       <c r="U578" s="13"/>
       <c r="V578" s="13"/>
     </row>
-    <row r="579" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:22" ht="14.25" customHeight="1">
       <c r="A579" s="13"/>
       <c r="B579" s="13"/>
       <c r="C579" s="13"/>
@@ -15553,7 +15555,7 @@
       <c r="U579" s="13"/>
       <c r="V579" s="13"/>
     </row>
-    <row r="580" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:22" ht="14.25" customHeight="1">
       <c r="A580" s="13"/>
       <c r="B580" s="13"/>
       <c r="C580" s="13"/>
@@ -15577,7 +15579,7 @@
       <c r="U580" s="13"/>
       <c r="V580" s="13"/>
     </row>
-    <row r="581" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:22" ht="14.25" customHeight="1">
       <c r="A581" s="13"/>
       <c r="B581" s="13"/>
       <c r="C581" s="13"/>
@@ -15601,7 +15603,7 @@
       <c r="U581" s="13"/>
       <c r="V581" s="13"/>
     </row>
-    <row r="582" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:22" ht="14.25" customHeight="1">
       <c r="A582" s="13"/>
       <c r="B582" s="13"/>
       <c r="C582" s="13"/>
@@ -15625,7 +15627,7 @@
       <c r="U582" s="13"/>
       <c r="V582" s="13"/>
     </row>
-    <row r="583" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:22" ht="14.25" customHeight="1">
       <c r="A583" s="13"/>
       <c r="B583" s="13"/>
       <c r="C583" s="13"/>
@@ -15649,7 +15651,7 @@
       <c r="U583" s="13"/>
       <c r="V583" s="13"/>
     </row>
-    <row r="584" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:22" ht="14.25" customHeight="1">
       <c r="A584" s="13"/>
       <c r="B584" s="13"/>
       <c r="C584" s="13"/>
@@ -15673,7 +15675,7 @@
       <c r="U584" s="13"/>
       <c r="V584" s="13"/>
     </row>
-    <row r="585" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:22" ht="14.25" customHeight="1">
       <c r="A585" s="13"/>
       <c r="B585" s="13"/>
       <c r="C585" s="13"/>
@@ -15697,7 +15699,7 @@
       <c r="U585" s="13"/>
       <c r="V585" s="13"/>
     </row>
-    <row r="586" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:22" ht="14.25" customHeight="1">
       <c r="A586" s="13"/>
       <c r="B586" s="13"/>
       <c r="C586" s="13"/>
@@ -15721,7 +15723,7 @@
       <c r="U586" s="13"/>
       <c r="V586" s="13"/>
     </row>
-    <row r="587" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:22" ht="14.25" customHeight="1">
       <c r="A587" s="13"/>
       <c r="B587" s="13"/>
       <c r="C587" s="13"/>
@@ -15745,7 +15747,7 @@
       <c r="U587" s="13"/>
       <c r="V587" s="13"/>
     </row>
-    <row r="588" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:22" ht="14.25" customHeight="1">
       <c r="A588" s="13"/>
       <c r="B588" s="13"/>
       <c r="C588" s="13"/>
@@ -15769,7 +15771,7 @@
       <c r="U588" s="13"/>
       <c r="V588" s="13"/>
     </row>
-    <row r="589" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:22" ht="14.25" customHeight="1">
       <c r="A589" s="13"/>
       <c r="B589" s="13"/>
       <c r="C589" s="13"/>
@@ -15793,7 +15795,7 @@
       <c r="U589" s="13"/>
       <c r="V589" s="13"/>
     </row>
-    <row r="590" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:22" ht="14.25" customHeight="1">
       <c r="A590" s="13"/>
       <c r="B590" s="13"/>
       <c r="C590" s="13"/>
@@ -15817,7 +15819,7 @@
       <c r="U590" s="13"/>
       <c r="V590" s="13"/>
     </row>
-    <row r="591" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:22" ht="14.25" customHeight="1">
       <c r="A591" s="13"/>
       <c r="B591" s="13"/>
       <c r="C591" s="13"/>
@@ -15841,7 +15843,7 @@
       <c r="U591" s="13"/>
       <c r="V591" s="13"/>
     </row>
-    <row r="592" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:22" ht="14.25" customHeight="1">
       <c r="A592" s="13"/>
       <c r="B592" s="13"/>
       <c r="C592" s="13"/>
@@ -15865,7 +15867,7 @@
       <c r="U592" s="13"/>
       <c r="V592" s="13"/>
     </row>
-    <row r="593" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:22" ht="14.25" customHeight="1">
       <c r="A593" s="13"/>
       <c r="B593" s="13"/>
       <c r="C593" s="13"/>
@@ -15889,7 +15891,7 @@
       <c r="U593" s="13"/>
       <c r="V593" s="13"/>
     </row>
-    <row r="594" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:22" ht="14.25" customHeight="1">
       <c r="A594" s="13"/>
       <c r="B594" s="13"/>
       <c r="C594" s="13"/>
@@ -15913,7 +15915,7 @@
       <c r="U594" s="13"/>
       <c r="V594" s="13"/>
     </row>
-    <row r="595" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:22" ht="14.25" customHeight="1">
       <c r="A595" s="13"/>
       <c r="B595" s="13"/>
       <c r="C595" s="13"/>
@@ -15937,7 +15939,7 @@
       <c r="U595" s="13"/>
       <c r="V595" s="13"/>
     </row>
-    <row r="596" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:22" ht="14.25" customHeight="1">
       <c r="A596" s="13"/>
       <c r="B596" s="13"/>
       <c r="C596" s="13"/>
@@ -15961,7 +15963,7 @@
       <c r="U596" s="13"/>
       <c r="V596" s="13"/>
     </row>
-    <row r="597" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:22" ht="14.25" customHeight="1">
       <c r="A597" s="13"/>
       <c r="B597" s="13"/>
       <c r="C597" s="13"/>
@@ -15985,7 +15987,7 @@
       <c r="U597" s="13"/>
       <c r="V597" s="13"/>
     </row>
-    <row r="598" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:22" ht="14.25" customHeight="1">
       <c r="A598" s="13"/>
       <c r="B598" s="13"/>
       <c r="C598" s="13"/>
@@ -16009,7 +16011,7 @@
       <c r="U598" s="13"/>
       <c r="V598" s="13"/>
     </row>
-    <row r="599" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:22" ht="14.25" customHeight="1">
       <c r="A599" s="13"/>
       <c r="B599" s="13"/>
       <c r="C599" s="13"/>
@@ -16033,7 +16035,7 @@
       <c r="U599" s="13"/>
       <c r="V599" s="13"/>
     </row>
-    <row r="600" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:22" ht="14.25" customHeight="1">
       <c r="A600" s="13"/>
       <c r="B600" s="13"/>
       <c r="C600" s="13"/>
@@ -16057,7 +16059,7 @@
       <c r="U600" s="13"/>
       <c r="V600" s="13"/>
     </row>
-    <row r="601" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:22" ht="14.25" customHeight="1">
       <c r="A601" s="13"/>
       <c r="B601" s="13"/>
       <c r="C601" s="13"/>
@@ -16081,7 +16083,7 @@
       <c r="U601" s="13"/>
       <c r="V601" s="13"/>
     </row>
-    <row r="602" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:22" ht="14.25" customHeight="1">
       <c r="A602" s="13"/>
       <c r="B602" s="13"/>
       <c r="C602" s="13"/>
@@ -16105,7 +16107,7 @@
       <c r="U602" s="13"/>
       <c r="V602" s="13"/>
     </row>
-    <row r="603" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:22" ht="14.25" customHeight="1">
       <c r="A603" s="13"/>
       <c r="B603" s="13"/>
       <c r="C603" s="13"/>
@@ -16129,7 +16131,7 @@
       <c r="U603" s="13"/>
       <c r="V603" s="13"/>
     </row>
-    <row r="604" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:22" ht="14.25" customHeight="1">
       <c r="A604" s="13"/>
       <c r="B604" s="13"/>
       <c r="C604" s="13"/>
@@ -16153,7 +16155,7 @@
       <c r="U604" s="13"/>
       <c r="V604" s="13"/>
     </row>
-    <row r="605" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:22" ht="14.25" customHeight="1">
       <c r="A605" s="13"/>
       <c r="B605" s="13"/>
       <c r="C605" s="13"/>
@@ -16177,7 +16179,7 @@
       <c r="U605" s="13"/>
       <c r="V605" s="13"/>
     </row>
-    <row r="606" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:22" ht="14.25" customHeight="1">
       <c r="A606" s="13"/>
       <c r="B606" s="13"/>
       <c r="C606" s="13"/>
@@ -16201,7 +16203,7 @@
       <c r="U606" s="13"/>
       <c r="V606" s="13"/>
     </row>
-    <row r="607" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:22" ht="14.25" customHeight="1">
       <c r="A607" s="13"/>
       <c r="B607" s="13"/>
       <c r="C607" s="13"/>
@@ -16225,7 +16227,7 @@
       <c r="U607" s="13"/>
       <c r="V607" s="13"/>
     </row>
-    <row r="608" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:22" ht="14.25" customHeight="1">
       <c r="A608" s="13"/>
       <c r="B608" s="13"/>
       <c r="C608" s="13"/>
@@ -16249,7 +16251,7 @@
       <c r="U608" s="13"/>
       <c r="V608" s="13"/>
     </row>
-    <row r="609" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:22" ht="14.25" customHeight="1">
       <c r="A609" s="13"/>
       <c r="B609" s="13"/>
       <c r="C609" s="13"/>
@@ -16273,7 +16275,7 @@
       <c r="U609" s="13"/>
       <c r="V609" s="13"/>
     </row>
-    <row r="610" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:22" ht="14.25" customHeight="1">
       <c r="A610" s="13"/>
       <c r="B610" s="13"/>
       <c r="C610" s="13"/>
@@ -16297,7 +16299,7 @@
       <c r="U610" s="13"/>
       <c r="V610" s="13"/>
     </row>
-    <row r="611" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:22" ht="14.25" customHeight="1">
       <c r="A611" s="13"/>
       <c r="B611" s="13"/>
       <c r="C611" s="13"/>
@@ -16321,7 +16323,7 @@
       <c r="U611" s="13"/>
       <c r="V611" s="13"/>
     </row>
-    <row r="612" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:22" ht="14.25" customHeight="1">
       <c r="A612" s="13"/>
       <c r="B612" s="13"/>
       <c r="C612" s="13"/>
@@ -16345,7 +16347,7 @@
       <c r="U612" s="13"/>
       <c r="V612" s="13"/>
     </row>
-    <row r="613" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:22" ht="14.25" customHeight="1">
       <c r="A613" s="13"/>
       <c r="B613" s="13"/>
       <c r="C613" s="13"/>
@@ -16369,7 +16371,7 @@
       <c r="U613" s="13"/>
       <c r="V613" s="13"/>
     </row>
-    <row r="614" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:22" ht="14.25" customHeight="1">
       <c r="A614" s="13"/>
       <c r="B614" s="13"/>
       <c r="C614" s="13"/>
@@ -16393,7 +16395,7 @@
       <c r="U614" s="13"/>
       <c r="V614" s="13"/>
     </row>
-    <row r="615" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:22" ht="14.25" customHeight="1">
       <c r="A615" s="13"/>
       <c r="B615" s="13"/>
       <c r="C615" s="13"/>
@@ -16417,7 +16419,7 @@
       <c r="U615" s="13"/>
       <c r="V615" s="13"/>
     </row>
-    <row r="616" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:22" ht="14.25" customHeight="1">
       <c r="A616" s="13"/>
       <c r="B616" s="13"/>
       <c r="C616" s="13"/>
@@ -16441,7 +16443,7 @@
       <c r="U616" s="13"/>
       <c r="V616" s="13"/>
     </row>
-    <row r="617" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:22" ht="14.25" customHeight="1">
       <c r="A617" s="13"/>
       <c r="B617" s="13"/>
       <c r="C617" s="13"/>
@@ -16465,7 +16467,7 @@
       <c r="U617" s="13"/>
       <c r="V617" s="13"/>
     </row>
-    <row r="618" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:22" ht="14.25" customHeight="1">
       <c r="A618" s="13"/>
       <c r="B618" s="13"/>
       <c r="C618" s="13"/>
@@ -16489,7 +16491,7 @@
       <c r="U618" s="13"/>
       <c r="V618" s="13"/>
     </row>
-    <row r="619" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:22" ht="14.25" customHeight="1">
       <c r="A619" s="13"/>
       <c r="B619" s="13"/>
       <c r="C619" s="13"/>
@@ -16513,7 +16515,7 @@
       <c r="U619" s="13"/>
       <c r="V619" s="13"/>
     </row>
-    <row r="620" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:22" ht="14.25" customHeight="1">
       <c r="A620" s="13"/>
       <c r="B620" s="13"/>
       <c r="C620" s="13"/>
@@ -16537,7 +16539,7 @@
       <c r="U620" s="13"/>
       <c r="V620" s="13"/>
     </row>
-    <row r="621" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:22" ht="14.25" customHeight="1">
       <c r="A621" s="13"/>
       <c r="B621" s="13"/>
       <c r="C621" s="13"/>
@@ -16561,7 +16563,7 @@
       <c r="U621" s="13"/>
       <c r="V621" s="13"/>
     </row>
-    <row r="622" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:22" ht="14.25" customHeight="1">
       <c r="A622" s="13"/>
       <c r="B622" s="13"/>
       <c r="C622" s="13"/>
@@ -16585,7 +16587,7 @@
       <c r="U622" s="13"/>
       <c r="V622" s="13"/>
     </row>
-    <row r="623" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:22" ht="14.25" customHeight="1">
       <c r="A623" s="13"/>
       <c r="B623" s="13"/>
       <c r="C623" s="13"/>
@@ -16609,7 +16611,7 @@
       <c r="U623" s="13"/>
       <c r="V623" s="13"/>
     </row>
-    <row r="624" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:22" ht="14.25" customHeight="1">
       <c r="A624" s="13"/>
       <c r="B624" s="13"/>
       <c r="C624" s="13"/>
@@ -16633,7 +16635,7 @@
       <c r="U624" s="13"/>
       <c r="V624" s="13"/>
     </row>
-    <row r="625" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:22" ht="14.25" customHeight="1">
       <c r="A625" s="13"/>
       <c r="B625" s="13"/>
       <c r="C625" s="13"/>
@@ -16657,7 +16659,7 @@
       <c r="U625" s="13"/>
       <c r="V625" s="13"/>
     </row>
-    <row r="626" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:22" ht="14.25" customHeight="1">
       <c r="A626" s="13"/>
       <c r="B626" s="13"/>
       <c r="C626" s="13"/>
@@ -16681,7 +16683,7 @@
       <c r="U626" s="13"/>
       <c r="V626" s="13"/>
     </row>
-    <row r="627" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:22" ht="14.25" customHeight="1">
       <c r="A627" s="13"/>
       <c r="B627" s="13"/>
       <c r="C627" s="13"/>
@@ -16705,7 +16707,7 @@
       <c r="U627" s="13"/>
       <c r="V627" s="13"/>
     </row>
-    <row r="628" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:22" ht="14.25" customHeight="1">
       <c r="A628" s="13"/>
       <c r="B628" s="13"/>
       <c r="C628" s="13"/>
@@ -16729,7 +16731,7 @@
       <c r="U628" s="13"/>
       <c r="V628" s="13"/>
     </row>
-    <row r="629" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:22" ht="14.25" customHeight="1">
       <c r="A629" s="13"/>
       <c r="B629" s="13"/>
       <c r="C629" s="13"/>
@@ -16753,7 +16755,7 @@
       <c r="U629" s="13"/>
       <c r="V629" s="13"/>
     </row>
-    <row r="630" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:22" ht="14.25" customHeight="1">
       <c r="A630" s="13"/>
       <c r="B630" s="13"/>
       <c r="C630" s="13"/>
@@ -16777,7 +16779,7 @@
       <c r="U630" s="13"/>
       <c r="V630" s="13"/>
     </row>
-    <row r="631" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:22" ht="14.25" customHeight="1">
       <c r="A631" s="13"/>
       <c r="B631" s="13"/>
       <c r="C631" s="13"/>
@@ -16801,7 +16803,7 @@
       <c r="U631" s="13"/>
       <c r="V631" s="13"/>
     </row>
-    <row r="632" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:22" ht="14.25" customHeight="1">
       <c r="A632" s="13"/>
       <c r="B632" s="13"/>
       <c r="C632" s="13"/>
@@ -16825,7 +16827,7 @@
       <c r="U632" s="13"/>
       <c r="V632" s="13"/>
     </row>
-    <row r="633" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:22" ht="14.25" customHeight="1">
       <c r="A633" s="13"/>
       <c r="B633" s="13"/>
       <c r="C633" s="13"/>
@@ -16849,7 +16851,7 @@
       <c r="U633" s="13"/>
       <c r="V633" s="13"/>
     </row>
-    <row r="634" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:22" ht="14.25" customHeight="1">
       <c r="A634" s="13"/>
       <c r="B634" s="13"/>
       <c r="C634" s="13"/>
@@ -16873,7 +16875,7 @@
       <c r="U634" s="13"/>
       <c r="V634" s="13"/>
     </row>
-    <row r="635" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:22" ht="14.25" customHeight="1">
       <c r="A635" s="13"/>
       <c r="B635" s="13"/>
       <c r="C635" s="13"/>
@@ -16897,7 +16899,7 @@
       <c r="U635" s="13"/>
       <c r="V635" s="13"/>
     </row>
-    <row r="636" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:22" ht="14.25" customHeight="1">
       <c r="A636" s="13"/>
       <c r="B636" s="13"/>
       <c r="C636" s="13"/>
@@ -16921,7 +16923,7 @@
       <c r="U636" s="13"/>
       <c r="V636" s="13"/>
     </row>
-    <row r="637" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:22" ht="14.25" customHeight="1">
       <c r="A637" s="13"/>
       <c r="B637" s="13"/>
       <c r="C637" s="13"/>
@@ -16945,7 +16947,7 @@
       <c r="U637" s="13"/>
       <c r="V637" s="13"/>
     </row>
-    <row r="638" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:22" ht="14.25" customHeight="1">
       <c r="A638" s="13"/>
       <c r="B638" s="13"/>
       <c r="C638" s="13"/>
@@ -16969,7 +16971,7 @@
       <c r="U638" s="13"/>
       <c r="V638" s="13"/>
     </row>
-    <row r="639" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:22" ht="14.25" customHeight="1">
       <c r="A639" s="13"/>
       <c r="B639" s="13"/>
       <c r="C639" s="13"/>
@@ -16993,7 +16995,7 @@
       <c r="U639" s="13"/>
       <c r="V639" s="13"/>
     </row>
-    <row r="640" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:22" ht="14.25" customHeight="1">
       <c r="A640" s="13"/>
       <c r="B640" s="13"/>
       <c r="C640" s="13"/>
@@ -17017,7 +17019,7 @@
       <c r="U640" s="13"/>
       <c r="V640" s="13"/>
     </row>
-    <row r="641" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:22" ht="14.25" customHeight="1">
       <c r="A641" s="13"/>
       <c r="B641" s="13"/>
       <c r="C641" s="13"/>
@@ -17041,7 +17043,7 @@
       <c r="U641" s="13"/>
       <c r="V641" s="13"/>
     </row>
-    <row r="642" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:22" ht="14.25" customHeight="1">
       <c r="A642" s="13"/>
       <c r="B642" s="13"/>
       <c r="C642" s="13"/>
@@ -17065,7 +17067,7 @@
       <c r="U642" s="13"/>
       <c r="V642" s="13"/>
     </row>
-    <row r="643" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:22" ht="14.25" customHeight="1">
       <c r="A643" s="13"/>
       <c r="B643" s="13"/>
       <c r="C643" s="13"/>
@@ -17089,7 +17091,7 @@
       <c r="U643" s="13"/>
       <c r="V643" s="13"/>
     </row>
-    <row r="644" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:22" ht="14.25" customHeight="1">
       <c r="A644" s="13"/>
       <c r="B644" s="13"/>
       <c r="C644" s="13"/>
@@ -17113,7 +17115,7 @@
       <c r="U644" s="13"/>
       <c r="V644" s="13"/>
     </row>
-    <row r="645" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:22" ht="14.25" customHeight="1">
       <c r="A645" s="13"/>
       <c r="B645" s="13"/>
       <c r="C645" s="13"/>
@@ -17137,7 +17139,7 @@
       <c r="U645" s="13"/>
       <c r="V645" s="13"/>
     </row>
-    <row r="646" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:22" ht="14.25" customHeight="1">
       <c r="A646" s="13"/>
       <c r="B646" s="13"/>
       <c r="C646" s="13"/>
@@ -17161,7 +17163,7 @@
       <c r="U646" s="13"/>
       <c r="V646" s="13"/>
     </row>
-    <row r="647" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:22" ht="14.25" customHeight="1">
       <c r="A647" s="13"/>
       <c r="B647" s="13"/>
       <c r="C647" s="13"/>
@@ -17185,7 +17187,7 @@
       <c r="U647" s="13"/>
       <c r="V647" s="13"/>
     </row>
-    <row r="648" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:22" ht="14.25" customHeight="1">
       <c r="A648" s="13"/>
       <c r="B648" s="13"/>
       <c r="C648" s="13"/>
@@ -17209,7 +17211,7 @@
       <c r="U648" s="13"/>
       <c r="V648" s="13"/>
     </row>
-    <row r="649" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:22" ht="14.25" customHeight="1">
       <c r="A649" s="13"/>
       <c r="B649" s="13"/>
       <c r="C649" s="13"/>
@@ -17233,7 +17235,7 @@
       <c r="U649" s="13"/>
       <c r="V649" s="13"/>
     </row>
-    <row r="650" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:22" ht="14.25" customHeight="1">
       <c r="A650" s="13"/>
       <c r="B650" s="13"/>
       <c r="C650" s="13"/>
@@ -17257,7 +17259,7 @@
       <c r="U650" s="13"/>
       <c r="V650" s="13"/>
     </row>
-    <row r="651" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:22" ht="14.25" customHeight="1">
       <c r="A651" s="13"/>
       <c r="B651" s="13"/>
       <c r="C651" s="13"/>
@@ -17281,7 +17283,7 @@
       <c r="U651" s="13"/>
       <c r="V651" s="13"/>
     </row>
-    <row r="652" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:22" ht="14.25" customHeight="1">
       <c r="A652" s="13"/>
       <c r="B652" s="13"/>
       <c r="C652" s="13"/>
@@ -17305,7 +17307,7 @@
       <c r="U652" s="13"/>
       <c r="V652" s="13"/>
     </row>
-    <row r="653" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:22" ht="14.25" customHeight="1">
       <c r="A653" s="13"/>
       <c r="B653" s="13"/>
       <c r="C653" s="13"/>
@@ -17329,7 +17331,7 @@
       <c r="U653" s="13"/>
       <c r="V653" s="13"/>
     </row>
-    <row r="654" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:22" ht="14.25" customHeight="1">
       <c r="A654" s="13"/>
       <c r="B654" s="13"/>
       <c r="C654" s="13"/>
@@ -17353,7 +17355,7 @@
       <c r="U654" s="13"/>
       <c r="V654" s="13"/>
     </row>
-    <row r="655" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:22" ht="14.25" customHeight="1">
       <c r="A655" s="13"/>
       <c r="B655" s="13"/>
       <c r="C655" s="13"/>
@@ -17377,7 +17379,7 @@
       <c r="U655" s="13"/>
       <c r="V655" s="13"/>
     </row>
-    <row r="656" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:22" ht="14.25" customHeight="1">
       <c r="A656" s="13"/>
       <c r="B656" s="13"/>
       <c r="C656" s="13"/>
@@ -17401,7 +17403,7 @@
       <c r="U656" s="13"/>
       <c r="V656" s="13"/>
     </row>
-    <row r="657" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:22" ht="14.25" customHeight="1">
       <c r="A657" s="13"/>
       <c r="B657" s="13"/>
       <c r="C657" s="13"/>
@@ -17425,7 +17427,7 @@
       <c r="U657" s="13"/>
       <c r="V657" s="13"/>
     </row>
-    <row r="658" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:22" ht="14.25" customHeight="1">
       <c r="A658" s="13"/>
       <c r="B658" s="13"/>
       <c r="C658" s="13"/>
@@ -17449,7 +17451,7 @@
       <c r="U658" s="13"/>
       <c r="V658" s="13"/>
     </row>
-    <row r="659" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:22" ht="14.25" customHeight="1">
       <c r="A659" s="13"/>
       <c r="B659" s="13"/>
       <c r="C659" s="13"/>
@@ -17473,7 +17475,7 @@
       <c r="U659" s="13"/>
       <c r="V659" s="13"/>
     </row>
-    <row r="660" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:22" ht="14.25" customHeight="1">
       <c r="A660" s="13"/>
       <c r="B660" s="13"/>
       <c r="C660" s="13"/>
@@ -17497,7 +17499,7 @@
       <c r="U660" s="13"/>
       <c r="V660" s="13"/>
     </row>
-    <row r="661" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:22" ht="14.25" customHeight="1">
       <c r="A661" s="13"/>
       <c r="B661" s="13"/>
       <c r="C661" s="13"/>
@@ -17521,7 +17523,7 @@
       <c r="U661" s="13"/>
       <c r="V661" s="13"/>
     </row>
-    <row r="662" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:22" ht="14.25" customHeight="1">
       <c r="A662" s="13"/>
       <c r="B662" s="13"/>
       <c r="C662" s="13"/>
@@ -17545,7 +17547,7 @@
       <c r="U662" s="13"/>
       <c r="V662" s="13"/>
     </row>
-    <row r="663" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:22" ht="14.25" customHeight="1">
       <c r="A663" s="13"/>
       <c r="B663" s="13"/>
       <c r="C663" s="13"/>
@@ -17569,7 +17571,7 @@
       <c r="U663" s="13"/>
       <c r="V663" s="13"/>
     </row>
-    <row r="664" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:22" ht="14.25" customHeight="1">
       <c r="A664" s="13"/>
       <c r="B664" s="13"/>
       <c r="C664" s="13"/>
@@ -17593,7 +17595,7 @@
       <c r="U664" s="13"/>
       <c r="V664" s="13"/>
     </row>
-    <row r="665" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:22" ht="14.25" customHeight="1">
       <c r="A665" s="13"/>
       <c r="B665" s="13"/>
       <c r="C665" s="13"/>
@@ -17617,7 +17619,7 @@
       <c r="U665" s="13"/>
       <c r="V665" s="13"/>
     </row>
-    <row r="666" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:22" ht="14.25" customHeight="1">
       <c r="A666" s="13"/>
       <c r="B666" s="13"/>
       <c r="C666" s="13"/>
@@ -17641,7 +17643,7 @@
       <c r="U666" s="13"/>
       <c r="V666" s="13"/>
     </row>
-    <row r="667" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:22" ht="14.25" customHeight="1">
       <c r="A667" s="13"/>
       <c r="B667" s="13"/>
       <c r="C667" s="13"/>
@@ -17665,7 +17667,7 @@
       <c r="U667" s="13"/>
       <c r="V667" s="13"/>
     </row>
-    <row r="668" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:22" ht="14.25" customHeight="1">
       <c r="A668" s="13"/>
       <c r="B668" s="13"/>
       <c r="C668" s="13"/>
@@ -17689,7 +17691,7 @@
       <c r="U668" s="13"/>
       <c r="V668" s="13"/>
     </row>
-    <row r="669" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:22" ht="14.25" customHeight="1">
       <c r="A669" s="13"/>
       <c r="B669" s="13"/>
       <c r="C669" s="13"/>
@@ -17713,7 +17715,7 @@
       <c r="U669" s="13"/>
       <c r="V669" s="13"/>
     </row>
-    <row r="670" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:22" ht="14.25" customHeight="1">
       <c r="A670" s="13"/>
       <c r="B670" s="13"/>
       <c r="C670" s="13"/>
@@ -17737,7 +17739,7 @@
       <c r="U670" s="13"/>
       <c r="V670" s="13"/>
     </row>
-    <row r="671" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:22" ht="14.25" customHeight="1">
       <c r="A671" s="13"/>
       <c r="B671" s="13"/>
       <c r="C671" s="13"/>
@@ -17761,7 +17763,7 @@
       <c r="U671" s="13"/>
       <c r="V671" s="13"/>
     </row>
-    <row r="672" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:22" ht="14.25" customHeight="1">
       <c r="A672" s="13"/>
       <c r="B672" s="13"/>
       <c r="C672" s="13"/>
@@ -17785,7 +17787,7 @@
       <c r="U672" s="13"/>
       <c r="V672" s="13"/>
     </row>
-    <row r="673" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:22" ht="14.25" customHeight="1">
       <c r="A673" s="13"/>
       <c r="B673" s="13"/>
       <c r="C673" s="13"/>
@@ -17809,7 +17811,7 @@
       <c r="U673" s="13"/>
       <c r="V673" s="13"/>
     </row>
-    <row r="674" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:22" ht="14.25" customHeight="1">
       <c r="A674" s="13"/>
       <c r="B674" s="13"/>
       <c r="C674" s="13"/>
@@ -17833,7 +17835,7 @@
       <c r="U674" s="13"/>
       <c r="V674" s="13"/>
     </row>
-    <row r="675" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:22" ht="14.25" customHeight="1">
       <c r="A675" s="13"/>
       <c r="B675" s="13"/>
       <c r="C675" s="13"/>
@@ -17857,7 +17859,7 @@
       <c r="U675" s="13"/>
       <c r="V675" s="13"/>
     </row>
-    <row r="676" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:22" ht="14.25" customHeight="1">
       <c r="A676" s="13"/>
       <c r="B676" s="13"/>
       <c r="C676" s="13"/>
@@ -17881,7 +17883,7 @@
       <c r="U676" s="13"/>
       <c r="V676" s="13"/>
     </row>
-    <row r="677" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:22" ht="14.25" customHeight="1">
       <c r="A677" s="13"/>
       <c r="B677" s="13"/>
       <c r="C677" s="13"/>
@@ -17905,7 +17907,7 @@
       <c r="U677" s="13"/>
       <c r="V677" s="13"/>
     </row>
-    <row r="678" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:22" ht="14.25" customHeight="1">
       <c r="A678" s="13"/>
       <c r="B678" s="13"/>
       <c r="C678" s="13"/>
@@ -17929,7 +17931,7 @@
       <c r="U678" s="13"/>
       <c r="V678" s="13"/>
     </row>
-    <row r="679" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:22" ht="14.25" customHeight="1">
       <c r="A679" s="13"/>
       <c r="B679" s="13"/>
       <c r="C679" s="13"/>
@@ -17953,7 +17955,7 @@
       <c r="U679" s="13"/>
       <c r="V679" s="13"/>
     </row>
-    <row r="680" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:22" ht="14.25" customHeight="1">
       <c r="A680" s="13"/>
       <c r="B680" s="13"/>
       <c r="C680" s="13"/>
@@ -17977,7 +17979,7 @@
       <c r="U680" s="13"/>
       <c r="V680" s="13"/>
     </row>
-    <row r="681" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:22" ht="14.25" customHeight="1">
       <c r="A681" s="13"/>
       <c r="B681" s="13"/>
       <c r="C681" s="13"/>
@@ -18001,7 +18003,7 @@
       <c r="U681" s="13"/>
       <c r="V681" s="13"/>
     </row>
-    <row r="682" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:22" ht="14.25" customHeight="1">
       <c r="A682" s="13"/>
       <c r="B682" s="13"/>
       <c r="C682" s="13"/>
@@ -18025,7 +18027,7 @@
       <c r="U682" s="13"/>
       <c r="V682" s="13"/>
     </row>
-    <row r="683" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:22" ht="14.25" customHeight="1">
       <c r="A683" s="13"/>
       <c r="B683" s="13"/>
       <c r="C683" s="13"/>
@@ -18049,7 +18051,7 @@
       <c r="U683" s="13"/>
       <c r="V683" s="13"/>
     </row>
-    <row r="684" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:22" ht="14.25" customHeight="1">
       <c r="A684" s="13"/>
       <c r="B684" s="13"/>
       <c r="C684" s="13"/>
@@ -18073,7 +18075,7 @@
       <c r="U684" s="13"/>
       <c r="V684" s="13"/>
     </row>
-    <row r="685" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:22" ht="14.25" customHeight="1">
       <c r="A685" s="13"/>
       <c r="B685" s="13"/>
       <c r="C685" s="13"/>
@@ -18097,7 +18099,7 @@
       <c r="U685" s="13"/>
       <c r="V685" s="13"/>
     </row>
-    <row r="686" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:22" ht="14.25" customHeight="1">
       <c r="A686" s="13"/>
       <c r="B686" s="13"/>
       <c r="C686" s="13"/>
@@ -18121,7 +18123,7 @@
       <c r="U686" s="13"/>
       <c r="V686" s="13"/>
     </row>
-    <row r="687" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:22" ht="14.25" customHeight="1">
       <c r="A687" s="13"/>
       <c r="B687" s="13"/>
       <c r="C687" s="13"/>
@@ -18145,7 +18147,7 @@
       <c r="U687" s="13"/>
       <c r="V687" s="13"/>
     </row>
-    <row r="688" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:22" ht="14.25" customHeight="1">
       <c r="A688" s="13"/>
       <c r="B688" s="13"/>
       <c r="C688" s="13"/>
@@ -18169,7 +18171,7 @@
       <c r="U688" s="13"/>
       <c r="V688" s="13"/>
     </row>
-    <row r="689" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:22" ht="14.25" customHeight="1">
       <c r="A689" s="13"/>
       <c r="B689" s="13"/>
       <c r="C689" s="13"/>
@@ -18193,7 +18195,7 @@
       <c r="U689" s="13"/>
       <c r="V689" s="13"/>
     </row>
-    <row r="690" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:22" ht="14.25" customHeight="1">
       <c r="A690" s="13"/>
       <c r="B690" s="13"/>
       <c r="C690" s="13"/>
@@ -18217,7 +18219,7 @@
       <c r="U690" s="13"/>
       <c r="V690" s="13"/>
     </row>
-    <row r="691" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:22" ht="14.25" customHeight="1">
       <c r="A691" s="13"/>
       <c r="B691" s="13"/>
       <c r="C691" s="13"/>
@@ -18241,7 +18243,7 @@
       <c r="U691" s="13"/>
       <c r="V691" s="13"/>
     </row>
-    <row r="692" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:22" ht="14.25" customHeight="1">
       <c r="A692" s="13"/>
       <c r="B692" s="13"/>
       <c r="C692" s="13"/>
@@ -18265,7 +18267,7 @@
       <c r="U692" s="13"/>
       <c r="V692" s="13"/>
     </row>
-    <row r="693" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:22" ht="14.25" customHeight="1">
       <c r="A693" s="13"/>
       <c r="B693" s="13"/>
       <c r="C693" s="13"/>
@@ -18289,7 +18291,7 @@
       <c r="U693" s="13"/>
       <c r="V693" s="13"/>
     </row>
-    <row r="694" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:22" ht="14.25" customHeight="1">
       <c r="A694" s="13"/>
       <c r="B694" s="13"/>
       <c r="C694" s="13"/>
@@ -18313,7 +18315,7 @@
       <c r="U694" s="13"/>
       <c r="V694" s="13"/>
     </row>
-    <row r="695" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:22" ht="14.25" customHeight="1">
       <c r="A695" s="13"/>
       <c r="B695" s="13"/>
       <c r="C695" s="13"/>
@@ -18337,7 +18339,7 @@
       <c r="U695" s="13"/>
       <c r="V695" s="13"/>
     </row>
-    <row r="696" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:22" ht="14.25" customHeight="1">
       <c r="A696" s="13"/>
       <c r="B696" s="13"/>
       <c r="C696" s="13"/>
@@ -18361,7 +18363,7 @@
       <c r="U696" s="13"/>
       <c r="V696" s="13"/>
     </row>
-    <row r="697" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:22" ht="14.25" customHeight="1">
       <c r="A697" s="13"/>
       <c r="B697" s="13"/>
       <c r="C697" s="13"/>
@@ -18385,7 +18387,7 @@
       <c r="U697" s="13"/>
       <c r="V697" s="13"/>
     </row>
-    <row r="698" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:22" ht="14.25" customHeight="1">
       <c r="A698" s="13"/>
       <c r="B698" s="13"/>
       <c r="C698" s="13"/>
@@ -18409,7 +18411,7 @@
       <c r="U698" s="13"/>
       <c r="V698" s="13"/>
     </row>
-    <row r="699" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:22" ht="14.25" customHeight="1">
       <c r="A699" s="13"/>
       <c r="B699" s="13"/>
       <c r="C699" s="13"/>
@@ -18433,7 +18435,7 @@
       <c r="U699" s="13"/>
       <c r="V699" s="13"/>
     </row>
-    <row r="700" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:22" ht="14.25" customHeight="1">
       <c r="A700" s="13"/>
       <c r="B700" s="13"/>
       <c r="C700" s="13"/>
@@ -18457,7 +18459,7 @@
       <c r="U700" s="13"/>
       <c r="V700" s="13"/>
     </row>
-    <row r="701" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:22" ht="14.25" customHeight="1">
       <c r="A701" s="13"/>
       <c r="B701" s="13"/>
       <c r="C701" s="13"/>
@@ -18481,7 +18483,7 @@
       <c r="U701" s="13"/>
       <c r="V701" s="13"/>
     </row>
-    <row r="702" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:22" ht="14.25" customHeight="1">
       <c r="A702" s="13"/>
       <c r="B702" s="13"/>
       <c r="C702" s="13"/>
@@ -18505,7 +18507,7 @@
       <c r="U702" s="13"/>
       <c r="V702" s="13"/>
     </row>
-    <row r="703" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:22" ht="14.25" customHeight="1">
       <c r="A703" s="13"/>
       <c r="B703" s="13"/>
       <c r="C703" s="13"/>
@@ -18529,7 +18531,7 @@
       <c r="U703" s="13"/>
       <c r="V703" s="13"/>
     </row>
-    <row r="704" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:22" ht="14.25" customHeight="1">
       <c r="A704" s="13"/>
       <c r="B704" s="13"/>
       <c r="C704" s="13"/>
@@ -18553,7 +18555,7 @@
       <c r="U704" s="13"/>
       <c r="V704" s="13"/>
     </row>
-    <row r="705" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:22" ht="14.25" customHeight="1">
       <c r="A705" s="13"/>
       <c r="B705" s="13"/>
       <c r="C705" s="13"/>
@@ -18577,7 +18579,7 @@
       <c r="U705" s="13"/>
       <c r="V705" s="13"/>
     </row>
-    <row r="706" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:22" ht="14.25" customHeight="1">
       <c r="A706" s="13"/>
       <c r="B706" s="13"/>
       <c r="C706" s="13"/>
@@ -18601,7 +18603,7 @@
       <c r="U706" s="13"/>
       <c r="V706" s="13"/>
     </row>
-    <row r="707" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:22" ht="14.25" customHeight="1">
       <c r="A707" s="13"/>
       <c r="B707" s="13"/>
       <c r="C707" s="13"/>
@@ -18625,7 +18627,7 @@
       <c r="U707" s="13"/>
       <c r="V707" s="13"/>
     </row>
-    <row r="708" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:22" ht="14.25" customHeight="1">
       <c r="A708" s="13"/>
       <c r="B708" s="13"/>
       <c r="C708" s="13"/>
@@ -18649,7 +18651,7 @@
       <c r="U708" s="13"/>
       <c r="V708" s="13"/>
     </row>
-    <row r="709" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:22" ht="14.25" customHeight="1">
       <c r="A709" s="13"/>
       <c r="B709" s="13"/>
       <c r="C709" s="13"/>
@@ -18673,7 +18675,7 @@
       <c r="U709" s="13"/>
       <c r="V709" s="13"/>
     </row>
-    <row r="710" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:22" ht="14.25" customHeight="1">
       <c r="A710" s="13"/>
       <c r="B710" s="13"/>
       <c r="C710" s="13"/>
@@ -18697,7 +18699,7 @@
       <c r="U710" s="13"/>
       <c r="V710" s="13"/>
     </row>
-    <row r="711" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:22" ht="14.25" customHeight="1">
       <c r="A711" s="13"/>
       <c r="B711" s="13"/>
       <c r="C711" s="13"/>
@@ -18721,7 +18723,7 @@
       <c r="U711" s="13"/>
       <c r="V711" s="13"/>
     </row>
-    <row r="712" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:22" ht="14.25" customHeight="1">
       <c r="A712" s="13"/>
       <c r="B712" s="13"/>
       <c r="C712" s="13"/>
@@ -18745,7 +18747,7 @@
       <c r="U712" s="13"/>
       <c r="V712" s="13"/>
     </row>
-    <row r="713" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:22" ht="14.25" customHeight="1">
       <c r="A713" s="13"/>
       <c r="B713" s="13"/>
       <c r="C713" s="13"/>
@@ -18769,7 +18771,7 @@
       <c r="U713" s="13"/>
       <c r="V713" s="13"/>
     </row>
-    <row r="714" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:22" ht="14.25" customHeight="1">
       <c r="A714" s="13"/>
       <c r="B714" s="13"/>
       <c r="C714" s="13"/>
@@ -18793,7 +18795,7 @@
       <c r="U714" s="13"/>
       <c r="V714" s="13"/>
     </row>
-    <row r="715" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:22" ht="14.25" customHeight="1">
       <c r="A715" s="13"/>
       <c r="B715" s="13"/>
       <c r="C715" s="13"/>
@@ -18817,7 +18819,7 @@
       <c r="U715" s="13"/>
       <c r="V715" s="13"/>
     </row>
-    <row r="716" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:22" ht="14.25" customHeight="1">
       <c r="A716" s="13"/>
       <c r="B716" s="13"/>
       <c r="C716" s="13"/>
@@ -18841,7 +18843,7 @@
       <c r="U716" s="13"/>
       <c r="V716" s="13"/>
     </row>
-    <row r="717" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:22" ht="14.25" customHeight="1">
       <c r="A717" s="13"/>
       <c r="B717" s="13"/>
       <c r="C717" s="13"/>
@@ -18865,7 +18867,7 @@
       <c r="U717" s="13"/>
       <c r="V717" s="13"/>
     </row>
-    <row r="718" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:22" ht="14.25" customHeight="1">
       <c r="A718" s="13"/>
       <c r="B718" s="13"/>
       <c r="C718" s="13"/>
@@ -18889,7 +18891,7 @@
       <c r="U718" s="13"/>
       <c r="V718" s="13"/>
     </row>
-    <row r="719" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:22" ht="14.25" customHeight="1">
       <c r="A719" s="13"/>
       <c r="B719" s="13"/>
       <c r="C719" s="13"/>
@@ -18913,7 +18915,7 @@
       <c r="U719" s="13"/>
       <c r="V719" s="13"/>
     </row>
-    <row r="720" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:22" ht="14.25" customHeight="1">
       <c r="A720" s="13"/>
       <c r="B720" s="13"/>
       <c r="C720" s="13"/>
@@ -18937,7 +18939,7 @@
       <c r="U720" s="13"/>
       <c r="V720" s="13"/>
     </row>
-    <row r="721" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:22" ht="14.25" customHeight="1">
       <c r="A721" s="13"/>
       <c r="B721" s="13"/>
       <c r="C721" s="13"/>
@@ -18961,7 +18963,7 @@
       <c r="U721" s="13"/>
       <c r="V721" s="13"/>
     </row>
-    <row r="722" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:22" ht="14.25" customHeight="1">
       <c r="A722" s="13"/>
       <c r="B722" s="13"/>
       <c r="C722" s="13"/>
@@ -18985,7 +18987,7 @@
       <c r="U722" s="13"/>
       <c r="V722" s="13"/>
     </row>
-    <row r="723" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:22" ht="14.25" customHeight="1">
       <c r="A723" s="13"/>
       <c r="B723" s="13"/>
       <c r="C723" s="13"/>
@@ -19009,7 +19011,7 @@
       <c r="U723" s="13"/>
       <c r="V723" s="13"/>
     </row>
-    <row r="724" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:22" ht="14.25" customHeight="1">
       <c r="A724" s="13"/>
       <c r="B724" s="13"/>
       <c r="C724" s="13"/>
@@ -19033,7 +19035,7 @@
       <c r="U724" s="13"/>
       <c r="V724" s="13"/>
     </row>
-    <row r="725" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:22" ht="14.25" customHeight="1">
       <c r="A725" s="13"/>
       <c r="B725" s="13"/>
       <c r="C725" s="13"/>
@@ -19057,7 +19059,7 @@
       <c r="U725" s="13"/>
       <c r="V725" s="13"/>
     </row>
-    <row r="726" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:22" ht="14.25" customHeight="1">
       <c r="A726" s="13"/>
       <c r="B726" s="13"/>
       <c r="C726" s="13"/>
@@ -19081,7 +19083,7 @@
       <c r="U726" s="13"/>
       <c r="V726" s="13"/>
     </row>
-    <row r="727" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:22" ht="14.25" customHeight="1">
       <c r="A727" s="13"/>
       <c r="B727" s="13"/>
       <c r="C727" s="13"/>
@@ -19105,7 +19107,7 @@
       <c r="U727" s="13"/>
       <c r="V727" s="13"/>
     </row>
-    <row r="728" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:22" ht="14.25" customHeight="1">
       <c r="A728" s="13"/>
       <c r="B728" s="13"/>
       <c r="C728" s="13"/>
@@ -19129,7 +19131,7 @@
       <c r="U728" s="13"/>
       <c r="V728" s="13"/>
     </row>
-    <row r="729" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:22" ht="14.25" customHeight="1">
       <c r="A729" s="13"/>
       <c r="B729" s="13"/>
       <c r="C729" s="13"/>
@@ -19153,7 +19155,7 @@
       <c r="U729" s="13"/>
       <c r="V729" s="13"/>
     </row>
-    <row r="730" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:22" ht="14.25" customHeight="1">
       <c r="A730" s="13"/>
       <c r="B730" s="13"/>
       <c r="C730" s="13"/>
@@ -19177,7 +19179,7 @@
       <c r="U730" s="13"/>
       <c r="V730" s="13"/>
     </row>
-    <row r="731" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:22" ht="14.25" customHeight="1">
       <c r="A731" s="13"/>
       <c r="B731" s="13"/>
       <c r="C731" s="13"/>
@@ -19201,7 +19203,7 @@
       <c r="U731" s="13"/>
       <c r="V731" s="13"/>
     </row>
-    <row r="732" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:22" ht="14.25" customHeight="1">
       <c r="A732" s="13"/>
       <c r="B732" s="13"/>
       <c r="C732" s="13"/>
@@ -19225,7 +19227,7 @@
       <c r="U732" s="13"/>
       <c r="V732" s="13"/>
     </row>
-    <row r="733" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:22" ht="14.25" customHeight="1">
       <c r="A733" s="13"/>
       <c r="B733" s="13"/>
       <c r="C733" s="13"/>
@@ -19249,7 +19251,7 @@
       <c r="U733" s="13"/>
       <c r="V733" s="13"/>
     </row>
-    <row r="734" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:22" ht="14.25" customHeight="1">
       <c r="A734" s="13"/>
       <c r="B734" s="13"/>
       <c r="C734" s="13"/>
@@ -19273,7 +19275,7 @@
       <c r="U734" s="13"/>
       <c r="V734" s="13"/>
     </row>
-    <row r="735" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:22" ht="14.25" customHeight="1">
       <c r="A735" s="13"/>
       <c r="B735" s="13"/>
       <c r="C735" s="13"/>
@@ -19297,7 +19299,7 @@
       <c r="U735" s="13"/>
       <c r="V735" s="13"/>
     </row>
-    <row r="736" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:22" ht="14.25" customHeight="1">
       <c r="A736" s="13"/>
       <c r="B736" s="13"/>
       <c r="C736" s="13"/>
@@ -19321,7 +19323,7 @@
       <c r="U736" s="13"/>
       <c r="V736" s="13"/>
     </row>
-    <row r="737" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:22" ht="14.25" customHeight="1">
       <c r="A737" s="13"/>
       <c r="B737" s="13"/>
       <c r="C737" s="13"/>
@@ -19345,7 +19347,7 @@
       <c r="U737" s="13"/>
       <c r="V737" s="13"/>
     </row>
-    <row r="738" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:22" ht="14.25" customHeight="1">
       <c r="A738" s="13"/>
       <c r="B738" s="13"/>
       <c r="C738" s="13"/>
@@ -19369,7 +19371,7 @@
       <c r="U738" s="13"/>
       <c r="V738" s="13"/>
     </row>
-    <row r="739" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:22" ht="14.25" customHeight="1">
       <c r="A739" s="13"/>
       <c r="B739" s="13"/>
       <c r="C739" s="13"/>
@@ -19393,7 +19395,7 @@
       <c r="U739" s="13"/>
       <c r="V739" s="13"/>
     </row>
-    <row r="740" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:22" ht="14.25" customHeight="1">
       <c r="A740" s="13"/>
       <c r="B740" s="13"/>
       <c r="C740" s="13"/>
@@ -19417,7 +19419,7 @@
       <c r="U740" s="13"/>
       <c r="V740" s="13"/>
     </row>
-    <row r="741" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:22" ht="14.25" customHeight="1">
       <c r="A741" s="13"/>
       <c r="B741" s="13"/>
       <c r="C741" s="13"/>
@@ -19441,7 +19443,7 @@
       <c r="U741" s="13"/>
       <c r="V741" s="13"/>
     </row>
-    <row r="742" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:22" ht="14.25" customHeight="1">
       <c r="A742" s="13"/>
       <c r="B742" s="13"/>
       <c r="C742" s="13"/>
@@ -19465,7 +19467,7 @@
       <c r="U742" s="13"/>
       <c r="V742" s="13"/>
     </row>
-    <row r="743" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:22" ht="14.25" customHeight="1">
       <c r="A743" s="13"/>
       <c r="B743" s="13"/>
       <c r="C743" s="13"/>
@@ -19489,7 +19491,7 @@
       <c r="U743" s="13"/>
       <c r="V743" s="13"/>
     </row>
-    <row r="744" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:22" ht="14.25" customHeight="1">
       <c r="A744" s="13"/>
       <c r="B744" s="13"/>
       <c r="C744" s="13"/>
@@ -19513,7 +19515,7 @@
       <c r="U744" s="13"/>
       <c r="V744" s="13"/>
     </row>
-    <row r="745" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:22" ht="14.25" customHeight="1">
       <c r="A745" s="13"/>
       <c r="B745" s="13"/>
       <c r="C745" s="13"/>
@@ -19537,7 +19539,7 @@
       <c r="U745" s="13"/>
       <c r="V745" s="13"/>
     </row>
-    <row r="746" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:22" ht="14.25" customHeight="1">
       <c r="A746" s="13"/>
       <c r="B746" s="13"/>
       <c r="C746" s="13"/>
@@ -19561,7 +19563,7 @@
       <c r="U746" s="13"/>
       <c r="V746" s="13"/>
     </row>
-    <row r="747" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:22" ht="14.25" customHeight="1">
       <c r="A747" s="13"/>
       <c r="B747" s="13"/>
       <c r="C747" s="13"/>
@@ -19585,7 +19587,7 @@
       <c r="U747" s="13"/>
       <c r="V747" s="13"/>
     </row>
-    <row r="748" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:22" ht="14.25" customHeight="1">
       <c r="A748" s="13"/>
       <c r="B748" s="13"/>
       <c r="C748" s="13"/>
@@ -19609,7 +19611,7 @@
       <c r="U748" s="13"/>
       <c r="V748" s="13"/>
     </row>
-    <row r="749" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:22" ht="14.25" customHeight="1">
       <c r="A749" s="13"/>
       <c r="B749" s="13"/>
       <c r="C749" s="13"/>
@@ -19633,7 +19635,7 @@
       <c r="U749" s="13"/>
       <c r="V749" s="13"/>
     </row>
-    <row r="750" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:22" ht="14.25" customHeight="1">
       <c r="A750" s="13"/>
       <c r="B750" s="13"/>
       <c r="C750" s="13"/>
@@ -19657,7 +19659,7 @@
       <c r="U750" s="13"/>
       <c r="V750" s="13"/>
     </row>
-    <row r="751" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:22" ht="14.25" customHeight="1">
       <c r="A751" s="13"/>
       <c r="B751" s="13"/>
       <c r="C751" s="13"/>
@@ -19681,7 +19683,7 @@
       <c r="U751" s="13"/>
       <c r="V751" s="13"/>
     </row>
-    <row r="752" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:22" ht="14.25" customHeight="1">
       <c r="A752" s="13"/>
       <c r="B752" s="13"/>
       <c r="C752" s="13"/>
@@ -19705,7 +19707,7 @@
       <c r="U752" s="13"/>
       <c r="V752" s="13"/>
     </row>
-    <row r="753" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:22" ht="14.25" customHeight="1">
       <c r="A753" s="13"/>
       <c r="B753" s="13"/>
       <c r="C753" s="13"/>
@@ -19729,7 +19731,7 @@
       <c r="U753" s="13"/>
       <c r="V753" s="13"/>
     </row>
-    <row r="754" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:22" ht="14.25" customHeight="1">
       <c r="A754" s="13"/>
       <c r="B754" s="13"/>
       <c r="C754" s="13"/>
@@ -19753,7 +19755,7 @@
       <c r="U754" s="13"/>
       <c r="V754" s="13"/>
     </row>
-    <row r="755" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:22" ht="14.25" customHeight="1">
       <c r="A755" s="13"/>
       <c r="B755" s="13"/>
       <c r="C755" s="13"/>
@@ -19777,7 +19779,7 @@
       <c r="U755" s="13"/>
       <c r="V755" s="13"/>
     </row>
-    <row r="756" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:22" ht="14.25" customHeight="1">
       <c r="A756" s="13"/>
       <c r="B756" s="13"/>
       <c r="C756" s="13"/>
@@ -19801,7 +19803,7 @@
       <c r="U756" s="13"/>
       <c r="V756" s="13"/>
     </row>
-    <row r="757" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:22" ht="14.25" customHeight="1">
       <c r="A757" s="13"/>
       <c r="B757" s="13"/>
       <c r="C757" s="13"/>
@@ -19825,7 +19827,7 @@
       <c r="U757" s="13"/>
       <c r="V757" s="13"/>
     </row>
-    <row r="758" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:22" ht="14.25" customHeight="1">
       <c r="A758" s="13"/>
       <c r="B758" s="13"/>
       <c r="C758" s="13"/>
@@ -19849,7 +19851,7 @@
       <c r="U758" s="13"/>
       <c r="V758" s="13"/>
     </row>
-    <row r="759" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:22" ht="14.25" customHeight="1">
       <c r="A759" s="13"/>
       <c r="B759" s="13"/>
       <c r="C759" s="13"/>
@@ -19873,7 +19875,7 @@
       <c r="U759" s="13"/>
       <c r="V759" s="13"/>
     </row>
-    <row r="760" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:22" ht="14.25" customHeight="1">
       <c r="A760" s="13"/>
       <c r="B760" s="13"/>
       <c r="C760" s="13"/>
@@ -19897,7 +19899,7 @@
       <c r="U760" s="13"/>
       <c r="V760" s="13"/>
     </row>
-    <row r="761" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:22" ht="14.25" customHeight="1">
       <c r="A761" s="13"/>
       <c r="B761" s="13"/>
       <c r="C761" s="13"/>
@@ -19921,7 +19923,7 @@
       <c r="U761" s="13"/>
       <c r="V761" s="13"/>
     </row>
-    <row r="762" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:22" ht="14.25" customHeight="1">
       <c r="A762" s="13"/>
       <c r="B762" s="13"/>
       <c r="C762" s="13"/>
@@ -19945,7 +19947,7 @@
       <c r="U762" s="13"/>
       <c r="V762" s="13"/>
     </row>
-    <row r="763" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:22" ht="14.25" customHeight="1">
       <c r="A763" s="13"/>
       <c r="B763" s="13"/>
       <c r="C763" s="13"/>
@@ -19969,7 +19971,7 @@
       <c r="U763" s="13"/>
       <c r="V763" s="13"/>
     </row>
-    <row r="764" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:22" ht="14.25" customHeight="1">
       <c r="A764" s="13"/>
       <c r="B764" s="13"/>
       <c r="C764" s="13"/>
@@ -19993,7 +19995,7 @@
       <c r="U764" s="13"/>
       <c r="V764" s="13"/>
     </row>
-    <row r="765" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:22" ht="14.25" customHeight="1">
       <c r="A765" s="13"/>
       <c r="B765" s="13"/>
       <c r="C765" s="13"/>
@@ -20017,7 +20019,7 @@
       <c r="U765" s="13"/>
       <c r="V765" s="13"/>
     </row>
-    <row r="766" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:22" ht="14.25" customHeight="1">
       <c r="A766" s="13"/>
       <c r="B766" s="13"/>
       <c r="C766" s="13"/>
@@ -20041,7 +20043,7 @@
       <c r="U766" s="13"/>
       <c r="V766" s="13"/>
     </row>
-    <row r="767" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:22" ht="14.25" customHeight="1">
       <c r="A767" s="13"/>
       <c r="B767" s="13"/>
       <c r="C767" s="13"/>
@@ -20065,7 +20067,7 @@
       <c r="U767" s="13"/>
       <c r="V767" s="13"/>
     </row>
-    <row r="768" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:22" ht="14.25" customHeight="1">
       <c r="A768" s="13"/>
       <c r="B768" s="13"/>
       <c r="C768" s="13"/>
@@ -20089,7 +20091,7 @@
       <c r="U768" s="13"/>
       <c r="V768" s="13"/>
     </row>
-    <row r="769" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:22" ht="14.25" customHeight="1">
       <c r="A769" s="13"/>
       <c r="B769" s="13"/>
       <c r="C769" s="13"/>
@@ -20113,7 +20115,7 @@
       <c r="U769" s="13"/>
       <c r="V769" s="13"/>
     </row>
-    <row r="770" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:22" ht="14.25" customHeight="1">
       <c r="A770" s="13"/>
       <c r="B770" s="13"/>
       <c r="C770" s="13"/>
@@ -20137,7 +20139,7 @@
       <c r="U770" s="13"/>
       <c r="V770" s="13"/>
     </row>
-    <row r="771" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:22" ht="14.25" customHeight="1">
       <c r="A771" s="13"/>
       <c r="B771" s="13"/>
       <c r="C771" s="13"/>
@@ -20161,7 +20163,7 @@
       <c r="U771" s="13"/>
       <c r="V771" s="13"/>
     </row>
-    <row r="772" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:22" ht="14.25" customHeight="1">
       <c r="A772" s="13"/>
       <c r="B772" s="13"/>
       <c r="C772" s="13"/>
@@ -20185,7 +20187,7 @@
       <c r="U772" s="13"/>
       <c r="V772" s="13"/>
     </row>
-    <row r="773" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:22" ht="14.25" customHeight="1">
       <c r="A773" s="13"/>
       <c r="B773" s="13"/>
       <c r="C773" s="13"/>
@@ -20209,7 +20211,7 @@
       <c r="U773" s="13"/>
       <c r="V773" s="13"/>
     </row>
-    <row r="774" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:22" ht="14.25" customHeight="1">
       <c r="A774" s="13"/>
       <c r="B774" s="13"/>
       <c r="C774" s="13"/>
@@ -20233,7 +20235,7 @@
       <c r="U774" s="13"/>
       <c r="V774" s="13"/>
     </row>
-    <row r="775" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:22" ht="14.25" customHeight="1">
       <c r="A775" s="13"/>
       <c r="B775" s="13"/>
       <c r="C775" s="13"/>
@@ -20257,7 +20259,7 @@
       <c r="U775" s="13"/>
       <c r="V775" s="13"/>
     </row>
-    <row r="776" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:22" ht="14.25" customHeight="1">
       <c r="A776" s="13"/>
       <c r="B776" s="13"/>
       <c r="C776" s="13"/>
@@ -20281,7 +20283,7 @@
       <c r="U776" s="13"/>
       <c r="V776" s="13"/>
     </row>
-    <row r="777" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:22" ht="14.25" customHeight="1">
       <c r="A777" s="13"/>
       <c r="B777" s="13"/>
       <c r="C777" s="13"/>
@@ -20305,7 +20307,7 @@
       <c r="U777" s="13"/>
       <c r="V777" s="13"/>
     </row>
-    <row r="778" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:22" ht="14.25" customHeight="1">
       <c r="A778" s="13"/>
       <c r="B778" s="13"/>
       <c r="C778" s="13"/>
@@ -20329,7 +20331,7 @@
       <c r="U778" s="13"/>
       <c r="V778" s="13"/>
     </row>
-    <row r="779" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:22" ht="14.25" customHeight="1">
       <c r="A779" s="13"/>
       <c r="B779" s="13"/>
       <c r="C779" s="13"/>
@@ -20353,7 +20355,7 @@
       <c r="U779" s="13"/>
       <c r="V779" s="13"/>
     </row>
-    <row r="780" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:22" ht="14.25" customHeight="1">
       <c r="A780" s="13"/>
       <c r="B780" s="13"/>
       <c r="C780" s="13"/>
@@ -20377,7 +20379,7 @@
       <c r="U780" s="13"/>
       <c r="V780" s="13"/>
     </row>
-    <row r="781" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:22" ht="14.25" customHeight="1">
       <c r="A781" s="13"/>
       <c r="B781" s="13"/>
       <c r="C781" s="13"/>
@@ -20401,7 +20403,7 @@
       <c r="U781" s="13"/>
       <c r="V781" s="13"/>
     </row>
-    <row r="782" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:22" ht="14.25" customHeight="1">
       <c r="A782" s="13"/>
       <c r="B782" s="13"/>
       <c r="C782" s="13"/>
@@ -20425,7 +20427,7 @@
       <c r="U782" s="13"/>
       <c r="V782" s="13"/>
     </row>
-    <row r="783" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:22" ht="14.25" customHeight="1">
       <c r="A783" s="13"/>
       <c r="B783" s="13"/>
       <c r="C783" s="13"/>
@@ -20449,7 +20451,7 @@
       <c r="U783" s="13"/>
       <c r="V783" s="13"/>
     </row>
-    <row r="784" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:22" ht="14.25" customHeight="1">
       <c r="A784" s="13"/>
       <c r="B784" s="13"/>
       <c r="C784" s="13"/>
@@ -20473,7 +20475,7 @@
       <c r="U784" s="13"/>
       <c r="V784" s="13"/>
     </row>
-    <row r="785" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:22" ht="14.25" customHeight="1">
       <c r="A785" s="13"/>
       <c r="B785" s="13"/>
       <c r="C785" s="13"/>
@@ -20497,7 +20499,7 @@
       <c r="U785" s="13"/>
       <c r="V785" s="13"/>
     </row>
-    <row r="786" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:22" ht="14.25" customHeight="1">
       <c r="A786" s="13"/>
       <c r="B786" s="13"/>
       <c r="C786" s="13"/>
@@ -20521,7 +20523,7 @@
       <c r="U786" s="13"/>
       <c r="V786" s="13"/>
     </row>
-    <row r="787" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:22" ht="14.25" customHeight="1">
       <c r="A787" s="13"/>
       <c r="B787" s="13"/>
       <c r="C787" s="13"/>
@@ -20545,7 +20547,7 @@
       <c r="U787" s="13"/>
       <c r="V787" s="13"/>
     </row>
-    <row r="788" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:22" ht="14.25" customHeight="1">
       <c r="A788" s="13"/>
       <c r="B788" s="13"/>
       <c r="C788" s="13"/>
@@ -20569,7 +20571,7 @@
       <c r="U788" s="13"/>
       <c r="V788" s="13"/>
     </row>
-    <row r="789" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:22" ht="14.25" customHeight="1">
       <c r="A789" s="13"/>
       <c r="B789" s="13"/>
       <c r="C789" s="13"/>
@@ -20593,7 +20595,7 @@
       <c r="U789" s="13"/>
       <c r="V789" s="13"/>
     </row>
-    <row r="790" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:22" ht="14.25" customHeight="1">
       <c r="A790" s="13"/>
       <c r="B790" s="13"/>
       <c r="C790" s="13"/>
@@ -20617,7 +20619,7 @@
       <c r="U790" s="13"/>
       <c r="V790" s="13"/>
     </row>
-    <row r="791" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:22" ht="14.25" customHeight="1">
       <c r="A791" s="13"/>
       <c r="B791" s="13"/>
       <c r="C791" s="13"/>
@@ -20641,7 +20643,7 @@
       <c r="U791" s="13"/>
       <c r="V791" s="13"/>
     </row>
-    <row r="792" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:22" ht="14.25" customHeight="1">
       <c r="A792" s="13"/>
       <c r="B792" s="13"/>
       <c r="C792" s="13"/>
@@ -20665,7 +20667,7 @@
       <c r="U792" s="13"/>
       <c r="V792" s="13"/>
     </row>
-    <row r="793" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:22" ht="14.25" customHeight="1">
       <c r="A793" s="13"/>
       <c r="B793" s="13"/>
       <c r="C793" s="13"/>
@@ -20689,7 +20691,7 @@
       <c r="U793" s="13"/>
       <c r="V793" s="13"/>
     </row>
-    <row r="794" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:22" ht="14.25" customHeight="1">
       <c r="A794" s="13"/>
       <c r="B794" s="13"/>
       <c r="C794" s="13"/>
@@ -20713,7 +20715,7 @@
       <c r="U794" s="13"/>
       <c r="V794" s="13"/>
     </row>
-    <row r="795" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:22" ht="14.25" customHeight="1">
       <c r="A795" s="13"/>
       <c r="B795" s="13"/>
       <c r="C795" s="13"/>
@@ -20737,7 +20739,7 @@
       <c r="U795" s="13"/>
       <c r="V795" s="13"/>
     </row>
-    <row r="796" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:22" ht="14.25" customHeight="1">
       <c r="A796" s="13"/>
       <c r="B796" s="13"/>
       <c r="C796" s="13"/>
@@ -20761,7 +20763,7 @@
       <c r="U796" s="13"/>
       <c r="V796" s="13"/>
     </row>
-    <row r="797" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:22" ht="14.25" customHeight="1">
       <c r="A797" s="13"/>
       <c r="B797" s="13"/>
       <c r="C797" s="13"/>
@@ -20785,7 +20787,7 @@
       <c r="U797" s="13"/>
       <c r="V797" s="13"/>
     </row>
-    <row r="798" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:22" ht="14.25" customHeight="1">
       <c r="A798" s="13"/>
       <c r="B798" s="13"/>
       <c r="C798" s="13"/>
@@ -20809,7 +20811,7 @@
       <c r="U798" s="13"/>
       <c r="V798" s="13"/>
     </row>
-    <row r="799" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:22" ht="14.25" customHeight="1">
       <c r="A799" s="13"/>
       <c r="B799" s="13"/>
       <c r="C799" s="13"/>
@@ -20833,7 +20835,7 @@
       <c r="U799" s="13"/>
       <c r="V799" s="13"/>
     </row>
-    <row r="800" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:22" ht="14.25" customHeight="1">
       <c r="A800" s="13"/>
       <c r="B800" s="13"/>
       <c r="C800" s="13"/>
@@ -20857,7 +20859,7 @@
       <c r="U800" s="13"/>
       <c r="V800" s="13"/>
     </row>
-    <row r="801" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:22" ht="14.25" customHeight="1">
       <c r="A801" s="13"/>
       <c r="B801" s="13"/>
       <c r="C801" s="13"/>
@@ -20881,7 +20883,7 @@
       <c r="U801" s="13"/>
       <c r="V801" s="13"/>
     </row>
-    <row r="802" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:22" ht="14.25" customHeight="1">
       <c r="A802" s="13"/>
       <c r="B802" s="13"/>
       <c r="C802" s="13"/>
@@ -20905,7 +20907,7 @@
       <c r="U802" s="13"/>
       <c r="V802" s="13"/>
     </row>
-    <row r="803" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:22" ht="14.25" customHeight="1">
       <c r="A803" s="13"/>
       <c r="B803" s="13"/>
       <c r="C803" s="13"/>
@@ -20929,7 +20931,7 @@
       <c r="U803" s="13"/>
       <c r="V803" s="13"/>
     </row>
-    <row r="804" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:22" ht="14.25" customHeight="1">
       <c r="A804" s="13"/>
       <c r="B804" s="13"/>
       <c r="C804" s="13"/>
@@ -20953,7 +20955,7 @@
       <c r="U804" s="13"/>
       <c r="V804" s="13"/>
     </row>
-    <row r="805" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:22" ht="14.25" customHeight="1">
       <c r="A805" s="13"/>
       <c r="B805" s="13"/>
       <c r="C805" s="13"/>
@@ -20977,7 +20979,7 @@
       <c r="U805" s="13"/>
       <c r="V805" s="13"/>
     </row>
-    <row r="806" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:22" ht="14.25" customHeight="1">
       <c r="A806" s="13"/>
       <c r="B806" s="13"/>
       <c r="C806" s="13"/>
@@ -21001,7 +21003,7 @@
       <c r="U806" s="13"/>
       <c r="V806" s="13"/>
     </row>
-    <row r="807" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:22" ht="14.25" customHeight="1">
       <c r="A807" s="13"/>
       <c r="B807" s="13"/>
       <c r="C807" s="13"/>
@@ -21025,7 +21027,7 @@
       <c r="U807" s="13"/>
       <c r="V807" s="13"/>
     </row>
-    <row r="808" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:22" ht="14.25" customHeight="1">
       <c r="A808" s="13"/>
       <c r="B808" s="13"/>
       <c r="C808" s="13"/>
@@ -21049,7 +21051,7 @@
       <c r="U808" s="13"/>
       <c r="V808" s="13"/>
     </row>
-    <row r="809" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:22" ht="14.25" customHeight="1">
       <c r="A809" s="13"/>
       <c r="B809" s="13"/>
       <c r="C809" s="13"/>
@@ -21073,7 +21075,7 @@
       <c r="U809" s="13"/>
       <c r="V809" s="13"/>
     </row>
-    <row r="810" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:22" ht="14.25" customHeight="1">
       <c r="A810" s="13"/>
       <c r="B810" s="13"/>
       <c r="C810" s="13"/>
@@ -21097,7 +21099,7 @@
       <c r="U810" s="13"/>
       <c r="V810" s="13"/>
     </row>
-    <row r="811" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:22" ht="14.25" customHeight="1">
       <c r="A811" s="13"/>
       <c r="B811" s="13"/>
       <c r="C811" s="13"/>
@@ -21121,7 +21123,7 @@
       <c r="U811" s="13"/>
       <c r="V811" s="13"/>
     </row>
-    <row r="812" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:22" ht="14.25" customHeight="1">
       <c r="A812" s="13"/>
       <c r="B812" s="13"/>
       <c r="C812" s="13"/>
@@ -21145,7 +21147,7 @@
       <c r="U812" s="13"/>
       <c r="V812" s="13"/>
     </row>
-    <row r="813" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:22" ht="14.25" customHeight="1">
       <c r="A813" s="13"/>
       <c r="B813" s="13"/>
       <c r="C813" s="13"/>
@@ -21169,7 +21171,7 @@
       <c r="U813" s="13"/>
       <c r="V813" s="13"/>
     </row>
-    <row r="814" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:22" ht="14.25" customHeight="1">
       <c r="A814" s="13"/>
       <c r="B814" s="13"/>
       <c r="C814" s="13"/>
@@ -21193,7 +21195,7 @@
       <c r="U814" s="13"/>
       <c r="V814" s="13"/>
     </row>
-    <row r="815" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:22" ht="14.25" customHeight="1">
       <c r="A815" s="13"/>
       <c r="B815" s="13"/>
       <c r="C815" s="13"/>
@@ -21217,7 +21219,7 @@
       <c r="U815" s="13"/>
       <c r="V815" s="13"/>
     </row>
-    <row r="816" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:22" ht="14.25" customHeight="1">
       <c r="A816" s="13"/>
       <c r="B816" s="13"/>
       <c r="C816" s="13"/>
@@ -21241,7 +21243,7 @@
       <c r="U816" s="13"/>
       <c r="V816" s="13"/>
     </row>
-    <row r="817" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:22" ht="14.25" customHeight="1">
       <c r="A817" s="13"/>
       <c r="B817" s="13"/>
       <c r="C817" s="13"/>
@@ -21265,7 +21267,7 @@
       <c r="U817" s="13"/>
       <c r="V817" s="13"/>
     </row>
-    <row r="818" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:22" ht="14.25" customHeight="1">
       <c r="A818" s="13"/>
       <c r="B818" s="13"/>
       <c r="C818" s="13"/>
@@ -21289,7 +21291,7 @@
       <c r="U818" s="13"/>
       <c r="V818" s="13"/>
     </row>
-    <row r="819" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:22" ht="14.25" customHeight="1">
       <c r="A819" s="13"/>
       <c r="B819" s="13"/>
       <c r="C819" s="13"/>
@@ -21313,7 +21315,7 @@
       <c r="U819" s="13"/>
       <c r="V819" s="13"/>
     </row>
-    <row r="820" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:22" ht="14.25" customHeight="1">
       <c r="A820" s="13"/>
       <c r="B820" s="13"/>
       <c r="C820" s="13"/>
@@ -21337,7 +21339,7 @@
       <c r="U820" s="13"/>
       <c r="V820" s="13"/>
     </row>
-    <row r="821" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:22" ht="14.25" customHeight="1">
       <c r="A821" s="13"/>
       <c r="B821" s="13"/>
       <c r="C821" s="13"/>
@@ -21361,7 +21363,7 @@
       <c r="U821" s="13"/>
       <c r="V821" s="13"/>
     </row>
-    <row r="822" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:22" ht="14.25" customHeight="1">
       <c r="A822" s="13"/>
       <c r="B822" s="13"/>
       <c r="C822" s="13"/>
@@ -21385,7 +21387,7 @@
       <c r="U822" s="13"/>
       <c r="V822" s="13"/>
     </row>
-    <row r="823" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:22" ht="14.25" customHeight="1">
       <c r="A823" s="13"/>
       <c r="B823" s="13"/>
       <c r="C823" s="13"/>
@@ -21409,7 +21411,7 @@
       <c r="U823" s="13"/>
       <c r="V823" s="13"/>
     </row>
-    <row r="824" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:22" ht="14.25" customHeight="1">
       <c r="A824" s="13"/>
       <c r="B824" s="13"/>
       <c r="C824" s="13"/>
@@ -21433,7 +21435,7 @@
       <c r="U824" s="13"/>
       <c r="V824" s="13"/>
     </row>
-    <row r="825" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:22" ht="14.25" customHeight="1">
       <c r="A825" s="13"/>
       <c r="B825" s="13"/>
       <c r="C825" s="13"/>
@@ -21457,7 +21459,7 @@
       <c r="U825" s="13"/>
       <c r="V825" s="13"/>
     </row>
-    <row r="826" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:22" ht="14.25" customHeight="1">
       <c r="A826" s="13"/>
       <c r="B826" s="13"/>
       <c r="C826" s="13"/>
@@ -21481,7 +21483,7 @@
       <c r="U826" s="13"/>
       <c r="V826" s="13"/>
     </row>
-    <row r="827" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:22" ht="14.25" customHeight="1">
       <c r="A827" s="13"/>
       <c r="B827" s="13"/>
       <c r="C827" s="13"/>
@@ -21505,7 +21507,7 @@
       <c r="U827" s="13"/>
       <c r="V827" s="13"/>
     </row>
-    <row r="828" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:22" ht="14.25" customHeight="1">
       <c r="A828" s="13"/>
       <c r="B828" s="13"/>
       <c r="C828" s="13"/>
@@ -21529,7 +21531,7 @@
       <c r="U828" s="13"/>
       <c r="V828" s="13"/>
     </row>
-    <row r="829" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:22" ht="14.25" customHeight="1">
       <c r="A829" s="13"/>
       <c r="B829" s="13"/>
       <c r="C829" s="13"/>
@@ -21553,7 +21555,7 @@
       <c r="U829" s="13"/>
       <c r="V829" s="13"/>
     </row>
-    <row r="830" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:22" ht="14.25" customHeight="1">
       <c r="A830" s="13"/>
       <c r="B830" s="13"/>
       <c r="C830" s="13"/>
@@ -21577,7 +21579,7 @@
       <c r="U830" s="13"/>
       <c r="V830" s="13"/>
     </row>
-    <row r="831" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:22" ht="14.25" customHeight="1">
       <c r="A831" s="13"/>
       <c r="B831" s="13"/>
       <c r="C831" s="13"/>
@@ -21601,7 +21603,7 @@
       <c r="U831" s="13"/>
       <c r="V831" s="13"/>
     </row>
-    <row r="832" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:22" ht="14.25" customHeight="1">
       <c r="A832" s="13"/>
       <c r="B832" s="13"/>
       <c r="C832" s="13"/>
@@ -21625,7 +21627,7 @@
       <c r="U832" s="13"/>
       <c r="V832" s="13"/>
     </row>
-    <row r="833" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:22" ht="14.25" customHeight="1">
       <c r="A833" s="13"/>
       <c r="B833" s="13"/>
       <c r="C833" s="13"/>
@@ -21649,7 +21651,7 @@
       <c r="U833" s="13"/>
       <c r="V833" s="13"/>
     </row>
-    <row r="834" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:22" ht="14.25" customHeight="1">
       <c r="A834" s="13"/>
       <c r="B834" s="13"/>
       <c r="C834" s="13"/>
@@ -21673,7 +21675,7 @@
       <c r="U834" s="13"/>
       <c r="V834" s="13"/>
     </row>
-    <row r="835" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:22" ht="14.25" customHeight="1">
       <c r="A835" s="13"/>
       <c r="B835" s="13"/>
       <c r="C835" s="13"/>
@@ -21697,7 +21699,7 @@
       <c r="U835" s="13"/>
       <c r="V835" s="13"/>
     </row>
-    <row r="836" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:22" ht="14.25" customHeight="1">
       <c r="A836" s="13"/>
       <c r="B836" s="13"/>
       <c r="C836" s="13"/>
@@ -21721,7 +21723,7 @@
       <c r="U836" s="13"/>
       <c r="V836" s="13"/>
     </row>
-    <row r="837" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:22" ht="14.25" customHeight="1">
       <c r="A837" s="13"/>
       <c r="B837" s="13"/>
       <c r="C837" s="13"/>
@@ -21745,7 +21747,7 @@
       <c r="U837" s="13"/>
       <c r="V837" s="13"/>
     </row>
-    <row r="838" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:22" ht="14.25" customHeight="1">
       <c r="A838" s="13"/>
       <c r="B838" s="13"/>
       <c r="C838" s="13"/>
@@ -21769,7 +21771,7 @@
       <c r="U838" s="13"/>
       <c r="V838" s="13"/>
     </row>
-    <row r="839" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:22" ht="14.25" customHeight="1">
       <c r="A839" s="13"/>
       <c r="B839" s="13"/>
       <c r="C839" s="13"/>
@@ -21793,7 +21795,7 @@
       <c r="U839" s="13"/>
       <c r="V839" s="13"/>
     </row>
-    <row r="840" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:22" ht="14.25" customHeight="1">
       <c r="A840" s="13"/>
       <c r="B840" s="13"/>
       <c r="C840" s="13"/>
@@ -21817,7 +21819,7 @@
       <c r="U840" s="13"/>
       <c r="V840" s="13"/>
     </row>
-    <row r="841" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:22" ht="14.25" customHeight="1">
       <c r="A841" s="13"/>
       <c r="B841" s="13"/>
       <c r="C841" s="13"/>
@@ -21841,7 +21843,7 @@
       <c r="U841" s="13"/>
       <c r="V841" s="13"/>
     </row>
-    <row r="842" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:22" ht="14.25" customHeight="1">
       <c r="A842" s="13"/>
       <c r="B842" s="13"/>
       <c r="C842" s="13"/>
@@ -21865,7 +21867,7 @@
       <c r="U842" s="13"/>
       <c r="V842" s="13"/>
     </row>
-    <row r="843" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:22" ht="14.25" customHeight="1">
       <c r="A843" s="13"/>
       <c r="B843" s="13"/>
       <c r="C843" s="13"/>
@@ -21889,7 +21891,7 @@
       <c r="U843" s="13"/>
       <c r="V843" s="13"/>
     </row>
-    <row r="844" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:22" ht="14.25" customHeight="1">
       <c r="A844" s="13"/>
       <c r="B844" s="13"/>
       <c r="C844" s="13"/>
@@ -21913,7 +21915,7 @@
       <c r="U844" s="13"/>
       <c r="V844" s="13"/>
     </row>
-    <row r="845" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:22" ht="14.25" customHeight="1">
       <c r="A845" s="13"/>
       <c r="B845" s="13"/>
       <c r="C845" s="13"/>
@@ -21937,7 +21939,7 @@
       <c r="U845" s="13"/>
       <c r="V845" s="13"/>
     </row>
-    <row r="846" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:22" ht="14.25" customHeight="1">
       <c r="A846" s="13"/>
       <c r="B846" s="13"/>
       <c r="C846" s="13"/>
@@ -21961,7 +21963,7 @@
       <c r="U846" s="13"/>
       <c r="V846" s="13"/>
     </row>
-    <row r="847" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:22" ht="14.25" customHeight="1">
       <c r="A847" s="13"/>
       <c r="B847" s="13"/>
       <c r="C847" s="13"/>
@@ -21985,7 +21987,7 @@
       <c r="U847" s="13"/>
       <c r="V847" s="13"/>
     </row>
-    <row r="848" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:22" ht="14.25" customHeight="1">
       <c r="A848" s="13"/>
       <c r="B848" s="13"/>
       <c r="C848" s="13"/>
@@ -22009,7 +22011,7 @@
       <c r="U848" s="13"/>
       <c r="V848" s="13"/>
     </row>
-    <row r="849" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:22" ht="14.25" customHeight="1">
       <c r="A849" s="13"/>
       <c r="B849" s="13"/>
       <c r="C849" s="13"/>
@@ -22033,7 +22035,7 @@
       <c r="U849" s="13"/>
       <c r="V849" s="13"/>
     </row>
-    <row r="850" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:22" ht="14.25" customHeight="1">
       <c r="A850" s="13"/>
       <c r="B850" s="13"/>
       <c r="C850" s="13"/>
@@ -22057,7 +22059,7 @@
       <c r="U850" s="13"/>
       <c r="V850" s="13"/>
     </row>
-    <row r="851" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:22" ht="14.25" customHeight="1">
       <c r="A851" s="13"/>
       <c r="B851" s="13"/>
       <c r="C851" s="13"/>
@@ -22081,7 +22083,7 @@
       <c r="U851" s="13"/>
       <c r="V851" s="13"/>
     </row>
-    <row r="852" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:22" ht="14.25" customHeight="1">
       <c r="A852" s="13"/>
       <c r="B852" s="13"/>
       <c r="C852" s="13"/>
@@ -22105,7 +22107,7 @@
       <c r="U852" s="13"/>
       <c r="V852" s="13"/>
     </row>
-    <row r="853" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:22" ht="14.25" customHeight="1">
       <c r="A853" s="13"/>
       <c r="B853" s="13"/>
       <c r="C853" s="13"/>
@@ -22129,7 +22131,7 @@
       <c r="U853" s="13"/>
       <c r="V853" s="13"/>
     </row>
-    <row r="854" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:22" ht="14.25" customHeight="1">
       <c r="A854" s="13"/>
       <c r="B854" s="13"/>
       <c r="C854" s="13"/>
@@ -22153,7 +22155,7 @@
       <c r="U854" s="13"/>
       <c r="V854" s="13"/>
     </row>
-    <row r="855" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:22" ht="14.25" customHeight="1">
       <c r="A855" s="13"/>
       <c r="B855" s="13"/>
       <c r="C855" s="13"/>
@@ -22177,7 +22179,7 @@
       <c r="U855" s="13"/>
       <c r="V855" s="13"/>
     </row>
-    <row r="856" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:22" ht="14.25" customHeight="1">
       <c r="A856" s="13"/>
       <c r="B856" s="13"/>
       <c r="C856" s="13"/>
@@ -22201,7 +22203,7 @@
       <c r="U856" s="13"/>
       <c r="V856" s="13"/>
     </row>
-    <row r="857" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:22" ht="14.25" customHeight="1">
       <c r="A857" s="13"/>
       <c r="B857" s="13"/>
       <c r="C857" s="13"/>
@@ -22225,7 +22227,7 @@
       <c r="U857" s="13"/>
       <c r="V857" s="13"/>
     </row>
-    <row r="858" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:22" ht="14.25" customHeight="1">
       <c r="A858" s="13"/>
       <c r="B858" s="13"/>
       <c r="C858" s="13"/>
@@ -22249,7 +22251,7 @@
       <c r="U858" s="13"/>
       <c r="V858" s="13"/>
     </row>
-    <row r="859" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:22" ht="14.25" customHeight="1">
       <c r="A859" s="13"/>
       <c r="B859" s="13"/>
       <c r="C859" s="13"/>
@@ -22273,7 +22275,7 @@
       <c r="U859" s="13"/>
       <c r="V859" s="13"/>
     </row>
-    <row r="860" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:22" ht="14.25" customHeight="1">
       <c r="A860" s="13"/>
       <c r="B860" s="13"/>
       <c r="C860" s="13"/>
@@ -22297,7 +22299,7 @@
       <c r="U860" s="13"/>
       <c r="V860" s="13"/>
     </row>
-    <row r="861" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:22" ht="14.25" customHeight="1">
       <c r="A861" s="13"/>
       <c r="B861" s="13"/>
       <c r="C861" s="13"/>
@@ -22321,7 +22323,7 @@
       <c r="U861" s="13"/>
       <c r="V861" s="13"/>
     </row>
-    <row r="862" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:22" ht="14.25" customHeight="1">
       <c r="A862" s="13"/>
       <c r="B862" s="13"/>
       <c r="C862" s="13"/>
@@ -22345,7 +22347,7 @@
       <c r="U862" s="13"/>
       <c r="V862" s="13"/>
     </row>
-    <row r="863" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:22" ht="14.25" customHeight="1">
       <c r="A863" s="13"/>
       <c r="B863" s="13"/>
       <c r="C863" s="13"/>
@@ -22369,7 +22371,7 @@
       <c r="U863" s="13"/>
       <c r="V863" s="13"/>
     </row>
-    <row r="864" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:22" ht="14.25" customHeight="1">
       <c r="A864" s="13"/>
       <c r="B864" s="13"/>
       <c r="C864" s="13"/>
@@ -22393,7 +22395,7 @@
       <c r="U864" s="13"/>
       <c r="V864" s="13"/>
     </row>
-    <row r="865" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:22" ht="14.25" customHeight="1">
       <c r="A865" s="13"/>
       <c r="B865" s="13"/>
       <c r="C865" s="13"/>
@@ -22417,7 +22419,7 @@
       <c r="U865" s="13"/>
       <c r="V865" s="13"/>
     </row>
-    <row r="866" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:22" ht="14.25" customHeight="1">
       <c r="A866" s="13"/>
       <c r="B866" s="13"/>
       <c r="C866" s="13"/>
@@ -22441,7 +22443,7 @@
       <c r="U866" s="13"/>
       <c r="V866" s="13"/>
     </row>
-    <row r="867" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:22" ht="14.25" customHeight="1">
       <c r="A867" s="13"/>
       <c r="B867" s="13"/>
       <c r="C867" s="13"/>
@@ -22465,7 +22467,7 @@
       <c r="U867" s="13"/>
       <c r="V867" s="13"/>
     </row>
-    <row r="868" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:22" ht="14.25" customHeight="1">
       <c r="A868" s="13"/>
       <c r="B868" s="13"/>
       <c r="C868" s="13"/>
@@ -22489,7 +22491,7 @@
       <c r="U868" s="13"/>
       <c r="V868" s="13"/>
     </row>
-    <row r="869" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:22" ht="14.25" customHeight="1">
       <c r="A869" s="13"/>
       <c r="B869" s="13"/>
       <c r="C869" s="13"/>
@@ -22513,7 +22515,7 @@
       <c r="U869" s="13"/>
       <c r="V869" s="13"/>
     </row>
-    <row r="870" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:22" ht="14.25" customHeight="1">
       <c r="A870" s="13"/>
       <c r="B870" s="13"/>
       <c r="C870" s="13"/>
@@ -22537,7 +22539,7 @@
       <c r="U870" s="13"/>
       <c r="V870" s="13"/>
     </row>
-    <row r="871" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:22" ht="14.25" customHeight="1">
       <c r="A871" s="13"/>
       <c r="B871" s="13"/>
       <c r="C871" s="13"/>
@@ -22561,7 +22563,7 @@
       <c r="U871" s="13"/>
       <c r="V871" s="13"/>
     </row>
-    <row r="872" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:22" ht="14.25" customHeight="1">
       <c r="A872" s="13"/>
       <c r="B872" s="13"/>
       <c r="C872" s="13"/>
@@ -22585,7 +22587,7 @@
       <c r="U872" s="13"/>
       <c r="V872" s="13"/>
     </row>
-    <row r="873" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:22" ht="14.25" customHeight="1">
       <c r="A873" s="13"/>
       <c r="B873" s="13"/>
       <c r="C873" s="13"/>
@@ -22609,7 +22611,7 @@
       <c r="U873" s="13"/>
       <c r="V873" s="13"/>
     </row>
-    <row r="874" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:22" ht="14.25" customHeight="1">
       <c r="A874" s="13"/>
       <c r="B874" s="13"/>
       <c r="C874" s="13"/>
@@ -22633,7 +22635,7 @@
       <c r="U874" s="13"/>
       <c r="V874" s="13"/>
     </row>
-    <row r="875" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:22" ht="14.25" customHeight="1">
       <c r="A875" s="13"/>
       <c r="B875" s="13"/>
       <c r="C875" s="13"/>
@@ -22657,7 +22659,7 @@
       <c r="U875" s="13"/>
       <c r="V875" s="13"/>
     </row>
-    <row r="876" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:22" ht="14.25" customHeight="1">
       <c r="A876" s="13"/>
       <c r="B876" s="13"/>
       <c r="C876" s="13"/>
@@ -22681,7 +22683,7 @@
       <c r="U876" s="13"/>
       <c r="V876" s="13"/>
     </row>
-    <row r="877" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:22" ht="14.25" customHeight="1">
       <c r="A877" s="13"/>
       <c r="B877" s="13"/>
       <c r="C877" s="13"/>
@@ -22705,7 +22707,7 @@
       <c r="U877" s="13"/>
       <c r="V877" s="13"/>
     </row>
-    <row r="878" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:22" ht="14.25" customHeight="1">
       <c r="A878" s="13"/>
       <c r="B878" s="13"/>
       <c r="C878" s="13"/>
@@ -22729,7 +22731,7 @@
       <c r="U878" s="13"/>
       <c r="V878" s="13"/>
     </row>
-    <row r="879" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:22" ht="14.25" customHeight="1">
       <c r="A879" s="13"/>
       <c r="B879" s="13"/>
       <c r="C879" s="13"/>
@@ -22753,7 +22755,7 @@
       <c r="U879" s="13"/>
       <c r="V879" s="13"/>
     </row>
-    <row r="880" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:22" ht="14.25" customHeight="1">
       <c r="A880" s="13"/>
       <c r="B880" s="13"/>
       <c r="C880" s="13"/>
@@ -22777,7 +22779,7 @@
       <c r="U880" s="13"/>
       <c r="V880" s="13"/>
     </row>
-    <row r="881" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:22" ht="14.25" customHeight="1">
       <c r="A881" s="13"/>
       <c r="B881" s="13"/>
       <c r="C881" s="13"/>
@@ -22801,7 +22803,7 @@
       <c r="U881" s="13"/>
       <c r="V881" s="13"/>
     </row>
-    <row r="882" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:22" ht="14.25" customHeight="1">
       <c r="A882" s="13"/>
       <c r="B882" s="13"/>
       <c r="C882" s="13"/>
@@ -22825,7 +22827,7 @@
       <c r="U882" s="13"/>
       <c r="V882" s="13"/>
     </row>
-    <row r="883" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:22" ht="14.25" customHeight="1">
       <c r="A883" s="13"/>
       <c r="B883" s="13"/>
       <c r="C883" s="13"/>
@@ -22849,7 +22851,7 @@
       <c r="U883" s="13"/>
       <c r="V883" s="13"/>
     </row>
-    <row r="884" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:22" ht="14.25" customHeight="1">
       <c r="A884" s="13"/>
       <c r="B884" s="13"/>
       <c r="C884" s="13"/>
@@ -22873,7 +22875,7 @@
       <c r="U884" s="13"/>
       <c r="V884" s="13"/>
     </row>
-    <row r="885" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:22" ht="14.25" customHeight="1">
       <c r="A885" s="13"/>
       <c r="B885" s="13"/>
       <c r="C885" s="13"/>
@@ -22897,7 +22899,7 @@
       <c r="U885" s="13"/>
       <c r="V885" s="13"/>
     </row>
-    <row r="886" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:22" ht="14.25" customHeight="1">
       <c r="A886" s="13"/>
       <c r="B886" s="13"/>
       <c r="C886" s="13"/>
@@ -22921,7 +22923,7 @@
       <c r="U886" s="13"/>
       <c r="V886" s="13"/>
     </row>
-    <row r="887" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:22" ht="14.25" customHeight="1">
       <c r="A887" s="13"/>
       <c r="B887" s="13"/>
       <c r="C887" s="13"/>
@@ -22945,7 +22947,7 @@
       <c r="U887" s="13"/>
       <c r="V887" s="13"/>
     </row>
-    <row r="888" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:22" ht="14.25" customHeight="1">
       <c r="A888" s="13"/>
       <c r="B888" s="13"/>
       <c r="C888" s="13"/>
@@ -22969,7 +22971,7 @@
       <c r="U888" s="13"/>
       <c r="V888" s="13"/>
     </row>
-    <row r="889" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:22" ht="14.25" customHeight="1">
       <c r="A889" s="13"/>
       <c r="B889" s="13"/>
       <c r="C889" s="13"/>
@@ -22993,7 +22995,7 @@
       <c r="U889" s="13"/>
       <c r="V889" s="13"/>
     </row>
-    <row r="890" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:22" ht="14.25" customHeight="1">
       <c r="A890" s="13"/>
       <c r="B890" s="13"/>
       <c r="C890" s="13"/>
@@ -23017,7 +23019,7 @@
       <c r="U890" s="13"/>
       <c r="V890" s="13"/>
     </row>
-    <row r="891" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:22" ht="14.25" customHeight="1">
       <c r="A891" s="13"/>
       <c r="B891" s="13"/>
       <c r="C891" s="13"/>
@@ -23041,7 +23043,7 @@
       <c r="U891" s="13"/>
       <c r="V891" s="13"/>
     </row>
-    <row r="892" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:22" ht="14.25" customHeight="1">
       <c r="A892" s="13"/>
       <c r="B892" s="13"/>
       <c r="C892" s="13"/>
@@ -23065,7 +23067,7 @@
       <c r="U892" s="13"/>
       <c r="V892" s="13"/>
     </row>
-    <row r="893" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:22" ht="14.25" customHeight="1">
       <c r="A893" s="13"/>
       <c r="B893" s="13"/>
       <c r="C893" s="13"/>
@@ -23089,7 +23091,7 @@
       <c r="U893" s="13"/>
       <c r="V893" s="13"/>
     </row>
-    <row r="894" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:22" ht="14.25" customHeight="1">
       <c r="A894" s="13"/>
       <c r="B894" s="13"/>
       <c r="C894" s="13"/>
@@ -23113,7 +23115,7 @@
       <c r="U894" s="13"/>
       <c r="V894" s="13"/>
     </row>
-    <row r="895" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:22" ht="14.25" customHeight="1">
       <c r="A895" s="13"/>
       <c r="B895" s="13"/>
       <c r="C895" s="13"/>
@@ -23137,7 +23139,7 @@
       <c r="U895" s="13"/>
       <c r="V895" s="13"/>
     </row>
-    <row r="896" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:22" ht="14.25" customHeight="1">
       <c r="A896" s="13"/>
       <c r="B896" s="13"/>
       <c r="C896" s="13"/>
@@ -23161,7 +23163,7 @@
       <c r="U896" s="13"/>
       <c r="V896" s="13"/>
     </row>
-    <row r="897" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:22" ht="14.25" customHeight="1">
       <c r="A897" s="13"/>
       <c r="B897" s="13"/>
       <c r="C897" s="13"/>
@@ -23185,7 +23187,7 @@
       <c r="U897" s="13"/>
       <c r="V897" s="13"/>
     </row>
-    <row r="898" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:22" ht="14.25" customHeight="1">
       <c r="A898" s="13"/>
       <c r="B898" s="13"/>
       <c r="C898" s="13"/>
@@ -23209,7 +23211,7 @@
       <c r="U898" s="13"/>
       <c r="V898" s="13"/>
     </row>
-    <row r="899" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:22" ht="14.25" customHeight="1">
       <c r="A899" s="13"/>
       <c r="B899" s="13"/>
       <c r="C899" s="13"/>
@@ -23233,7 +23235,7 @@
       <c r="U899" s="13"/>
       <c r="V899" s="13"/>
     </row>
-    <row r="900" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:22" ht="14.25" customHeight="1">
       <c r="A900" s="13"/>
       <c r="B900" s="13"/>
       <c r="C900" s="13"/>
@@ -23257,7 +23259,7 @@
       <c r="U900" s="13"/>
       <c r="V900" s="13"/>
     </row>
-    <row r="901" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:22" ht="14.25" customHeight="1">
       <c r="A901" s="13"/>
       <c r="B901" s="13"/>
       <c r="C901" s="13"/>
@@ -23281,7 +23283,7 @@
       <c r="U901" s="13"/>
       <c r="V901" s="13"/>
     </row>
-    <row r="902" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:22" ht="14.25" customHeight="1">
       <c r="A902" s="13"/>
       <c r="B902" s="13"/>
       <c r="C902" s="13"/>
@@ -23305,7 +23307,7 @@
       <c r="U902" s="13"/>
       <c r="V902" s="13"/>
     </row>
-    <row r="903" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:22" ht="14.25" customHeight="1">
       <c r="A903" s="13"/>
       <c r="B903" s="13"/>
       <c r="C903" s="13"/>
@@ -23329,7 +23331,7 @@
       <c r="U903" s="13"/>
       <c r="V903" s="13"/>
     </row>
-    <row r="904" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:22" ht="14.25" customHeight="1">
       <c r="A904" s="13"/>
       <c r="B904" s="13"/>
       <c r="C904" s="13"/>
@@ -23353,7 +23355,7 @@
       <c r="U904" s="13"/>
       <c r="V904" s="13"/>
     </row>
-    <row r="905" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:22" ht="14.25" customHeight="1">
       <c r="A905" s="13"/>
       <c r="B905" s="13"/>
       <c r="C905" s="13"/>
@@ -23377,7 +23379,7 @@
       <c r="U905" s="13"/>
       <c r="V905" s="13"/>
     </row>
-    <row r="906" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:22" ht="14.25" customHeight="1">
       <c r="A906" s="13"/>
       <c r="B906" s="13"/>
       <c r="C906" s="13"/>
@@ -23401,7 +23403,7 @@
       <c r="U906" s="13"/>
       <c r="V906" s="13"/>
     </row>
-    <row r="907" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:22" ht="14.25" customHeight="1">
       <c r="A907" s="13"/>
       <c r="B907" s="13"/>
       <c r="C907" s="13"/>
@@ -23425,7 +23427,7 @@
       <c r="U907" s="13"/>
       <c r="V907" s="13"/>
     </row>
-    <row r="908" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:22" ht="14.25" customHeight="1">
       <c r="A908" s="13"/>
       <c r="B908" s="13"/>
       <c r="C908" s="13"/>
@@ -23449,7 +23451,7 @@
       <c r="U908" s="13"/>
       <c r="V908" s="13"/>
     </row>
-    <row r="909" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:22" ht="14.25" customHeight="1">
       <c r="A909" s="13"/>
       <c r="B909" s="13"/>
       <c r="C909" s="13"/>
@@ -23473,7 +23475,7 @@
       <c r="U909" s="13"/>
       <c r="V909" s="13"/>
     </row>
-    <row r="910" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:22" ht="14.25" customHeight="1">
       <c r="A910" s="13"/>
       <c r="B910" s="13"/>
       <c r="C910" s="13"/>
@@ -23497,7 +23499,7 @@
       <c r="U910" s="13"/>
       <c r="V910" s="13"/>
     </row>
-    <row r="911" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:22" ht="14.25" customHeight="1">
       <c r="A911" s="13"/>
       <c r="B911" s="13"/>
       <c r="C911" s="13"/>
@@ -23521,7 +23523,7 @@
       <c r="U911" s="13"/>
       <c r="V911" s="13"/>
     </row>
-    <row r="912" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:22" ht="14.25" customHeight="1">
       <c r="A912" s="13"/>
       <c r="B912" s="13"/>
       <c r="C912" s="13"/>
@@ -23545,7 +23547,7 @@
       <c r="U912" s="13"/>
       <c r="V912" s="13"/>
     </row>
-    <row r="913" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:22" ht="14.25" customHeight="1">
       <c r="A913" s="13"/>
       <c r="B913" s="13"/>
       <c r="C913" s="13"/>
@@ -23569,7 +23571,7 @@
       <c r="U913" s="13"/>
       <c r="V913" s="13"/>
     </row>
-    <row r="914" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:22" ht="14.25" customHeight="1">
       <c r="A914" s="13"/>
       <c r="B914" s="13"/>
       <c r="C914" s="13"/>
@@ -23593,7 +23595,7 @@
       <c r="U914" s="13"/>
       <c r="V914" s="13"/>
     </row>
-    <row r="915" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:22" ht="14.25" customHeight="1">
       <c r="A915" s="13"/>
       <c r="B915" s="13"/>
       <c r="C915" s="13"/>
@@ -23617,7 +23619,7 @@
       <c r="U915" s="13"/>
       <c r="V915" s="13"/>
     </row>
-    <row r="916" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:22" ht="14.25" customHeight="1">
       <c r="A916" s="13"/>
       <c r="B916" s="13"/>
       <c r="C916" s="13"/>
@@ -23641,7 +23643,7 @@
       <c r="U916" s="13"/>
       <c r="V916" s="13"/>
     </row>
-    <row r="917" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:22" ht="14.25" customHeight="1">
       <c r="A917" s="13"/>
       <c r="B917" s="13"/>
       <c r="C917" s="13"/>
@@ -23665,7 +23667,7 @@
       <c r="U917" s="13"/>
       <c r="V917" s="13"/>
     </row>
-    <row r="918" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:22" ht="14.25" customHeight="1">
       <c r="A918" s="13"/>
       <c r="B918" s="13"/>
       <c r="C918" s="13"/>
@@ -23689,7 +23691,7 @@
       <c r="U918" s="13"/>
       <c r="V918" s="13"/>
     </row>
-    <row r="919" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:22" ht="14.25" customHeight="1">
       <c r="A919" s="13"/>
       <c r="B919" s="13"/>
       <c r="C919" s="13"/>
@@ -23713,7 +23715,7 @@
       <c r="U919" s="13"/>
       <c r="V919" s="13"/>
     </row>
-    <row r="920" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:22" ht="14.25" customHeight="1">
       <c r="A920" s="13"/>
       <c r="B920" s="13"/>
       <c r="C920" s="13"/>
@@ -23737,7 +23739,7 @@
       <c r="U920" s="13"/>
       <c r="V920" s="13"/>
     </row>
-    <row r="921" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:22" ht="14.25" customHeight="1">
       <c r="A921" s="13"/>
       <c r="B921" s="13"/>
       <c r="C921" s="13"/>
@@ -23761,7 +23763,7 @@
       <c r="U921" s="13"/>
       <c r="V921" s="13"/>
     </row>
-    <row r="922" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:22" ht="14.25" customHeight="1">
       <c r="A922" s="13"/>
       <c r="B922" s="13"/>
       <c r="C922" s="13"/>
@@ -23785,7 +23787,7 @@
       <c r="U922" s="13"/>
       <c r="V922" s="13"/>
     </row>
-    <row r="923" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:22" ht="14.25" customHeight="1">
       <c r="A923" s="13"/>
       <c r="B923" s="13"/>
       <c r="C923" s="13"/>
@@ -23809,7 +23811,7 @@
       <c r="U923" s="13"/>
       <c r="V923" s="13"/>
     </row>
-    <row r="924" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:22" ht="14.25" customHeight="1">
       <c r="A924" s="13"/>
       <c r="B924" s="13"/>
       <c r="C924" s="13"/>
@@ -23833,7 +23835,7 @@
       <c r="U924" s="13"/>
       <c r="V924" s="13"/>
     </row>
-    <row r="925" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:22" ht="14.25" customHeight="1">
       <c r="A925" s="13"/>
       <c r="B925" s="13"/>
       <c r="C925" s="13"/>
@@ -23857,7 +23859,7 @@
       <c r="U925" s="13"/>
       <c r="V925" s="13"/>
     </row>
-    <row r="926" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:22" ht="14.25" customHeight="1">
       <c r="A926" s="13"/>
       <c r="B926" s="13"/>
       <c r="C926" s="13"/>
@@ -23881,7 +23883,7 @@
       <c r="U926" s="13"/>
       <c r="V926" s="13"/>
     </row>
-    <row r="927" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:22" ht="14.25" customHeight="1">
       <c r="A927" s="13"/>
       <c r="B927" s="13"/>
       <c r="C927" s="13"/>
@@ -23905,7 +23907,7 @@
       <c r="U927" s="13"/>
       <c r="V927" s="13"/>
     </row>
-    <row r="928" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:22" ht="14.25" customHeight="1">
       <c r="A928" s="13"/>
       <c r="B928" s="13"/>
       <c r="C928" s="13"/>
@@ -23929,7 +23931,7 @@
       <c r="U928" s="13"/>
       <c r="V928" s="13"/>
     </row>
-    <row r="929" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:22" ht="14.25" customHeight="1">
       <c r="A929" s="13"/>
       <c r="B929" s="13"/>
       <c r="C929" s="13"/>
@@ -23953,7 +23955,7 @@
       <c r="U929" s="13"/>
       <c r="V929" s="13"/>
     </row>
-    <row r="930" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:22" ht="14.25" customHeight="1">
       <c r="A930" s="13"/>
       <c r="B930" s="13"/>
       <c r="C930" s="13"/>
@@ -23977,7 +23979,7 @@
       <c r="U930" s="13"/>
       <c r="V930" s="13"/>
     </row>
-    <row r="931" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:22" ht="14.25" customHeight="1">
       <c r="A931" s="13"/>
       <c r="B931" s="13"/>
       <c r="C931" s="13"/>
@@ -24001,7 +24003,7 @@
       <c r="U931" s="13"/>
       <c r="V931" s="13"/>
     </row>
-    <row r="932" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:22" ht="14.25" customHeight="1">
       <c r="A932" s="13"/>
       <c r="B932" s="13"/>
       <c r="C932" s="13"/>
@@ -24025,7 +24027,7 @@
       <c r="U932" s="13"/>
       <c r="V932" s="13"/>
     </row>
-    <row r="933" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:22" ht="14.25" customHeight="1">
       <c r="A933" s="13"/>
       <c r="B933" s="13"/>
       <c r="C933" s="13"/>
@@ -24049,7 +24051,7 @@
       <c r="U933" s="13"/>
       <c r="V933" s="13"/>
     </row>
-    <row r="934" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:22" ht="14.25" customHeight="1">
       <c r="A934" s="13"/>
       <c r="B934" s="13"/>
       <c r="C934" s="13"/>
@@ -24073,7 +24075,7 @@
       <c r="U934" s="13"/>
       <c r="V934" s="13"/>
     </row>
-    <row r="935" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:22" ht="14.25" customHeight="1">
       <c r="A935" s="13"/>
       <c r="B935" s="13"/>
       <c r="C935" s="13"/>
@@ -24097,7 +24099,7 @@
       <c r="U935" s="13"/>
       <c r="V935" s="13"/>
     </row>
-    <row r="936" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:22" ht="14.25" customHeight="1">
       <c r="A936" s="13"/>
       <c r="B936" s="13"/>
       <c r="C936" s="13"/>
@@ -24121,7 +24123,7 @@
       <c r="U936" s="13"/>
       <c r="V936" s="13"/>
     </row>
-    <row r="937" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:22" ht="14.25" customHeight="1">
       <c r="A937" s="13"/>
       <c r="B937" s="13"/>
       <c r="C937" s="13"/>
@@ -24145,7 +24147,7 @@
       <c r="U937" s="13"/>
       <c r="V937" s="13"/>
     </row>
-    <row r="938" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:22" ht="14.25" customHeight="1">
       <c r="A938" s="13"/>
       <c r="B938" s="13"/>
       <c r="C938" s="13"/>
@@ -24169,7 +24171,7 @@
       <c r="U938" s="13"/>
       <c r="V938" s="13"/>
     </row>
-    <row r="939" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:22" ht="14.25" customHeight="1">
       <c r="A939" s="13"/>
       <c r="B939" s="13"/>
       <c r="C939" s="13"/>
@@ -24193,7 +24195,7 @@
       <c r="U939" s="13"/>
       <c r="V939" s="13"/>
     </row>
-    <row r="940" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:22" ht="14.25" customHeight="1">
       <c r="A940" s="13"/>
       <c r="B940" s="13"/>
       <c r="C940" s="13"/>
@@ -24217,7 +24219,7 @@
       <c r="U940" s="13"/>
       <c r="V940" s="13"/>
     </row>
-    <row r="941" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:22" ht="14.25" customHeight="1">
       <c r="A941" s="13"/>
       <c r="B941" s="13"/>
       <c r="C941" s="13"/>
@@ -24241,7 +24243,7 @@
       <c r="U941" s="13"/>
       <c r="V941" s="13"/>
     </row>
-    <row r="942" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:22" ht="14.25" customHeight="1">
       <c r="A942" s="13"/>
       <c r="B942" s="13"/>
       <c r="C942" s="13"/>
@@ -24265,7 +24267,7 @@
       <c r="U942" s="13"/>
       <c r="V942" s="13"/>
     </row>
-    <row r="943" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:22" ht="14.25" customHeight="1">
       <c r="A943" s="13"/>
       <c r="B943" s="13"/>
       <c r="C943" s="13"/>
@@ -24289,7 +24291,7 @@
       <c r="U943" s="13"/>
       <c r="V943" s="13"/>
     </row>
-    <row r="944" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:22" ht="14.25" customHeight="1">
       <c r="A944" s="13"/>
       <c r="B944" s="13"/>
       <c r="C944" s="13"/>
@@ -24313,7 +24315,7 @@
       <c r="U944" s="13"/>
       <c r="V944" s="13"/>
     </row>
-    <row r="945" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:22" ht="14.25" customHeight="1">
       <c r="A945" s="13"/>
       <c r="B945" s="13"/>
       <c r="C945" s="13"/>
@@ -24337,7 +24339,7 @@
       <c r="U945" s="13"/>
       <c r="V945" s="13"/>
     </row>
-    <row r="946" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:22" ht="14.25" customHeight="1">
       <c r="A946" s="13"/>
       <c r="B946" s="13"/>
       <c r="C946" s="13"/>
@@ -24361,7 +24363,7 @@
       <c r="U946" s="13"/>
       <c r="V946" s="13"/>
     </row>
-    <row r="947" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:22" ht="14.25" customHeight="1">
       <c r="A947" s="13"/>
       <c r="B947" s="13"/>
       <c r="C947" s="13"/>
@@ -24385,7 +24387,7 @@
       <c r="U947" s="13"/>
       <c r="V947" s="13"/>
     </row>
-    <row r="948" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:22" ht="14.25" customHeight="1">
       <c r="A948" s="13"/>
       <c r="B948" s="13"/>
       <c r="C948" s="13"/>
@@ -24409,7 +24411,7 @@
       <c r="U948" s="13"/>
       <c r="V948" s="13"/>
     </row>
-    <row r="949" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:22" ht="14.25" customHeight="1">
       <c r="A949" s="13"/>
       <c r="B949" s="13"/>
       <c r="C949" s="13"/>
@@ -24433,7 +24435,7 @@
       <c r="U949" s="13"/>
       <c r="V949" s="13"/>
     </row>
-    <row r="950" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:22" ht="14.25" customHeight="1">
       <c r="A950" s="13"/>
       <c r="B950" s="13"/>
       <c r="C950" s="13"/>
@@ -24457,7 +24459,7 @@
       <c r="U950" s="13"/>
       <c r="V950" s="13"/>
     </row>
-    <row r="951" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:22" ht="14.25" customHeight="1">
       <c r="A951" s="13"/>
       <c r="B951" s="13"/>
       <c r="C951" s="13"/>
@@ -24481,7 +24483,7 @@
       <c r="U951" s="13"/>
       <c r="V951" s="13"/>
     </row>
-    <row r="952" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:22" ht="14.25" customHeight="1">
       <c r="A952" s="13"/>
       <c r="B952" s="13"/>
       <c r="C952" s="13"/>
@@ -24505,7 +24507,7 @@
       <c r="U952" s="13"/>
       <c r="V952" s="13"/>
     </row>
-    <row r="953" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:22" ht="14.25" customHeight="1">
       <c r="A953" s="13"/>
       <c r="B953" s="13"/>
       <c r="C953" s="13"/>
@@ -24529,7 +24531,7 @@
       <c r="U953" s="13"/>
       <c r="V953" s="13"/>
     </row>
-    <row r="954" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:22" ht="14.25" customHeight="1">
       <c r="A954" s="13"/>
       <c r="B954" s="13"/>
       <c r="C954" s="13"/>
@@ -24553,7 +24555,7 @@
       <c r="U954" s="13"/>
       <c r="V954" s="13"/>
     </row>
-    <row r="955" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:22" ht="14.25" customHeight="1">
       <c r="A955" s="13"/>
       <c r="B955" s="13"/>
       <c r="C955" s="13"/>
@@ -24577,7 +24579,7 @@
       <c r="U955" s="13"/>
       <c r="V955" s="13"/>
     </row>
-    <row r="956" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:22" ht="14.25" customHeight="1">
       <c r="A956" s="13"/>
       <c r="B956" s="13"/>
       <c r="C956" s="13"/>
@@ -24601,7 +24603,7 @@
       <c r="U956" s="13"/>
       <c r="V956" s="13"/>
     </row>
-    <row r="957" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:22" ht="14.25" customHeight="1">
       <c r="A957" s="13"/>
       <c r="B957" s="13"/>
       <c r="C957" s="13"/>
@@ -24625,7 +24627,7 @@
       <c r="U957" s="13"/>
       <c r="V957" s="13"/>
     </row>
-    <row r="958" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:22" ht="14.25" customHeight="1">
       <c r="A958" s="13"/>
       <c r="B958" s="13"/>
       <c r="C958" s="13"/>
@@ -24649,7 +24651,7 @@
       <c r="U958" s="13"/>
       <c r="V958" s="13"/>
     </row>
-    <row r="959" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:22" ht="14.25" customHeight="1">
       <c r="A959" s="13"/>
       <c r="B959" s="13"/>
       <c r="C959" s="13"/>
@@ -24673,7 +24675,7 @@
       <c r="U959" s="13"/>
       <c r="V959" s="13"/>
     </row>
-    <row r="960" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:22" ht="14.25" customHeight="1">
       <c r="A960" s="13"/>
       <c r="B960" s="13"/>
       <c r="C960" s="13"/>
@@ -24697,7 +24699,7 @@
       <c r="U960" s="13"/>
       <c r="V960" s="13"/>
     </row>
-    <row r="961" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:22" ht="14.25" customHeight="1">
       <c r="A961" s="13"/>
       <c r="B961" s="13"/>
       <c r="C961" s="13"/>
@@ -24721,7 +24723,7 @@
       <c r="U961" s="13"/>
       <c r="V961" s="13"/>
     </row>
-    <row r="962" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:22" ht="14.25" customHeight="1">
       <c r="A962" s="13"/>
       <c r="B962" s="13"/>
       <c r="C962" s="13"/>
@@ -24745,7 +24747,7 @@
       <c r="U962" s="13"/>
       <c r="V962" s="13"/>
     </row>
-    <row r="963" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:22" ht="14.25" customHeight="1">
       <c r="A963" s="13"/>
       <c r="B963" s="13"/>
       <c r="C963" s="13"/>
@@ -24769,7 +24771,7 @@
       <c r="U963" s="13"/>
       <c r="V963" s="13"/>
     </row>
-    <row r="964" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:22" ht="14.25" customHeight="1">
       <c r="A964" s="13"/>
       <c r="B964" s="13"/>
       <c r="C964" s="13"/>
@@ -24793,7 +24795,7 @@
       <c r="U964" s="13"/>
       <c r="V964" s="13"/>
     </row>
-    <row r="965" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:22" ht="14.25" customHeight="1">
       <c r="A965" s="13"/>
       <c r="B965" s="13"/>
       <c r="C965" s="13"/>
@@ -24817,7 +24819,7 @@
       <c r="U965" s="13"/>
       <c r="V965" s="13"/>
     </row>
-    <row r="966" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:22" ht="14.25" customHeight="1">
       <c r="A966" s="13"/>
       <c r="B966" s="13"/>
       <c r="C966" s="13"/>
@@ -24841,7 +24843,7 @@
       <c r="U966" s="13"/>
       <c r="V966" s="13"/>
     </row>
-    <row r="967" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:22" ht="14.25" customHeight="1">
       <c r="A967" s="13"/>
       <c r="B967" s="13"/>
       <c r="C967" s="13"/>
@@ -24865,7 +24867,7 @@
       <c r="U967" s="13"/>
       <c r="V967" s="13"/>
     </row>
-    <row r="968" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:22" ht="14.25" customHeight="1">
       <c r="A968" s="13"/>
       <c r="B968" s="13"/>
       <c r="C968" s="13"/>
@@ -24889,7 +24891,7 @@
       <c r="U968" s="13"/>
       <c r="V968" s="13"/>
     </row>
-    <row r="969" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:22" ht="14.25" customHeight="1">
       <c r="A969" s="13"/>
       <c r="B969" s="13"/>
       <c r="C969" s="13"/>
@@ -24913,7 +24915,7 @@
       <c r="U969" s="13"/>
       <c r="V969" s="13"/>
     </row>
-    <row r="970" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:22" ht="14.25" customHeight="1">
       <c r="A970" s="13"/>
       <c r="B970" s="13"/>
       <c r="C970" s="13"/>
@@ -24937,7 +24939,7 @@
       <c r="U970" s="13"/>
       <c r="V970" s="13"/>
     </row>
-    <row r="971" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:22" ht="14.25" customHeight="1">
       <c r="A971" s="13"/>
       <c r="B971" s="13"/>
       <c r="C971" s="13"/>
@@ -24961,7 +24963,7 @@
       <c r="U971" s="13"/>
       <c r="V971" s="13"/>
     </row>
-    <row r="972" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:22" ht="14.25" customHeight="1">
       <c r="A972" s="13"/>
       <c r="B972" s="13"/>
       <c r="C972" s="13"/>
@@ -24985,7 +24987,7 @@
       <c r="U972" s="13"/>
       <c r="V972" s="13"/>
     </row>
-    <row r="973" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:22" ht="14.25" customHeight="1">
       <c r="A973" s="13"/>
       <c r="B973" s="13"/>
       <c r="C973" s="13"/>
@@ -25009,7 +25011,7 @@
       <c r="U973" s="13"/>
       <c r="V973" s="13"/>
     </row>
-    <row r="974" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:22" ht="14.25" customHeight="1">
       <c r="A974" s="13"/>
       <c r="B974" s="13"/>
       <c r="C974" s="13"/>
@@ -25033,7 +25035,7 @@
       <c r="U974" s="13"/>
       <c r="V974" s="13"/>
     </row>
-    <row r="975" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:22" ht="14.25" customHeight="1">
       <c r="A975" s="13"/>
       <c r="B975" s="13"/>
       <c r="C975" s="13"/>
@@ -25057,7 +25059,7 @@
       <c r="U975" s="13"/>
       <c r="V975" s="13"/>
     </row>
-    <row r="976" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:22" ht="14.25" customHeight="1">
       <c r="A976" s="13"/>
       <c r="B976" s="13"/>
       <c r="C976" s="13"/>
@@ -25081,7 +25083,7 @@
       <c r="U976" s="13"/>
       <c r="V976" s="13"/>
     </row>
-    <row r="977" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:22" ht="14.25" customHeight="1">
       <c r="A977" s="13"/>
       <c r="B977" s="13"/>
       <c r="C977" s="13"/>
@@ -25105,7 +25107,7 @@
       <c r="U977" s="13"/>
       <c r="V977" s="13"/>
     </row>
-    <row r="978" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:22" ht="14.25" customHeight="1">
       <c r="A978" s="13"/>
       <c r="B978" s="13"/>
       <c r="C978" s="13"/>
@@ -25129,7 +25131,7 @@
       <c r="U978" s="13"/>
       <c r="V978" s="13"/>
     </row>
-    <row r="979" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:22" ht="14.25" customHeight="1">
       <c r="A979" s="13"/>
       <c r="B979" s="13"/>
       <c r="C979" s="13"/>
@@ -25153,7 +25155,7 @@
       <c r="U979" s="13"/>
       <c r="V979" s="13"/>
     </row>
-    <row r="980" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:22" ht="14.25" customHeight="1">
       <c r="A980" s="13"/>
       <c r="B980" s="13"/>
       <c r="C980" s="13"/>
@@ -25177,7 +25179,7 @@
       <c r="U980" s="13"/>
       <c r="V980" s="13"/>
     </row>
-    <row r="981" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:22" ht="14.25" customHeight="1">
       <c r="A981" s="13"/>
       <c r="B981" s="13"/>
       <c r="C981" s="13"/>
@@ -25201,7 +25203,7 @@
       <c r="U981" s="13"/>
       <c r="V981" s="13"/>
     </row>
-    <row r="982" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:22" ht="14.25" customHeight="1">
       <c r="A982" s="13"/>
       <c r="B982" s="13"/>
       <c r="C982" s="13"/>
@@ -25225,7 +25227,7 @@
       <c r="U982" s="13"/>
       <c r="V982" s="13"/>
     </row>
-    <row r="983" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:22" ht="14.25" customHeight="1">
       <c r="A983" s="13"/>
       <c r="B983" s="13"/>
       <c r="C983" s="13"/>
@@ -25249,7 +25251,7 @@
       <c r="U983" s="13"/>
       <c r="V983" s="13"/>
     </row>
-    <row r="984" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:22" ht="14.25" customHeight="1">
       <c r="A984" s="13"/>
       <c r="B984" s="13"/>
       <c r="C984" s="13"/>
@@ -25273,7 +25275,7 @@
       <c r="U984" s="13"/>
       <c r="V984" s="13"/>
     </row>
-    <row r="985" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:22" ht="14.25" customHeight="1">
       <c r="A985" s="13"/>
       <c r="B985" s="13"/>
       <c r="C985" s="13"/>
@@ -25297,7 +25299,7 @@
       <c r="U985" s="13"/>
       <c r="V985" s="13"/>
     </row>
-    <row r="986" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:22" ht="14.25" customHeight="1">
       <c r="A986" s="13"/>
       <c r="B986" s="13"/>
       <c r="C986" s="13"/>
@@ -25321,7 +25323,7 @@
       <c r="U986" s="13"/>
       <c r="V986" s="13"/>
     </row>
-    <row r="987" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:22" ht="14.25" customHeight="1">
       <c r="A987" s="13"/>
       <c r="B987" s="13"/>
       <c r="C987" s="13"/>
@@ -25345,7 +25347,7 @@
       <c r="U987" s="13"/>
       <c r="V987" s="13"/>
     </row>
-    <row r="988" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:22" ht="14.25" customHeight="1">
       <c r="A988" s="13"/>
       <c r="B988" s="13"/>
       <c r="C988" s="13"/>
@@ -25369,7 +25371,7 @@
       <c r="U988" s="13"/>
       <c r="V988" s="13"/>
     </row>
-    <row r="989" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:22" ht="14.25" customHeight="1">
       <c r="A989" s="13"/>
       <c r="B989" s="13"/>
       <c r="C989" s="13"/>
@@ -25393,7 +25395,7 @@
       <c r="U989" s="13"/>
       <c r="V989" s="13"/>
     </row>
-    <row r="990" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:22" ht="14.25" customHeight="1">
       <c r="A990" s="13"/>
       <c r="B990" s="13"/>
       <c r="C990" s="13"/>
@@ -25417,7 +25419,7 @@
       <c r="U990" s="13"/>
       <c r="V990" s="13"/>
     </row>
-    <row r="991" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:22" ht="14.25" customHeight="1">
       <c r="A991" s="13"/>
       <c r="B991" s="13"/>
       <c r="C991" s="13"/>
@@ -25441,7 +25443,7 @@
       <c r="U991" s="13"/>
       <c r="V991" s="13"/>
     </row>
-    <row r="992" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:22" ht="14.25" customHeight="1">
       <c r="A992" s="13"/>
       <c r="B992" s="13"/>
       <c r="C992" s="13"/>
@@ -25465,7 +25467,7 @@
       <c r="U992" s="13"/>
       <c r="V992" s="13"/>
     </row>
-    <row r="993" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:22" ht="14.25" customHeight="1">
       <c r="A993" s="13"/>
       <c r="B993" s="13"/>
       <c r="C993" s="13"/>
@@ -25489,7 +25491,7 @@
       <c r="U993" s="13"/>
       <c r="V993" s="13"/>
     </row>
-    <row r="994" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:22" ht="14.25" customHeight="1">
       <c r="A994" s="13"/>
       <c r="B994" s="13"/>
       <c r="C994" s="13"/>
@@ -25513,7 +25515,7 @@
       <c r="U994" s="13"/>
       <c r="V994" s="13"/>
     </row>
-    <row r="995" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:22" ht="14.25" customHeight="1">
       <c r="A995" s="13"/>
       <c r="B995" s="13"/>
       <c r="C995" s="13"/>
@@ -25537,7 +25539,7 @@
       <c r="U995" s="13"/>
       <c r="V995" s="13"/>
     </row>
-    <row r="996" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:22" ht="14.25" customHeight="1">
       <c r="A996" s="13"/>
       <c r="B996" s="13"/>
       <c r="C996" s="13"/>
@@ -25561,7 +25563,7 @@
       <c r="U996" s="13"/>
       <c r="V996" s="13"/>
     </row>
-    <row r="997" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:22" ht="14.25" customHeight="1">
       <c r="A997" s="13"/>
       <c r="B997" s="13"/>
       <c r="C997" s="13"/>
@@ -25585,7 +25587,7 @@
       <c r="U997" s="13"/>
       <c r="V997" s="13"/>
     </row>
-    <row r="998" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:22" ht="14.25" customHeight="1">
       <c r="A998" s="13"/>
       <c r="B998" s="13"/>
       <c r="C998" s="13"/>
@@ -25609,7 +25611,7 @@
       <c r="U998" s="13"/>
       <c r="V998" s="13"/>
     </row>
-    <row r="999" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:22" ht="14.25" customHeight="1">
       <c r="A999" s="13"/>
       <c r="B999" s="13"/>
       <c r="C999" s="13"/>
@@ -25633,7 +25635,7 @@
       <c r="U999" s="13"/>
       <c r="V999" s="13"/>
     </row>
-    <row r="1000" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:22" ht="14.25" customHeight="1">
       <c r="A1000" s="13"/>
       <c r="B1000" s="13"/>
       <c r="C1000" s="13"/>
@@ -25659,5 +25661,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>